--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/space_econometrics/financial_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476D5D73-00E1-8145-96EF-272C696370DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B965121-366D-3048-81BC-781CA5F74B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6380" yWindow="1200" windowWidth="21440" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="income" sheetId="1" r:id="rId1"/>
+    <sheet name="income" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -107,12 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -416,279 +413,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C102C8-72F9-934C-922F-A8C09EEEA10A}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.5" style="2" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2019</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1805078</v>
       </c>
       <c r="C2" s="1">
+        <v>7020</v>
+      </c>
+      <c r="D2" s="1">
+        <v>766</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2265</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1812099</v>
+      </c>
+      <c r="G2" s="1">
+        <v>37259</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>57259</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2358000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-713005</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1754840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="1">
         <v>868114</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1096030</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3771464</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3864634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7020</v>
       </c>
       <c r="C3" s="1">
         <v>3600</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1865</v>
+      </c>
+      <c r="F3" s="1">
+        <v>871713</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10469</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>30469</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2358000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1616755</v>
+      </c>
+      <c r="M3" s="1">
+        <v>841244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1096030</v>
+      </c>
+      <c r="C4" s="1">
         <v>13585</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1893518</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1968171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>766</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>1867</v>
       </c>
       <c r="E4" s="1">
+        <v>1537</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1109614</v>
+      </c>
+      <c r="G4" s="1">
+        <v>33771</v>
+      </c>
+      <c r="H4" s="1">
+        <v>300000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>333771</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2923843</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-2248000</v>
+      </c>
+      <c r="M4" s="1">
+        <v>775843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3771464</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1893518</v>
+      </c>
+      <c r="D5" s="1">
         <v>22262</v>
-      </c>
-      <c r="F4" s="1">
-        <v>30561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2265</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1865</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1537</v>
       </c>
       <c r="E5" s="1">
         <v>21583</v>
       </c>
       <c r="F5" s="1">
+        <v>5664982</v>
+      </c>
+      <c r="G5" s="1">
+        <v>81750</v>
+      </c>
+      <c r="H5" s="1">
+        <v>300000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>381750</v>
+      </c>
+      <c r="J5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5667383</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-387231</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5283232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3864634</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1968171</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30561</v>
+      </c>
+      <c r="E6" s="1">
         <v>3182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1812099</v>
-      </c>
-      <c r="C6" s="1">
-        <v>871713</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1109614</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5664982</v>
       </c>
       <c r="F6" s="1">
         <v>5832806</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>37259</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10469</v>
-      </c>
-      <c r="D7" s="1">
-        <v>33771</v>
-      </c>
-      <c r="E7" s="1">
-        <v>81750</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="G6" s="1">
         <v>325291</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>300000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>300000</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="H6" s="1">
         <v>307684</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>57259</v>
-      </c>
-      <c r="C9" s="1">
-        <v>30469</v>
-      </c>
-      <c r="D9" s="1">
-        <v>333771</v>
-      </c>
-      <c r="E9" s="1">
-        <v>381750</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="I6" s="1">
         <v>632976</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="J6" s="1">
         <v>100000</v>
       </c>
-      <c r="C10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2358000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2358000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2923843</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5667383</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="K6" s="1">
         <v>6577403</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-713005</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-1616755</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-2248000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-387231</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="L6" s="1">
         <v>-1492430</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1754840</v>
-      </c>
-      <c r="C13" s="1">
-        <v>841244</v>
-      </c>
-      <c r="D13" s="1">
-        <v>775843</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5283232</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="M6" s="1">
         <v>5199830</v>
       </c>
     </row>

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -8,36 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/space_econometrics/financial_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B965121-366D-3048-81BC-781CA5F74B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751C66EE-9886-9545-AD50-30CA4C7DFC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="1200" windowWidth="21440" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="500" windowWidth="16980" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Fixed Assets</t>
-  </si>
-  <si>
-    <t>Soft asset</t>
-  </si>
-  <si>
-    <t>Other asset</t>
-  </si>
-  <si>
-    <t>Total assets</t>
   </si>
   <si>
     <t>Current Liabilities</t>
@@ -55,17 +53,56 @@
     <t>Capital Surplus</t>
   </si>
   <si>
-    <t>Net Income</t>
+    <t>Equity</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Total Revenue</t>
+    <t>Translation Adjustments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Net Assets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Total Liabilities and Equity</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Growth Rate of Assets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Growth Rate of Equity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Growth Rate of Liability</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Current Assets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Total Assets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Growth Rate of Retained Earnings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,18 +111,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -107,9 +181,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -414,261 +514,1215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C102C8-72F9-934C-922F-A8C09EEEA10A}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="20">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:18" ht="20">
+      <c r="A2" s="4">
+        <v>43556</v>
+      </c>
+      <c r="B2" s="5">
         <v>1805078</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>7020</v>
       </c>
-      <c r="D2" s="1">
-        <v>766</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2265</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2" s="5">
         <v>1812099</v>
       </c>
-      <c r="G2" s="1">
+      <c r="E2" s="5">
         <v>37259</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F2" s="5">
         <v>20000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="G2" s="5">
         <v>57259</v>
       </c>
-      <c r="J2" s="1">
+      <c r="H2" s="6">
+        <v>1746053</v>
+      </c>
+      <c r="I2" s="5">
         <v>100000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="J2" s="5">
         <v>2358000</v>
       </c>
-      <c r="L2" s="1">
+      <c r="K2" s="5">
         <v>-713005</v>
       </c>
-      <c r="M2" s="1">
+      <c r="L2" s="5">
+        <v>9845</v>
+      </c>
+      <c r="M2" s="5">
+        <f>SUM(I2:L2)</f>
         <v>1754840</v>
       </c>
+      <c r="N2" s="5">
+        <f>SUM(G2+M2)</f>
+        <v>1812099</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:18" ht="18">
+      <c r="A3" s="7">
+        <v>43647</v>
+      </c>
+      <c r="B3" s="8">
+        <f>(B2-B4)/($A4-$A2)*($A4-$A3)+B4</f>
+        <v>1572117.005464481</v>
+      </c>
+      <c r="C3" s="8">
+        <f>(C2-C4)/($A4-$A2)*($A4-$A3)+C4</f>
+        <v>6169.6721311475412</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:N3" si="0">(D2-D4)/($A4-$A2)*($A4-$A3)+D4</f>
+        <v>1578287.4289617487</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="0"/>
+        <v>30598.098360655738</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" si="0"/>
+        <v>50598.098360655742</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" si="0"/>
+        <v>1521086.8278688525</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="J3" s="8">
+        <f t="shared" si="0"/>
+        <v>2358000</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" si="0"/>
+        <v>-937707.86885245901</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" si="0"/>
+        <v>7397.1994535519125</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
+        <v>1527689.0819672132</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" si="0"/>
+        <v>1578287.4289617487</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" ht="18">
+      <c r="A4" s="7">
+        <v>43739</v>
+      </c>
+      <c r="B4" s="8">
+        <f>(B2-B6)/($A6-$A2)*($A6-$A4)+B6</f>
+        <v>1336596</v>
+      </c>
+      <c r="C4" s="8">
+        <f>(C2-C6)/($A6-$A2)*($A6-$A4)+C6</f>
+        <v>5310</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:N4" si="1">(D2-D6)/($A6-$A2)*($A6-$A4)+D6</f>
+        <v>1341906.5</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>23864</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="1"/>
+        <v>43864</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="1"/>
+        <v>1293648.5</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="J4" s="8">
+        <f t="shared" si="1"/>
+        <v>2358000</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" si="1"/>
+        <v>-1164880</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" ref="L4:M4" si="2">(L2-L6)/($A6-$A2)*($A6-$A4)+L6</f>
+        <v>4922.5</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="2"/>
+        <v>1298042</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" si="1"/>
+        <v>1341906.5</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" ht="18">
+      <c r="A5" s="7">
+        <v>43831</v>
+      </c>
+      <c r="B5" s="8">
+        <f>(B4-B6)/($A6-$A4)*($A6-$A5)+B6</f>
+        <v>1101074.994535519</v>
+      </c>
+      <c r="C5" s="8">
+        <f>(C4-C6)/($A6-$A4)*($A6-$A5)+C6</f>
+        <v>4450.3278688524588</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:N5" si="3">(D4-D6)/($A6-$A4)*($A6-$A5)+D6</f>
+        <v>1105525.5710382513</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="3"/>
+        <v>17129.901639344262</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="3"/>
+        <v>37129.901639344265</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="3"/>
+        <v>1066210.1721311475</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="3"/>
+        <v>2358000</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="3"/>
+        <v>-1392052.1311475411</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="3"/>
+        <v>2447.8005464480875</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="3"/>
+        <v>1068394.9180327868</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="3"/>
+        <v>1105525.5710382513</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" ht="20">
+      <c r="A6" s="4">
+        <v>43922</v>
+      </c>
+      <c r="B6" s="5">
         <v>868114</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C6" s="5">
         <v>3600</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D6" s="5">
+        <v>871714</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10469</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="5">
+        <v>30469</v>
+      </c>
+      <c r="H6" s="6">
+        <v>841244</v>
+      </c>
+      <c r="I6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2358000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-1616755</v>
+      </c>
+      <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>1865</v>
-      </c>
-      <c r="F3" s="1">
-        <v>871713</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10469</v>
-      </c>
-      <c r="H3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>30469</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="M6" s="5">
+        <v>841244</v>
+      </c>
+      <c r="N6" s="5">
+        <v>871714</v>
+      </c>
+      <c r="O6" s="11">
+        <f>(D6-D2)/D2</f>
+        <v>-0.51894791620104641</v>
+      </c>
+      <c r="P6" s="11">
+        <f>(G6-G2)/G2</f>
+        <v>-0.46787404600150195</v>
+      </c>
+      <c r="Q6" s="11">
+        <f>(H6-H2)/H2</f>
+        <v>-0.51820248297159366</v>
+      </c>
+      <c r="R6" s="11">
+        <f>(K6-K2)/K2</f>
+        <v>1.2675226681439822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18">
+      <c r="A7" s="7">
+        <v>44013</v>
+      </c>
+      <c r="B7" s="8">
+        <f>(B6-B8)/($A8-$A6)*($A8-$A7)+B8</f>
+        <v>924936.89315068489</v>
+      </c>
+      <c r="C7" s="8">
+        <f>(C6-C8)/($A8-$A6)*($A8-$A7)+C8</f>
+        <v>6089.4109589041109</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7" si="4">(D6-D8)/($A8-$A6)*($A8-$A7)+D8</f>
+        <v>931026.30410958908</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7" si="5">(E6-E8)/($A8-$A6)*($A8-$A7)+E8</f>
+        <v>16278.539726027399</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7" si="6">(F6-F8)/($A8-$A6)*($A8-$A7)+F8</f>
+        <v>89808.219178082189</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7:H7" si="7">(G6-G8)/($A8-$A6)*($A8-$A7)+G8</f>
+        <v>106086.75890410959</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="7"/>
+        <v>824938.54520547949</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7" si="8">(I6-I8)/($A8-$A6)*($A8-$A7)+I8</f>
         <v>100000</v>
       </c>
-      <c r="K3" s="1">
-        <v>2358000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-1616755</v>
-      </c>
-      <c r="M3" s="1">
-        <v>841244</v>
+      <c r="J7" s="8">
+        <f t="shared" ref="J7" si="9">(J6-J8)/($A8-$A6)*($A8-$A7)+J8</f>
+        <v>2499073.1863013697</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" ref="K7:M7" si="10">(K6-K8)/($A8-$A6)*($A8-$A7)+K8</f>
+        <v>-1774133.8904109588</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="10"/>
+        <v>824938.54520547949</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" ref="N7:R7" si="11">(N6-N8)/($A8-$A6)*($A8-$A7)+N8</f>
+        <v>931026.30410958908</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="11"/>
+        <v>-0.32152536735162834</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="11"/>
+        <v>2.1305672659624117</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="11"/>
+        <v>-0.4083893465088127</v>
+      </c>
+      <c r="R7" s="13">
+        <f t="shared" si="11"/>
+        <v>1.0488526158724483</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="8" spans="1:18" ht="18">
+      <c r="A8" s="7">
+        <v>44105</v>
+      </c>
+      <c r="B8" s="8">
+        <f>(B6-B10)/($A10-$A6)*($A10-$A8)+B10</f>
+        <v>982384.2136986301</v>
+      </c>
+      <c r="C8" s="8">
+        <f>(C6-C10)/($A10-$A6)*($A10-$A8)+C10</f>
+        <v>8606.1780821917819</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" ref="D8:O8" si="12">(D6-D10)/($A10-$A6)*($A10-$A8)+D10</f>
+        <v>990990.39178082196</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="12"/>
+        <v>22151.920547945207</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="12"/>
+        <v>160383.56164383562</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="12"/>
+        <v>182535.48219178084</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="12"/>
+        <v>808453.90958904114</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="12"/>
+        <v>100000</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="12"/>
+        <v>2641696.6273972602</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="12"/>
+        <v>-1933242.2191780822</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="12"/>
+        <v>808453.90958904114</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="12"/>
+        <v>990990.39178082196</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.12193333994342542</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" ref="P8:R8" si="13">(P6-P10)/($A10-$A6)*($A10-$A8)+P10</f>
+        <v>4.7575628780577972</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="13"/>
+        <v>-0.29736947228270449</v>
+      </c>
+      <c r="R8" s="13">
+        <f t="shared" si="13"/>
+        <v>0.8277795959935349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18">
+      <c r="A9" s="7">
+        <v>44197</v>
+      </c>
+      <c r="B9" s="8">
+        <f>(B8-B10)/($A10-$A8)*($A10-$A9)+B10</f>
+        <v>1039831.5342465753</v>
+      </c>
+      <c r="C9" s="8">
+        <f>(C8-C10)/($A10-$A8)*($A10-$A9)+C10</f>
+        <v>11122.945205479453</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9" si="14">(D8-D10)/($A10-$A8)*($A10-$A9)+D10</f>
+        <v>1050954.4794520547</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" ref="E9" si="15">(E8-E10)/($A10-$A8)*($A10-$A9)+E10</f>
+        <v>28025.301369863013</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9" si="16">(F8-F10)/($A10-$A8)*($A10-$A9)+F10</f>
+        <v>230958.90410958906</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" ref="G9:H9" si="17">(G8-G10)/($A10-$A8)*($A10-$A9)+G10</f>
+        <v>258984.20547945207</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="17"/>
+        <v>791969.27397260279</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" ref="I9" si="18">(I8-I10)/($A10-$A8)*($A10-$A9)+I10</f>
+        <v>100000</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" ref="J9" si="19">(J8-J10)/($A10-$A8)*($A10-$A9)+J10</f>
+        <v>2784320.0684931506</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" ref="K9:M9" si="20">(K8-K10)/($A10-$A8)*($A10-$A9)+K10</f>
+        <v>-2092350.5479452056</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="20"/>
+        <v>791969.27397260279</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" ref="N9:R9" si="21">(N8-N10)/($A10-$A8)*($A10-$A9)+N10</f>
+        <v>1050954.4794520547</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="21"/>
+        <v>7.7658687464777387E-2</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="21"/>
+        <v>7.3845584901531822</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="21"/>
+        <v>-0.18634959805659623</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="21"/>
+        <v>0.60670657611462153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="20">
+      <c r="A10" s="4">
+        <v>44287</v>
+      </c>
+      <c r="B10" s="5">
         <v>1096030</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C10" s="5">
         <v>13585</v>
       </c>
-      <c r="D4" s="1">
-        <v>1867</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1537</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1109614</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="D10" s="5">
+        <v>1109615</v>
+      </c>
+      <c r="E10" s="5">
         <v>33771</v>
       </c>
-      <c r="H4" s="1">
+      <c r="F10" s="5">
         <v>300000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="G10" s="5">
         <v>333771</v>
       </c>
-      <c r="J4" s="1">
+      <c r="H10" s="6">
+        <v>775843</v>
+      </c>
+      <c r="I10" s="5">
         <v>100000</v>
       </c>
-      <c r="K4" s="1">
+      <c r="J10" s="5">
         <v>2923843</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K10" s="5">
         <v>-2248000</v>
       </c>
-      <c r="M4" s="1">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
         <v>775843</v>
       </c>
+      <c r="N10" s="5">
+        <v>1109615</v>
+      </c>
+      <c r="O10" s="11">
+        <f>(D10-D6)/D6</f>
+        <v>0.2729117577554106</v>
+      </c>
+      <c r="P10" s="11">
+        <f>(G10-G6)/G6</f>
+        <v>9.9544455019856244</v>
+      </c>
+      <c r="Q10" s="11">
+        <f>(H10-H6)/H6</f>
+        <v>-7.7743199357142523E-2</v>
+      </c>
+      <c r="R10" s="11">
+        <f>(K10-K6)/K6</f>
+        <v>0.39043949145046714</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="11" spans="1:18" ht="18">
+      <c r="A11" s="7">
+        <v>44378</v>
+      </c>
+      <c r="B11" s="8">
+        <f>(B10-B12)/($A12-$A10)*($A12-$A11)+B12</f>
+        <v>1763056.0109589044</v>
+      </c>
+      <c r="C11" s="8">
+        <f>(C10-C12)/($A12-$A10)*($A12-$A11)+C12</f>
+        <v>482280.6246575343</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11" si="22">(D10-D12)/($A12-$A10)*($A12-$A11)+D12</f>
+        <v>2245336.6356164385</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" ref="E11" si="23">(E10-E12)/($A12-$A10)*($A12-$A11)+E12</f>
+        <v>45732.887671232878</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ref="F11" si="24">(F10-F12)/($A12-$A10)*($A12-$A11)+F12</f>
+        <v>300000</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" ref="G11:H11" si="25">(G10-G12)/($A12-$A10)*($A12-$A11)+G12</f>
+        <v>345732.88767123286</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="25"/>
+        <v>1901328.2575342464</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" ref="I11" si="26">(I10-I12)/($A12-$A10)*($A12-$A11)+I12</f>
+        <v>100000</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" ref="J11" si="27">(J10-J12)/($A12-$A10)*($A12-$A11)+J12</f>
+        <v>3607848.8630136987</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" ref="K11:M11" si="28">(K10-K12)/($A12-$A10)*($A12-$A11)+K12</f>
+        <v>-1784082.2493150686</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="28"/>
+        <v>-1725.0109589041097</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="28"/>
+        <v>1899602.9972602739</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" ref="N11:R11" si="29">(N10-N12)/($A12-$A10)*($A12-$A11)+N12</f>
+        <v>2245336.6356164385</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="29"/>
+        <v>1.2283983962162983</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="29"/>
+        <v>7.5084908467695524</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="29"/>
+        <v>1.3923004487856745</v>
+      </c>
+      <c r="R11" s="13">
+        <f t="shared" si="29"/>
+        <v>8.6727936720492005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18">
+      <c r="A12" s="7">
+        <v>44470</v>
+      </c>
+      <c r="B12" s="8">
+        <f>(B10-B14)/($A14-$A10)*($A14-$A12)+B14</f>
+        <v>2437411.9780821921</v>
+      </c>
+      <c r="C12" s="8">
+        <f>(C10-C14)/($A14-$A10)*($A14-$A12)+C14</f>
+        <v>956126.75068493153</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:R12" si="30">(D10-D14)/($A14-$A10)*($A14-$A12)+D14</f>
+        <v>3393538.7287671231</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="30"/>
+        <v>57826.224657534243</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="30"/>
+        <v>300000</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="30"/>
+        <v>357826.22465753427</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="30"/>
+        <v>3039181.4849315067</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="30"/>
+        <v>100000</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="30"/>
+        <v>4299371.2739726026</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="30"/>
+        <v>-1315066.5013698631</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="30"/>
+        <v>-3468.9780821917811</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="30"/>
+        <v>3035712.0054794522</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="30"/>
+        <v>3393538.7287671231</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="30"/>
+        <v>2.194384887847086</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="30"/>
+        <v>5.0356575689686878</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="30"/>
+        <v>2.878498422732259</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="30"/>
+        <v>-0.22032110762190038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18">
+      <c r="A13" s="7">
+        <v>44562</v>
+      </c>
+      <c r="B13" s="8">
+        <f>(B12-B14)/($A14-$A12)*($A14-$A13)+B14</f>
+        <v>3111767.9452054799</v>
+      </c>
+      <c r="C13" s="8">
+        <f>(C12-C14)/($A14-$A12)*($A14-$A13)+C14</f>
+        <v>1429972.8767123288</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13" si="31">(D12-D14)/($A14-$A12)*($A14-$A13)+D14</f>
+        <v>4541740.8219178077</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13" si="32">(E12-E14)/($A14-$A12)*($A14-$A13)+E14</f>
+        <v>69919.561643835608</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13" si="33">(F12-F14)/($A14-$A12)*($A14-$A13)+F14</f>
+        <v>300000</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" ref="G13:H13" si="34">(G12-G14)/($A14-$A12)*($A14-$A13)+G14</f>
+        <v>369919.56164383562</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="34"/>
+        <v>4177034.7123287674</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" ref="I13" si="35">(I12-I14)/($A14-$A12)*($A14-$A13)+I14</f>
+        <v>100000</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" ref="J13" si="36">(J12-J14)/($A14-$A12)*($A14-$A13)+J14</f>
+        <v>4990893.6849315064</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" ref="K13:M13" si="37">(K12-K14)/($A14-$A12)*($A14-$A13)+K14</f>
+        <v>-846050.75342465751</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="37"/>
+        <v>-5212.9452054794519</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="37"/>
+        <v>4171821.01369863</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" ref="N13:R13" si="38">(N12-N14)/($A14-$A12)*($A14-$A13)+N14</f>
+        <v>4541740.8219178077</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="38"/>
+        <v>3.1603713794778736</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="38"/>
+        <v>2.5628242911678227</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="38"/>
+        <v>4.3646963966788439</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="38"/>
+        <v>-0.52737015196429282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="20">
+      <c r="A14" s="4">
+        <v>44652</v>
+      </c>
+      <c r="B14" s="5">
         <v>3771464</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C14" s="5">
         <v>1893518</v>
       </c>
-      <c r="D5" s="1">
-        <v>22262</v>
-      </c>
-      <c r="E5" s="1">
-        <v>21583</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D14" s="5">
         <v>5664982</v>
       </c>
-      <c r="G5" s="1">
+      <c r="E14" s="5">
         <v>81750</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F14" s="5">
         <v>300000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="G14" s="5">
         <v>381750</v>
       </c>
-      <c r="J5" s="1">
+      <c r="H14" s="6">
+        <v>5290152</v>
+      </c>
+      <c r="I14" s="5">
         <v>100000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="J14" s="5">
         <v>5667383</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K14" s="5">
         <v>-387231</v>
       </c>
-      <c r="M5" s="1">
+      <c r="L14" s="5">
+        <v>-6919</v>
+      </c>
+      <c r="M14" s="5">
         <v>5283232</v>
       </c>
+      <c r="N14" s="5">
+        <v>5664982</v>
+      </c>
+      <c r="O14" s="11">
+        <f>(D14-D10)/D10</f>
+        <v>4.1053581647688615</v>
+      </c>
+      <c r="P14" s="11">
+        <f>(G14-G10)/G10</f>
+        <v>0.14374825853654152</v>
+      </c>
+      <c r="Q14" s="11">
+        <f>(H14-H10)/H10</f>
+        <v>5.8185857190178938</v>
+      </c>
+      <c r="R14" s="11">
+        <f>(K14-K10)/K10</f>
+        <v>-0.82774421708185053</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="15" spans="1:18" ht="18">
+      <c r="A15" s="7">
+        <v>44743</v>
+      </c>
+      <c r="B15" s="8">
+        <f>(B14-B16)/($A16-$A14)*($A16-$A15)+B16</f>
+        <v>3794692.6849315069</v>
+      </c>
+      <c r="C15" s="8">
+        <f>(C14-C16)/($A16-$A14)*($A16-$A15)+C16</f>
+        <v>1912130.1178082193</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" ref="D15" si="39">(D14-D16)/($A16-$A14)*($A16-$A15)+D16</f>
+        <v>5706823.0520547945</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" ref="E15" si="40">(E14-E16)/($A16-$A14)*($A16-$A15)+E16</f>
+        <v>142468.44109589042</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ref="F15" si="41">(F14-F16)/($A16-$A14)*($A16-$A15)+F16</f>
+        <v>301915.73698630137</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" ref="G15:H15" si="42">(G14-G16)/($A16-$A14)*($A16-$A15)+G16</f>
+        <v>444384.42739726027</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="42"/>
+        <v>5263929.0410958901</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15" si="43">(I14-I16)/($A16-$A14)*($A16-$A15)+I16</f>
+        <v>100000</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" ref="J15" si="44">(J14-J16)/($A16-$A14)*($A16-$A15)+J16</f>
+        <v>5894264.6986301374</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" ref="K15:R15" si="45">(K14-K16)/($A16-$A14)*($A16-$A15)+K16</f>
+        <v>-662773.76438356168</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="45"/>
+        <v>-1489.9150684931501</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="45"/>
+        <v>5262438.6246575341</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" ref="N15" si="46">(N14-N16)/($A16-$A14)*($A16-$A15)+N16</f>
+        <v>5706823.0520547945</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="45"/>
+        <v>3.0892164235869415</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="45"/>
+        <v>0.27198149810295391</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="45"/>
+        <v>4.3629676832993924</v>
+      </c>
+      <c r="R15" s="13">
+        <f t="shared" si="45"/>
+        <v>9.0196959470185356E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18">
+      <c r="A16" s="7">
+        <v>44835</v>
+      </c>
+      <c r="B16" s="8">
+        <f>(B14-B18)/($A18-$A14)*($A18-$A16)+B18</f>
+        <v>3818176.6301369863</v>
+      </c>
+      <c r="C16" s="8">
+        <f>(C14-C18)/($A18-$A14)*($A18-$A16)+C18</f>
+        <v>1930946.7643835617</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:N16" si="47">(D14-D18)/($A18-$A14)*($A18-$A16)+D18</f>
+        <v>5749123.895890411</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="47"/>
+        <v>203854.11780821916</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="47"/>
+        <v>303852.52602739725</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="47"/>
+        <v>507707.14520547946</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="47"/>
+        <v>5237417.9178082189</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="47"/>
+        <v>100000</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="47"/>
+        <v>6123639.6027397262</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="47"/>
+        <v>-941344.47123287676</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="47"/>
+        <v>3998.830136986302</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" ref="M16" si="48">(M14-M18)/($A18-$A14)*($A18-$A16)+M18</f>
+        <v>5241416.7506849319</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="47"/>
+        <v>5749123.895890411</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" ref="O16:R16" si="49">(O14-O18)/($A18-$A14)*($A18-$A16)+O18</f>
+        <v>2.0619082896447805</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="49"/>
+        <v>0.40162389414811817</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="49"/>
+        <v>2.8913538449905785</v>
+      </c>
+      <c r="R16" s="13">
+        <f t="shared" si="49"/>
+        <v>1.0182254016986172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18">
+      <c r="A17" s="7">
+        <v>44927</v>
+      </c>
+      <c r="B17" s="8">
+        <f>(B16-B18)/($A18-$A16)*($A18-$A17)+B18</f>
+        <v>3841660.5753424657</v>
+      </c>
+      <c r="C17" s="8">
+        <f>(C16-C18)/($A18-$A16)*($A18-$A17)+C18</f>
+        <v>1949763.4109589041</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" ref="D17" si="50">(D16-D18)/($A18-$A16)*($A18-$A17)+D18</f>
+        <v>5791424.7397260275</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" ref="E17" si="51">(E16-E18)/($A18-$A16)*($A18-$A17)+E18</f>
+        <v>265239.79452054796</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17" si="52">(F16-F18)/($A18-$A16)*($A18-$A17)+F18</f>
+        <v>305789.31506849313</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" ref="G17:H17" si="53">(G16-G18)/($A18-$A16)*($A18-$A17)+G18</f>
+        <v>571029.8630136986</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="53"/>
+        <v>5210906.7945205476</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" ref="I17" si="54">(I16-I18)/($A18-$A16)*($A18-$A17)+I18</f>
+        <v>100000</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" ref="J17" si="55">(J16-J18)/($A18-$A16)*($A18-$A17)+J18</f>
+        <v>6353014.506849315</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" ref="K17:R17" si="56">(K16-K18)/($A18-$A16)*($A18-$A17)+K18</f>
+        <v>-1219915.1780821919</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="56"/>
+        <v>9487.5753424657523</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="56"/>
+        <v>5220394.8767123288</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" ref="N17" si="57">(N16-N18)/($A18-$A16)*($A18-$A17)+N18</f>
+        <v>5791424.7397260275</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="56"/>
+        <v>1.0346001557026199</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="56"/>
+        <v>0.53126629019328231</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="56"/>
+        <v>1.4197400066817643</v>
+      </c>
+      <c r="R17" s="13">
+        <f t="shared" si="56"/>
+        <v>1.9462538439270489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="20">
+      <c r="A18" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B18" s="5">
         <v>3864634</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C18" s="5">
         <v>1968171</v>
       </c>
-      <c r="D6" s="1">
-        <v>30561</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3182</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D18" s="5">
         <v>5832806</v>
       </c>
-      <c r="G6" s="1">
+      <c r="E18" s="5">
         <v>325291</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F18" s="5">
         <v>307684</v>
       </c>
-      <c r="I6" s="1">
+      <c r="G18" s="5">
         <v>632976</v>
       </c>
-      <c r="J6" s="1">
+      <c r="H18" s="6">
+        <v>5184972</v>
+      </c>
+      <c r="I18" s="5">
         <v>100000</v>
       </c>
-      <c r="K6" s="1">
+      <c r="J18" s="5">
         <v>6577403</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K18" s="5">
         <v>-1492430</v>
       </c>
-      <c r="M6" s="1">
+      <c r="L18" s="5">
+        <v>14857</v>
+      </c>
+      <c r="M18" s="5">
         <v>5199830</v>
+      </c>
+      <c r="N18" s="5">
+        <v>5832806</v>
+      </c>
+      <c r="O18" s="11">
+        <f>(D18-D14)/D14</f>
+        <v>2.9624807280941051E-2</v>
+      </c>
+      <c r="P18" s="11">
+        <f>(G18-G14)/G14</f>
+        <v>0.658090373280943</v>
+      </c>
+      <c r="Q18" s="11">
+        <f>(H18-H14)/H14</f>
+        <v>-1.9882226446423467E-2</v>
+      </c>
+      <c r="R18" s="11">
+        <f>(K18-K14)/K14</f>
+        <v>2.8541077548026887</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/space_econometrics/financial_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751C66EE-9886-9545-AD50-30CA4C7DFC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF18578-0380-8844-A041-4A42B6C799D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="500" windowWidth="16980" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1340" windowWidth="20040" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Fixed Assets</t>
   </si>
@@ -71,27 +71,11 @@
     <t>Retained Earnings</t>
   </si>
   <si>
-    <t>Growth Rate of Assets</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Growth Rate of Equity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Growth Rate of Liability</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Current Assets</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Total Assets</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Growth Rate of Retained Earnings</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -102,6 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -189,17 +176,7 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -210,6 +187,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -517,7 +504,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B2" sqref="B2:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -537,16 +524,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -578,61 +565,53 @@
       <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="20">
       <c r="A2" s="4">
         <v>43556</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="10">
         <v>1805078</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="10">
         <v>7020</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="10">
         <v>1812099</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="10">
         <v>37259</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="10">
         <v>20000</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="10">
         <v>57259</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="11">
         <v>1746053</v>
       </c>
-      <c r="I2" s="5">
-        <v>100000</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="10">
+        <v>100000</v>
+      </c>
+      <c r="J2" s="10">
         <v>2358000</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="10">
         <v>-713005</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="10">
         <v>9845</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="10">
         <f>SUM(I2:L2)</f>
         <v>1754840</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="10">
         <f>SUM(G2+M2)</f>
         <v>1812099</v>
       </c>
@@ -642,1084 +621,928 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="18">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>43647</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <f>(B2-B4)/($A4-$A2)*($A4-$A3)+B4</f>
         <v>1572117.005464481</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="12">
         <f>(C2-C4)/($A4-$A2)*($A4-$A3)+C4</f>
         <v>6169.6721311475412</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:N3" si="0">(D2-D4)/($A4-$A2)*($A4-$A3)+D4</f>
         <v>1578287.4289617487</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="12">
         <f t="shared" si="0"/>
         <v>30598.098360655738</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="12">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="12">
         <f t="shared" si="0"/>
         <v>50598.098360655742</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="13">
         <f t="shared" si="0"/>
         <v>1521086.8278688525</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="12">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="12">
         <f t="shared" si="0"/>
         <v>2358000</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="12">
         <f t="shared" si="0"/>
         <v>-937707.86885245901</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="12">
         <f t="shared" si="0"/>
         <v>7397.1994535519125</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="12">
         <f t="shared" si="0"/>
         <v>1527689.0819672132</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="12">
         <f t="shared" si="0"/>
         <v>1578287.4289617487</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="12"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="18">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>43739</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="12">
         <f>(B2-B6)/($A6-$A2)*($A6-$A4)+B6</f>
         <v>1336596</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="12">
         <f>(C2-C6)/($A6-$A2)*($A6-$A4)+C6</f>
         <v>5310</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="12">
         <f t="shared" ref="D4:N4" si="1">(D2-D6)/($A6-$A2)*($A6-$A4)+D6</f>
         <v>1341906.5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <f t="shared" si="1"/>
         <v>23864</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="12">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="12">
         <f t="shared" si="1"/>
         <v>43864</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="13">
         <f t="shared" si="1"/>
         <v>1293648.5</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="12">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="12">
         <f t="shared" si="1"/>
         <v>2358000</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="12">
         <f t="shared" si="1"/>
         <v>-1164880</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="12">
         <f t="shared" ref="L4:M4" si="2">(L2-L6)/($A6-$A2)*($A6-$A4)+L6</f>
         <v>4922.5</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="12">
         <f t="shared" si="2"/>
         <v>1298042</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="12">
         <f t="shared" si="1"/>
         <v>1341906.5</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="12"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" ht="18">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>43831</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <f>(B4-B6)/($A6-$A4)*($A6-$A5)+B6</f>
         <v>1101074.994535519</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <f>(C4-C6)/($A6-$A4)*($A6-$A5)+C6</f>
         <v>4450.3278688524588</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <f t="shared" ref="D5:N5" si="3">(D4-D6)/($A6-$A4)*($A6-$A5)+D6</f>
         <v>1105525.5710382513</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <f t="shared" si="3"/>
         <v>17129.901639344262</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="12">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="12">
         <f t="shared" si="3"/>
         <v>37129.901639344265</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="13">
         <f t="shared" si="3"/>
         <v>1066210.1721311475</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="12">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="12">
         <f t="shared" si="3"/>
         <v>2358000</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="12">
         <f t="shared" si="3"/>
         <v>-1392052.1311475411</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="12">
         <f t="shared" si="3"/>
         <v>2447.8005464480875</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="12">
         <f t="shared" si="3"/>
         <v>1068394.9180327868</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="12">
         <f t="shared" si="3"/>
         <v>1105525.5710382513</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="12"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="20">
       <c r="A6" s="4">
         <v>43922</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="10">
         <v>868114</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="10">
         <v>3600</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="10">
         <v>871714</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="10">
         <v>10469</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>20000</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="10">
         <v>30469</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="11">
         <v>841244</v>
       </c>
-      <c r="I6" s="5">
-        <v>100000</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6" s="10">
+        <v>100000</v>
+      </c>
+      <c r="J6" s="10">
         <v>2358000</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="10">
         <v>-1616755</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="10">
         <v>841244</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="10">
         <v>871714</v>
       </c>
-      <c r="O6" s="11">
-        <f>(D6-D2)/D2</f>
-        <v>-0.51894791620104641</v>
-      </c>
-      <c r="P6" s="11">
-        <f>(G6-G2)/G2</f>
-        <v>-0.46787404600150195</v>
-      </c>
-      <c r="Q6" s="11">
-        <f>(H6-H2)/H2</f>
-        <v>-0.51820248297159366</v>
-      </c>
-      <c r="R6" s="11">
-        <f>(K6-K2)/K2</f>
-        <v>1.2675226681439822</v>
-      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="18">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>44013</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="12">
         <f>(B6-B8)/($A8-$A6)*($A8-$A7)+B8</f>
         <v>924936.89315068489</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="12">
         <f>(C6-C8)/($A8-$A6)*($A8-$A7)+C8</f>
         <v>6089.4109589041109</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="12">
         <f t="shared" ref="D7" si="4">(D6-D8)/($A8-$A6)*($A8-$A7)+D8</f>
         <v>931026.30410958908</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="12">
         <f t="shared" ref="E7" si="5">(E6-E8)/($A8-$A6)*($A8-$A7)+E8</f>
         <v>16278.539726027399</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="12">
         <f t="shared" ref="F7" si="6">(F6-F8)/($A8-$A6)*($A8-$A7)+F8</f>
         <v>89808.219178082189</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="12">
         <f t="shared" ref="G7:H7" si="7">(G6-G8)/($A8-$A6)*($A8-$A7)+G8</f>
         <v>106086.75890410959</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="13">
         <f t="shared" si="7"/>
         <v>824938.54520547949</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="12">
         <f t="shared" ref="I7" si="8">(I6-I8)/($A8-$A6)*($A8-$A7)+I8</f>
         <v>100000</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="12">
         <f t="shared" ref="J7" si="9">(J6-J8)/($A8-$A6)*($A8-$A7)+J8</f>
         <v>2499073.1863013697</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="12">
         <f t="shared" ref="K7:M7" si="10">(K6-K8)/($A8-$A6)*($A8-$A7)+K8</f>
         <v>-1774133.8904109588</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="12">
         <f t="shared" si="10"/>
         <v>824938.54520547949</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="12">
         <f t="shared" ref="N7:R7" si="11">(N6-N8)/($A8-$A6)*($A8-$A7)+N8</f>
         <v>931026.30410958908</v>
       </c>
-      <c r="O7" s="10">
-        <f t="shared" si="11"/>
-        <v>-0.32152536735162834</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" si="11"/>
-        <v>2.1305672659624117</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="11"/>
-        <v>-0.4083893465088127</v>
-      </c>
-      <c r="R7" s="13">
-        <f t="shared" si="11"/>
-        <v>1.0488526158724483</v>
-      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" ht="18">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>44105</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="12">
         <f>(B6-B10)/($A10-$A6)*($A10-$A8)+B10</f>
         <v>982384.2136986301</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="12">
         <f>(C6-C10)/($A10-$A6)*($A10-$A8)+C10</f>
         <v>8606.1780821917819</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="12">
         <f t="shared" ref="D8:O8" si="12">(D6-D10)/($A10-$A6)*($A10-$A8)+D10</f>
         <v>990990.39178082196</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="12">
         <f t="shared" si="12"/>
         <v>22151.920547945207</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="12">
         <f t="shared" si="12"/>
         <v>160383.56164383562</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="12">
         <f t="shared" si="12"/>
         <v>182535.48219178084</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="13">
         <f t="shared" si="12"/>
         <v>808453.90958904114</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="12">
         <f t="shared" si="12"/>
         <v>100000</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="12">
         <f t="shared" si="12"/>
         <v>2641696.6273972602</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="12">
         <f t="shared" si="12"/>
         <v>-1933242.2191780822</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="12">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="12">
         <f t="shared" si="12"/>
         <v>808453.90958904114</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="12">
         <f t="shared" si="12"/>
         <v>990990.39178082196</v>
       </c>
-      <c r="O8" s="10">
-        <f t="shared" si="12"/>
-        <v>-0.12193333994342542</v>
-      </c>
-      <c r="P8" s="10">
-        <f t="shared" ref="P8:R8" si="13">(P6-P10)/($A10-$A6)*($A10-$A8)+P10</f>
-        <v>4.7575628780577972</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="13"/>
-        <v>-0.29736947228270449</v>
-      </c>
-      <c r="R8" s="13">
-        <f t="shared" si="13"/>
-        <v>0.8277795959935349</v>
-      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" ht="18">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>44197</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="12">
         <f>(B8-B10)/($A10-$A8)*($A10-$A9)+B10</f>
         <v>1039831.5342465753</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="12">
         <f>(C8-C10)/($A10-$A8)*($A10-$A9)+C10</f>
         <v>11122.945205479453</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9" si="14">(D8-D10)/($A10-$A8)*($A10-$A9)+D10</f>
+      <c r="D9" s="12">
+        <f t="shared" ref="D9" si="13">(D8-D10)/($A10-$A8)*($A10-$A9)+D10</f>
         <v>1050954.4794520547</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" ref="E9" si="15">(E8-E10)/($A10-$A8)*($A10-$A9)+E10</f>
+      <c r="E9" s="12">
+        <f t="shared" ref="E9" si="14">(E8-E10)/($A10-$A8)*($A10-$A9)+E10</f>
         <v>28025.301369863013</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" ref="F9" si="16">(F8-F10)/($A10-$A8)*($A10-$A9)+F10</f>
+      <c r="F9" s="12">
+        <f t="shared" ref="F9" si="15">(F8-F10)/($A10-$A8)*($A10-$A9)+F10</f>
         <v>230958.90410958906</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" ref="G9:H9" si="17">(G8-G10)/($A10-$A8)*($A10-$A9)+G10</f>
+      <c r="G9" s="12">
+        <f t="shared" ref="G9:H9" si="16">(G8-G10)/($A10-$A8)*($A10-$A9)+G10</f>
         <v>258984.20547945207</v>
       </c>
-      <c r="H9" s="9">
-        <f t="shared" si="17"/>
+      <c r="H9" s="13">
+        <f t="shared" si="16"/>
         <v>791969.27397260279</v>
       </c>
-      <c r="I9" s="8">
-        <f t="shared" ref="I9" si="18">(I8-I10)/($A10-$A8)*($A10-$A9)+I10</f>
-        <v>100000</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" ref="J9" si="19">(J8-J10)/($A10-$A8)*($A10-$A9)+J10</f>
+      <c r="I9" s="12">
+        <f t="shared" ref="I9" si="17">(I8-I10)/($A10-$A8)*($A10-$A9)+I10</f>
+        <v>100000</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" ref="J9" si="18">(J8-J10)/($A10-$A8)*($A10-$A9)+J10</f>
         <v>2784320.0684931506</v>
       </c>
-      <c r="K9" s="8">
-        <f t="shared" ref="K9:M9" si="20">(K8-K10)/($A10-$A8)*($A10-$A9)+K10</f>
+      <c r="K9" s="12">
+        <f t="shared" ref="K9:M9" si="19">(K8-K10)/($A10-$A8)*($A10-$A9)+K10</f>
         <v>-2092350.5479452056</v>
       </c>
-      <c r="L9" s="8">
-        <f t="shared" si="20"/>
+      <c r="L9" s="12">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M9" s="8">
-        <f t="shared" si="20"/>
+      <c r="M9" s="12">
+        <f t="shared" si="19"/>
         <v>791969.27397260279</v>
       </c>
-      <c r="N9" s="8">
-        <f t="shared" ref="N9:R9" si="21">(N8-N10)/($A10-$A8)*($A10-$A9)+N10</f>
+      <c r="N9" s="12">
+        <f t="shared" ref="N9:R9" si="20">(N8-N10)/($A10-$A8)*($A10-$A9)+N10</f>
         <v>1050954.4794520547</v>
       </c>
-      <c r="O9" s="10">
-        <f t="shared" si="21"/>
-        <v>7.7658687464777387E-2</v>
-      </c>
-      <c r="P9" s="10">
-        <f t="shared" si="21"/>
-        <v>7.3845584901531822</v>
-      </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="21"/>
-        <v>-0.18634959805659623</v>
-      </c>
-      <c r="R9" s="13">
-        <f t="shared" si="21"/>
-        <v>0.60670657611462153</v>
-      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" ht="20">
       <c r="A10" s="4">
         <v>44287</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="10">
         <v>1096030</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="10">
         <v>13585</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="10">
         <v>1109615</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>33771</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="10">
         <v>300000</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="10">
         <v>333771</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="11">
         <v>775843</v>
       </c>
-      <c r="I10" s="5">
-        <v>100000</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="10">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="10">
         <v>2923843</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="10">
         <v>-2248000</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="10">
         <v>775843</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="10">
         <v>1109615</v>
       </c>
-      <c r="O10" s="11">
-        <f>(D10-D6)/D6</f>
-        <v>0.2729117577554106</v>
-      </c>
-      <c r="P10" s="11">
-        <f>(G10-G6)/G6</f>
-        <v>9.9544455019856244</v>
-      </c>
-      <c r="Q10" s="11">
-        <f>(H10-H6)/H6</f>
-        <v>-7.7743199357142523E-2</v>
-      </c>
-      <c r="R10" s="11">
-        <f>(K10-K6)/K6</f>
-        <v>0.39043949145046714</v>
-      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="18">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>44378</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="12">
         <f>(B10-B12)/($A12-$A10)*($A12-$A11)+B12</f>
         <v>1763056.0109589044</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="12">
         <f>(C10-C12)/($A12-$A10)*($A12-$A11)+C12</f>
         <v>482280.6246575343</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" ref="D11" si="22">(D10-D12)/($A12-$A10)*($A12-$A11)+D12</f>
+      <c r="D11" s="12">
+        <f t="shared" ref="D11" si="21">(D10-D12)/($A12-$A10)*($A12-$A11)+D12</f>
         <v>2245336.6356164385</v>
       </c>
-      <c r="E11" s="8">
-        <f t="shared" ref="E11" si="23">(E10-E12)/($A12-$A10)*($A12-$A11)+E12</f>
+      <c r="E11" s="12">
+        <f t="shared" ref="E11" si="22">(E10-E12)/($A12-$A10)*($A12-$A11)+E12</f>
         <v>45732.887671232878</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" ref="F11" si="24">(F10-F12)/($A12-$A10)*($A12-$A11)+F12</f>
+      <c r="F11" s="12">
+        <f t="shared" ref="F11" si="23">(F10-F12)/($A12-$A10)*($A12-$A11)+F12</f>
         <v>300000</v>
       </c>
-      <c r="G11" s="8">
-        <f t="shared" ref="G11:H11" si="25">(G10-G12)/($A12-$A10)*($A12-$A11)+G12</f>
+      <c r="G11" s="12">
+        <f t="shared" ref="G11:H11" si="24">(G10-G12)/($A12-$A10)*($A12-$A11)+G12</f>
         <v>345732.88767123286</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="25"/>
+      <c r="H11" s="13">
+        <f t="shared" si="24"/>
         <v>1901328.2575342464</v>
       </c>
-      <c r="I11" s="8">
-        <f t="shared" ref="I11" si="26">(I10-I12)/($A12-$A10)*($A12-$A11)+I12</f>
-        <v>100000</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" ref="J11" si="27">(J10-J12)/($A12-$A10)*($A12-$A11)+J12</f>
+      <c r="I11" s="12">
+        <f t="shared" ref="I11" si="25">(I10-I12)/($A12-$A10)*($A12-$A11)+I12</f>
+        <v>100000</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" ref="J11" si="26">(J10-J12)/($A12-$A10)*($A12-$A11)+J12</f>
         <v>3607848.8630136987</v>
       </c>
-      <c r="K11" s="8">
-        <f t="shared" ref="K11:M11" si="28">(K10-K12)/($A12-$A10)*($A12-$A11)+K12</f>
+      <c r="K11" s="12">
+        <f t="shared" ref="K11:M11" si="27">(K10-K12)/($A12-$A10)*($A12-$A11)+K12</f>
         <v>-1784082.2493150686</v>
       </c>
-      <c r="L11" s="8">
-        <f t="shared" si="28"/>
+      <c r="L11" s="12">
+        <f t="shared" si="27"/>
         <v>-1725.0109589041097</v>
       </c>
-      <c r="M11" s="8">
-        <f t="shared" si="28"/>
+      <c r="M11" s="12">
+        <f t="shared" si="27"/>
         <v>1899602.9972602739</v>
       </c>
-      <c r="N11" s="8">
-        <f t="shared" ref="N11:R11" si="29">(N10-N12)/($A12-$A10)*($A12-$A11)+N12</f>
+      <c r="N11" s="12">
+        <f t="shared" ref="N11:R11" si="28">(N10-N12)/($A12-$A10)*($A12-$A11)+N12</f>
         <v>2245336.6356164385</v>
       </c>
-      <c r="O11" s="10">
-        <f t="shared" si="29"/>
-        <v>1.2283983962162983</v>
-      </c>
-      <c r="P11" s="10">
-        <f t="shared" si="29"/>
-        <v>7.5084908467695524</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="29"/>
-        <v>1.3923004487856745</v>
-      </c>
-      <c r="R11" s="13">
-        <f t="shared" si="29"/>
-        <v>8.6727936720492005E-2</v>
-      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" ht="18">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>44470</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="12">
         <f>(B10-B14)/($A14-$A10)*($A14-$A12)+B14</f>
         <v>2437411.9780821921</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="12">
         <f>(C10-C14)/($A14-$A10)*($A14-$A12)+C14</f>
         <v>956126.75068493153</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" ref="D12:R12" si="30">(D10-D14)/($A14-$A10)*($A14-$A12)+D14</f>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12:R12" si="29">(D10-D14)/($A14-$A10)*($A14-$A12)+D14</f>
         <v>3393538.7287671231</v>
       </c>
-      <c r="E12" s="8">
-        <f t="shared" si="30"/>
+      <c r="E12" s="12">
+        <f t="shared" si="29"/>
         <v>57826.224657534243</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" si="30"/>
+      <c r="F12" s="12">
+        <f t="shared" si="29"/>
         <v>300000</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" si="30"/>
+      <c r="G12" s="12">
+        <f t="shared" si="29"/>
         <v>357826.22465753427</v>
       </c>
-      <c r="H12" s="9">
-        <f t="shared" si="30"/>
+      <c r="H12" s="13">
+        <f t="shared" si="29"/>
         <v>3039181.4849315067</v>
       </c>
-      <c r="I12" s="8">
-        <f t="shared" si="30"/>
-        <v>100000</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="30"/>
+      <c r="I12" s="12">
+        <f t="shared" si="29"/>
+        <v>100000</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="29"/>
         <v>4299371.2739726026</v>
       </c>
-      <c r="K12" s="8">
-        <f t="shared" si="30"/>
+      <c r="K12" s="12">
+        <f t="shared" si="29"/>
         <v>-1315066.5013698631</v>
       </c>
-      <c r="L12" s="8">
-        <f t="shared" si="30"/>
+      <c r="L12" s="12">
+        <f t="shared" si="29"/>
         <v>-3468.9780821917811</v>
       </c>
-      <c r="M12" s="8">
-        <f t="shared" si="30"/>
+      <c r="M12" s="12">
+        <f t="shared" si="29"/>
         <v>3035712.0054794522</v>
       </c>
-      <c r="N12" s="8">
-        <f t="shared" si="30"/>
+      <c r="N12" s="12">
+        <f t="shared" si="29"/>
         <v>3393538.7287671231</v>
       </c>
-      <c r="O12" s="10">
-        <f t="shared" si="30"/>
-        <v>2.194384887847086</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" si="30"/>
-        <v>5.0356575689686878</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="30"/>
-        <v>2.878498422732259</v>
-      </c>
-      <c r="R12" s="13">
-        <f t="shared" si="30"/>
-        <v>-0.22032110762190038</v>
-      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" ht="18">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>44562</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="12">
         <f>(B12-B14)/($A14-$A12)*($A14-$A13)+B14</f>
         <v>3111767.9452054799</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="12">
         <f>(C12-C14)/($A14-$A12)*($A14-$A13)+C14</f>
         <v>1429972.8767123288</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" ref="D13" si="31">(D12-D14)/($A14-$A12)*($A14-$A13)+D14</f>
+      <c r="D13" s="12">
+        <f t="shared" ref="D13" si="30">(D12-D14)/($A14-$A12)*($A14-$A13)+D14</f>
         <v>4541740.8219178077</v>
       </c>
-      <c r="E13" s="8">
-        <f t="shared" ref="E13" si="32">(E12-E14)/($A14-$A12)*($A14-$A13)+E14</f>
+      <c r="E13" s="12">
+        <f t="shared" ref="E13" si="31">(E12-E14)/($A14-$A12)*($A14-$A13)+E14</f>
         <v>69919.561643835608</v>
       </c>
-      <c r="F13" s="8">
-        <f t="shared" ref="F13" si="33">(F12-F14)/($A14-$A12)*($A14-$A13)+F14</f>
+      <c r="F13" s="12">
+        <f t="shared" ref="F13" si="32">(F12-F14)/($A14-$A12)*($A14-$A13)+F14</f>
         <v>300000</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" ref="G13:H13" si="34">(G12-G14)/($A14-$A12)*($A14-$A13)+G14</f>
+      <c r="G13" s="12">
+        <f t="shared" ref="G13:H13" si="33">(G12-G14)/($A14-$A12)*($A14-$A13)+G14</f>
         <v>369919.56164383562</v>
       </c>
-      <c r="H13" s="9">
-        <f t="shared" si="34"/>
+      <c r="H13" s="13">
+        <f t="shared" si="33"/>
         <v>4177034.7123287674</v>
       </c>
-      <c r="I13" s="8">
-        <f t="shared" ref="I13" si="35">(I12-I14)/($A14-$A12)*($A14-$A13)+I14</f>
-        <v>100000</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" ref="J13" si="36">(J12-J14)/($A14-$A12)*($A14-$A13)+J14</f>
+      <c r="I13" s="12">
+        <f t="shared" ref="I13" si="34">(I12-I14)/($A14-$A12)*($A14-$A13)+I14</f>
+        <v>100000</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" ref="J13" si="35">(J12-J14)/($A14-$A12)*($A14-$A13)+J14</f>
         <v>4990893.6849315064</v>
       </c>
-      <c r="K13" s="8">
-        <f t="shared" ref="K13:M13" si="37">(K12-K14)/($A14-$A12)*($A14-$A13)+K14</f>
+      <c r="K13" s="12">
+        <f t="shared" ref="K13:M13" si="36">(K12-K14)/($A14-$A12)*($A14-$A13)+K14</f>
         <v>-846050.75342465751</v>
       </c>
-      <c r="L13" s="8">
-        <f t="shared" si="37"/>
+      <c r="L13" s="12">
+        <f t="shared" si="36"/>
         <v>-5212.9452054794519</v>
       </c>
-      <c r="M13" s="8">
-        <f t="shared" si="37"/>
+      <c r="M13" s="12">
+        <f t="shared" si="36"/>
         <v>4171821.01369863</v>
       </c>
-      <c r="N13" s="8">
-        <f t="shared" ref="N13:R13" si="38">(N12-N14)/($A14-$A12)*($A14-$A13)+N14</f>
+      <c r="N13" s="12">
+        <f t="shared" ref="N13:R13" si="37">(N12-N14)/($A14-$A12)*($A14-$A13)+N14</f>
         <v>4541740.8219178077</v>
       </c>
-      <c r="O13" s="10">
-        <f t="shared" si="38"/>
-        <v>3.1603713794778736</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="38"/>
-        <v>2.5628242911678227</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="38"/>
-        <v>4.3646963966788439</v>
-      </c>
-      <c r="R13" s="13">
-        <f t="shared" si="38"/>
-        <v>-0.52737015196429282</v>
-      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="20">
       <c r="A14" s="4">
         <v>44652</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="10">
         <v>3771464</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="10">
         <v>1893518</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="10">
         <v>5664982</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="10">
         <v>81750</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="10">
         <v>300000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="10">
         <v>381750</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="11">
         <v>5290152</v>
       </c>
-      <c r="I14" s="5">
-        <v>100000</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I14" s="10">
+        <v>100000</v>
+      </c>
+      <c r="J14" s="10">
         <v>5667383</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="10">
         <v>-387231</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="10">
         <v>-6919</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="10">
         <v>5283232</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="10">
         <v>5664982</v>
       </c>
-      <c r="O14" s="11">
-        <f>(D14-D10)/D10</f>
-        <v>4.1053581647688615</v>
-      </c>
-      <c r="P14" s="11">
-        <f>(G14-G10)/G10</f>
-        <v>0.14374825853654152</v>
-      </c>
-      <c r="Q14" s="11">
-        <f>(H14-H10)/H10</f>
-        <v>5.8185857190178938</v>
-      </c>
-      <c r="R14" s="11">
-        <f>(K14-K10)/K10</f>
-        <v>-0.82774421708185053</v>
-      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="18">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>44743</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="12">
         <f>(B14-B16)/($A16-$A14)*($A16-$A15)+B16</f>
         <v>3794692.6849315069</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="12">
         <f>(C14-C16)/($A16-$A14)*($A16-$A15)+C16</f>
         <v>1912130.1178082193</v>
       </c>
-      <c r="D15" s="8">
-        <f t="shared" ref="D15" si="39">(D14-D16)/($A16-$A14)*($A16-$A15)+D16</f>
+      <c r="D15" s="12">
+        <f t="shared" ref="D15" si="38">(D14-D16)/($A16-$A14)*($A16-$A15)+D16</f>
         <v>5706823.0520547945</v>
       </c>
-      <c r="E15" s="8">
-        <f t="shared" ref="E15" si="40">(E14-E16)/($A16-$A14)*($A16-$A15)+E16</f>
+      <c r="E15" s="12">
+        <f t="shared" ref="E15" si="39">(E14-E16)/($A16-$A14)*($A16-$A15)+E16</f>
         <v>142468.44109589042</v>
       </c>
-      <c r="F15" s="8">
-        <f t="shared" ref="F15" si="41">(F14-F16)/($A16-$A14)*($A16-$A15)+F16</f>
+      <c r="F15" s="12">
+        <f t="shared" ref="F15" si="40">(F14-F16)/($A16-$A14)*($A16-$A15)+F16</f>
         <v>301915.73698630137</v>
       </c>
-      <c r="G15" s="8">
-        <f t="shared" ref="G15:H15" si="42">(G14-G16)/($A16-$A14)*($A16-$A15)+G16</f>
+      <c r="G15" s="12">
+        <f t="shared" ref="G15:H15" si="41">(G14-G16)/($A16-$A14)*($A16-$A15)+G16</f>
         <v>444384.42739726027</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="42"/>
+      <c r="H15" s="13">
+        <f t="shared" si="41"/>
         <v>5263929.0410958901</v>
       </c>
-      <c r="I15" s="8">
-        <f t="shared" ref="I15" si="43">(I14-I16)/($A16-$A14)*($A16-$A15)+I16</f>
-        <v>100000</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" ref="J15" si="44">(J14-J16)/($A16-$A14)*($A16-$A15)+J16</f>
+      <c r="I15" s="12">
+        <f t="shared" ref="I15" si="42">(I14-I16)/($A16-$A14)*($A16-$A15)+I16</f>
+        <v>100000</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" ref="J15" si="43">(J14-J16)/($A16-$A14)*($A16-$A15)+J16</f>
         <v>5894264.6986301374</v>
       </c>
-      <c r="K15" s="8">
-        <f t="shared" ref="K15:R15" si="45">(K14-K16)/($A16-$A14)*($A16-$A15)+K16</f>
+      <c r="K15" s="12">
+        <f t="shared" ref="K15:R15" si="44">(K14-K16)/($A16-$A14)*($A16-$A15)+K16</f>
         <v>-662773.76438356168</v>
       </c>
-      <c r="L15" s="8">
-        <f t="shared" si="45"/>
+      <c r="L15" s="12">
+        <f t="shared" si="44"/>
         <v>-1489.9150684931501</v>
       </c>
-      <c r="M15" s="8">
-        <f t="shared" si="45"/>
+      <c r="M15" s="12">
+        <f t="shared" si="44"/>
         <v>5262438.6246575341</v>
       </c>
-      <c r="N15" s="8">
-        <f t="shared" ref="N15" si="46">(N14-N16)/($A16-$A14)*($A16-$A15)+N16</f>
+      <c r="N15" s="12">
+        <f t="shared" ref="N15" si="45">(N14-N16)/($A16-$A14)*($A16-$A15)+N16</f>
         <v>5706823.0520547945</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" si="45"/>
-        <v>3.0892164235869415</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="45"/>
-        <v>0.27198149810295391</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="45"/>
-        <v>4.3629676832993924</v>
-      </c>
-      <c r="R15" s="13">
-        <f t="shared" si="45"/>
-        <v>9.0196959470185356E-2</v>
-      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:18" ht="18">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>44835</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="12">
         <f>(B14-B18)/($A18-$A14)*($A18-$A16)+B18</f>
         <v>3818176.6301369863</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="12">
         <f>(C14-C18)/($A18-$A14)*($A18-$A16)+C18</f>
         <v>1930946.7643835617</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" ref="D16:N16" si="47">(D14-D18)/($A18-$A14)*($A18-$A16)+D18</f>
+      <c r="D16" s="12">
+        <f t="shared" ref="D16:N16" si="46">(D14-D18)/($A18-$A14)*($A18-$A16)+D18</f>
         <v>5749123.895890411</v>
       </c>
-      <c r="E16" s="8">
-        <f t="shared" si="47"/>
+      <c r="E16" s="12">
+        <f t="shared" si="46"/>
         <v>203854.11780821916</v>
       </c>
-      <c r="F16" s="8">
-        <f t="shared" si="47"/>
+      <c r="F16" s="12">
+        <f t="shared" si="46"/>
         <v>303852.52602739725</v>
       </c>
-      <c r="G16" s="8">
-        <f t="shared" si="47"/>
+      <c r="G16" s="12">
+        <f t="shared" si="46"/>
         <v>507707.14520547946</v>
       </c>
-      <c r="H16" s="9">
-        <f t="shared" si="47"/>
+      <c r="H16" s="13">
+        <f t="shared" si="46"/>
         <v>5237417.9178082189</v>
       </c>
-      <c r="I16" s="8">
-        <f t="shared" si="47"/>
-        <v>100000</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="47"/>
+      <c r="I16" s="12">
+        <f t="shared" si="46"/>
+        <v>100000</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="46"/>
         <v>6123639.6027397262</v>
       </c>
-      <c r="K16" s="8">
-        <f t="shared" si="47"/>
+      <c r="K16" s="12">
+        <f t="shared" si="46"/>
         <v>-941344.47123287676</v>
       </c>
-      <c r="L16" s="8">
-        <f t="shared" si="47"/>
+      <c r="L16" s="12">
+        <f t="shared" si="46"/>
         <v>3998.830136986302</v>
       </c>
-      <c r="M16" s="8">
-        <f t="shared" ref="M16" si="48">(M14-M18)/($A18-$A14)*($A18-$A16)+M18</f>
+      <c r="M16" s="12">
+        <f t="shared" ref="M16" si="47">(M14-M18)/($A18-$A14)*($A18-$A16)+M18</f>
         <v>5241416.7506849319</v>
       </c>
-      <c r="N16" s="8">
-        <f t="shared" si="47"/>
+      <c r="N16" s="12">
+        <f t="shared" si="46"/>
         <v>5749123.895890411</v>
       </c>
-      <c r="O16" s="10">
-        <f t="shared" ref="O16:R16" si="49">(O14-O18)/($A18-$A14)*($A18-$A16)+O18</f>
-        <v>2.0619082896447805</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="49"/>
-        <v>0.40162389414811817</v>
-      </c>
-      <c r="Q16" s="10">
-        <f t="shared" si="49"/>
-        <v>2.8913538449905785</v>
-      </c>
-      <c r="R16" s="13">
-        <f t="shared" si="49"/>
-        <v>1.0182254016986172</v>
-      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18" ht="18">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>44927</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="12">
         <f>(B16-B18)/($A18-$A16)*($A18-$A17)+B18</f>
         <v>3841660.5753424657</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="12">
         <f>(C16-C18)/($A18-$A16)*($A18-$A17)+C18</f>
         <v>1949763.4109589041</v>
       </c>
-      <c r="D17" s="8">
-        <f t="shared" ref="D17" si="50">(D16-D18)/($A18-$A16)*($A18-$A17)+D18</f>
+      <c r="D17" s="12">
+        <f t="shared" ref="D17" si="48">(D16-D18)/($A18-$A16)*($A18-$A17)+D18</f>
         <v>5791424.7397260275</v>
       </c>
-      <c r="E17" s="8">
-        <f t="shared" ref="E17" si="51">(E16-E18)/($A18-$A16)*($A18-$A17)+E18</f>
+      <c r="E17" s="12">
+        <f t="shared" ref="E17" si="49">(E16-E18)/($A18-$A16)*($A18-$A17)+E18</f>
         <v>265239.79452054796</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" ref="F17" si="52">(F16-F18)/($A18-$A16)*($A18-$A17)+F18</f>
+      <c r="F17" s="12">
+        <f t="shared" ref="F17" si="50">(F16-F18)/($A18-$A16)*($A18-$A17)+F18</f>
         <v>305789.31506849313</v>
       </c>
-      <c r="G17" s="8">
-        <f t="shared" ref="G17:H17" si="53">(G16-G18)/($A18-$A16)*($A18-$A17)+G18</f>
+      <c r="G17" s="12">
+        <f t="shared" ref="G17:H17" si="51">(G16-G18)/($A18-$A16)*($A18-$A17)+G18</f>
         <v>571029.8630136986</v>
       </c>
-      <c r="H17" s="9">
-        <f t="shared" si="53"/>
+      <c r="H17" s="13">
+        <f t="shared" si="51"/>
         <v>5210906.7945205476</v>
       </c>
-      <c r="I17" s="8">
-        <f t="shared" ref="I17" si="54">(I16-I18)/($A18-$A16)*($A18-$A17)+I18</f>
-        <v>100000</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" ref="J17" si="55">(J16-J18)/($A18-$A16)*($A18-$A17)+J18</f>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17" si="52">(I16-I18)/($A18-$A16)*($A18-$A17)+I18</f>
+        <v>100000</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" ref="J17" si="53">(J16-J18)/($A18-$A16)*($A18-$A17)+J18</f>
         <v>6353014.506849315</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" ref="K17:R17" si="56">(K16-K18)/($A18-$A16)*($A18-$A17)+K18</f>
+      <c r="K17" s="12">
+        <f t="shared" ref="K17:R17" si="54">(K16-K18)/($A18-$A16)*($A18-$A17)+K18</f>
         <v>-1219915.1780821919</v>
       </c>
-      <c r="L17" s="8">
-        <f t="shared" si="56"/>
+      <c r="L17" s="12">
+        <f t="shared" si="54"/>
         <v>9487.5753424657523</v>
       </c>
-      <c r="M17" s="8">
-        <f t="shared" si="56"/>
+      <c r="M17" s="12">
+        <f t="shared" si="54"/>
         <v>5220394.8767123288</v>
       </c>
-      <c r="N17" s="8">
-        <f t="shared" ref="N17" si="57">(N16-N18)/($A18-$A16)*($A18-$A17)+N18</f>
+      <c r="N17" s="12">
+        <f t="shared" ref="N17" si="55">(N16-N18)/($A18-$A16)*($A18-$A17)+N18</f>
         <v>5791424.7397260275</v>
       </c>
-      <c r="O17" s="10">
-        <f t="shared" si="56"/>
-        <v>1.0346001557026199</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="56"/>
-        <v>0.53126629019328231</v>
-      </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="56"/>
-        <v>1.4197400066817643</v>
-      </c>
-      <c r="R17" s="13">
-        <f t="shared" si="56"/>
-        <v>1.9462538439270489</v>
-      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" ht="20">
       <c r="A18" s="4">
         <v>45017</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="10">
         <v>3864634</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="10">
         <v>1968171</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="10">
         <v>5832806</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="10">
         <v>325291</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="10">
         <v>307684</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="10">
         <v>632976</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="11">
         <v>5184972</v>
       </c>
-      <c r="I18" s="5">
-        <v>100000</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I18" s="10">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="10">
         <v>6577403</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="10">
         <v>-1492430</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="10">
         <v>14857</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="10">
         <v>5199830</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="10">
         <v>5832806</v>
       </c>
-      <c r="O18" s="11">
-        <f>(D18-D14)/D14</f>
-        <v>2.9624807280941051E-2</v>
-      </c>
-      <c r="P18" s="11">
-        <f>(G18-G14)/G14</f>
-        <v>0.658090373280943</v>
-      </c>
-      <c r="Q18" s="11">
-        <f>(H18-H14)/H14</f>
-        <v>-1.9882226446423467E-2</v>
-      </c>
-      <c r="R18" s="11">
-        <f>(K18-K14)/K14</f>
-        <v>2.8541077548026887</v>
-      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/space_econometrics/financial_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF18578-0380-8844-A041-4A42B6C799D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E003C1E-6178-4B82-B2BB-3FA980658DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1340" windowWidth="20040" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10005" yWindow="4605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Fixed Assets</t>
   </si>
   <si>
-    <t>Current Liabilities</t>
-  </si>
-  <si>
     <t>Fixed Liabilities</t>
   </si>
   <si>
@@ -53,10 +50,6 @@
     <t>Capital Surplus</t>
   </si>
   <si>
-    <t>Equity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Translation Adjustments</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -65,14 +58,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Total Liabilities and Equity</t>
-  </si>
-  <si>
     <t>Retained Earnings</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Total Assets</t>
@@ -81,13 +67,25 @@
   <si>
     <t>Quarter</t>
   </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>Liabilities and Equity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -189,14 +187,14 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -504,73 +502,73 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N18"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" customWidth="1"/>
-    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20">
+    <row r="1" spans="1:18" ht="19.5">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="20">
+    <row r="2" spans="1:18" ht="19.5">
       <c r="A2" s="4">
         <v>43556</v>
       </c>
@@ -620,7 +618,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="18">
+    <row r="3" spans="1:18" ht="18.75">
       <c r="A3" s="5">
         <v>43647</v>
       </c>
@@ -681,7 +679,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="18">
+    <row r="4" spans="1:18" ht="18.75">
       <c r="A4" s="5">
         <v>43739</v>
       </c>
@@ -742,7 +740,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="18">
+    <row r="5" spans="1:18" ht="18.75">
       <c r="A5" s="5">
         <v>43831</v>
       </c>
@@ -803,7 +801,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="20">
+    <row r="6" spans="1:18" ht="19.5">
       <c r="A6" s="4">
         <v>43922</v>
       </c>
@@ -851,7 +849,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="18">
+    <row r="7" spans="1:18" ht="18.75">
       <c r="A7" s="5">
         <v>44013</v>
       </c>
@@ -904,7 +902,7 @@
         <v>824938.54520547949</v>
       </c>
       <c r="N7" s="12">
-        <f t="shared" ref="N7:R7" si="11">(N6-N8)/($A8-$A6)*($A8-$A7)+N8</f>
+        <f t="shared" ref="N7" si="11">(N6-N8)/($A8-$A6)*($A8-$A7)+N8</f>
         <v>931026.30410958908</v>
       </c>
       <c r="O7" s="6"/>
@@ -912,7 +910,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="18">
+    <row r="8" spans="1:18" ht="18.75">
       <c r="A8" s="5">
         <v>44105</v>
       </c>
@@ -925,7 +923,7 @@
         <v>8606.1780821917819</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" ref="D8:O8" si="12">(D6-D10)/($A10-$A6)*($A10-$A8)+D10</f>
+        <f t="shared" ref="D8:N8" si="12">(D6-D10)/($A10-$A6)*($A10-$A8)+D10</f>
         <v>990990.39178082196</v>
       </c>
       <c r="E8" s="12">
@@ -973,7 +971,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="18">
+    <row r="9" spans="1:18" ht="18.75">
       <c r="A9" s="5">
         <v>44197</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>791969.27397260279</v>
       </c>
       <c r="N9" s="12">
-        <f t="shared" ref="N9:R9" si="20">(N8-N10)/($A10-$A8)*($A10-$A9)+N10</f>
+        <f t="shared" ref="N9" si="20">(N8-N10)/($A10-$A8)*($A10-$A9)+N10</f>
         <v>1050954.4794520547</v>
       </c>
       <c r="O9" s="6"/>
@@ -1034,7 +1032,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="20">
+    <row r="10" spans="1:18" ht="19.5">
       <c r="A10" s="4">
         <v>44287</v>
       </c>
@@ -1082,7 +1080,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="18">
+    <row r="11" spans="1:18" ht="18.75">
       <c r="A11" s="5">
         <v>44378</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>1899602.9972602739</v>
       </c>
       <c r="N11" s="12">
-        <f t="shared" ref="N11:R11" si="28">(N10-N12)/($A12-$A10)*($A12-$A11)+N12</f>
+        <f t="shared" ref="N11" si="28">(N10-N12)/($A12-$A10)*($A12-$A11)+N12</f>
         <v>2245336.6356164385</v>
       </c>
       <c r="O11" s="6"/>
@@ -1143,7 +1141,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="1:18" ht="18">
+    <row r="12" spans="1:18" ht="18.75">
       <c r="A12" s="5">
         <v>44470</v>
       </c>
@@ -1156,7 +1154,7 @@
         <v>956126.75068493153</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" ref="D12:R12" si="29">(D10-D14)/($A14-$A10)*($A14-$A12)+D14</f>
+        <f t="shared" ref="D12:N12" si="29">(D10-D14)/($A14-$A10)*($A14-$A12)+D14</f>
         <v>3393538.7287671231</v>
       </c>
       <c r="E12" s="12">
@@ -1204,7 +1202,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" spans="1:18" ht="18">
+    <row r="13" spans="1:18" ht="18.75">
       <c r="A13" s="5">
         <v>44562</v>
       </c>
@@ -1257,7 +1255,7 @@
         <v>4171821.01369863</v>
       </c>
       <c r="N13" s="12">
-        <f t="shared" ref="N13:R13" si="37">(N12-N14)/($A14-$A12)*($A14-$A13)+N14</f>
+        <f t="shared" ref="N13" si="37">(N12-N14)/($A14-$A12)*($A14-$A13)+N14</f>
         <v>4541740.8219178077</v>
       </c>
       <c r="O13" s="6"/>
@@ -1265,7 +1263,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" ht="20">
+    <row r="14" spans="1:18" ht="19.5">
       <c r="A14" s="4">
         <v>44652</v>
       </c>
@@ -1313,7 +1311,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="18">
+    <row r="15" spans="1:18" ht="18.75">
       <c r="A15" s="5">
         <v>44743</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>5894264.6986301374</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:R15" si="44">(K14-K16)/($A16-$A14)*($A16-$A15)+K16</f>
+        <f t="shared" ref="K15:M15" si="44">(K14-K16)/($A16-$A14)*($A16-$A15)+K16</f>
         <v>-662773.76438356168</v>
       </c>
       <c r="L15" s="12">
@@ -1374,7 +1372,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="18">
+    <row r="16" spans="1:18" ht="18.75">
       <c r="A16" s="5">
         <v>44835</v>
       </c>
@@ -1435,7 +1433,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="18">
+    <row r="17" spans="1:18" ht="18.75">
       <c r="A17" s="5">
         <v>44927</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>6353014.506849315</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" ref="K17:R17" si="54">(K16-K18)/($A18-$A16)*($A18-$A17)+K18</f>
+        <f t="shared" ref="K17:M17" si="54">(K16-K18)/($A18-$A16)*($A18-$A17)+K18</f>
         <v>-1219915.1780821919</v>
       </c>
       <c r="L17" s="12">
@@ -1496,7 +1494,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="20">
+    <row r="18" spans="1:18" ht="19.5">
       <c r="A18" s="4">
         <v>45017</v>
       </c>

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5DA2EB-0F79-471A-9652-205E8F37EAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D91BD2-10A4-45CB-8D91-7CA0B40C4DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,15 +237,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECC31B8-9403-4F66-B332-2C0CDF711F8B}">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+      <selection activeCell="A19" sqref="A19:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2408,259 +2399,17 @@
         <v>-1105199000</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15">
-      <c r="A19" s="10">
-        <v>45169</v>
-      </c>
-      <c r="B19" s="11">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9">
-        <v>3031637846.9945354</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2974348857.9234972</v>
-      </c>
-      <c r="F19" s="9">
-        <v>6039474699.4535522</v>
-      </c>
-      <c r="G19" s="9">
-        <v>470637426.22950816</v>
-      </c>
-      <c r="H19" s="9">
-        <v>456173508.19672132</v>
-      </c>
-      <c r="I19" s="9">
-        <v>926811934.42622948</v>
-      </c>
-      <c r="J19" s="9">
-        <v>5102310251.3661203</v>
-      </c>
-      <c r="K19" s="9">
-        <v>100000000</v>
-      </c>
-      <c r="L19" s="9">
-        <v>5827109819.6721306</v>
-      </c>
-      <c r="M19" s="9">
-        <v>-824799071.0382514</v>
-      </c>
-      <c r="N19" s="9">
-        <v>2970994464.4808745</v>
-      </c>
-      <c r="O19" s="9">
-        <v>5112662765.0273228</v>
-      </c>
-      <c r="P19" s="9">
-        <v>6039474699.4535522</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
+    <row r="20" spans="1:33">
+      <c r="D20" s="4"/>
     </row>
-    <row r="20" spans="1:33" ht="15">
-      <c r="A20" s="10">
-        <v>45260</v>
-      </c>
-      <c r="B20" s="11">
-        <v>3</v>
-      </c>
-      <c r="C20" s="11">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2207696000</v>
-      </c>
-      <c r="E20" s="9">
-        <v>3969590000</v>
-      </c>
-      <c r="F20" s="9">
-        <v>6243897000</v>
-      </c>
-      <c r="G20" s="9">
-        <v>614404000</v>
-      </c>
-      <c r="H20" s="9">
-        <v>603049000</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1217454000</v>
-      </c>
-      <c r="J20" s="9">
-        <v>5020547000</v>
-      </c>
-      <c r="K20" s="9">
-        <v>100000000</v>
-      </c>
-      <c r="L20" s="9">
-        <v>5084972000</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-164425000</v>
-      </c>
-      <c r="N20" s="9">
-        <v>5895000000</v>
-      </c>
-      <c r="O20" s="9">
-        <v>5026443000</v>
-      </c>
-      <c r="P20" s="9">
-        <v>6243897000</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+    <row r="21" spans="1:33">
+      <c r="D21" s="4"/>
     </row>
-    <row r="21" spans="1:33" ht="15">
-      <c r="A21" s="10">
-        <v>45351</v>
-      </c>
-      <c r="B21" s="11">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>5351940000</v>
-      </c>
-      <c r="E21" s="9">
-        <v>4828566000</v>
-      </c>
-      <c r="F21" s="9">
-        <v>10180507000</v>
-      </c>
-      <c r="G21" s="9">
-        <v>688123000</v>
-      </c>
-      <c r="H21" s="9">
-        <v>610908000</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1299032000</v>
-      </c>
-      <c r="J21" s="9">
-        <v>8856571000</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1939980000</v>
-      </c>
-      <c r="L21" s="9">
-        <v>6924953000</v>
-      </c>
-      <c r="M21" s="9">
-        <v>-8361000</v>
-      </c>
-      <c r="N21" s="9">
-        <v>24903000</v>
-      </c>
-      <c r="O21" s="9">
-        <v>8881475000</v>
-      </c>
-      <c r="P21" s="9">
-        <v>10180507000</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
+    <row r="22" spans="1:33">
+      <c r="D22" s="4"/>
     </row>
-    <row r="22" spans="1:33" ht="15">
-      <c r="A22" s="10">
-        <v>45443</v>
-      </c>
-      <c r="B22" s="11">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11">
-        <v>3</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-    </row>
-    <row r="24" spans="1:33">
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:33">
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:33">
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:33">
-      <c r="D27" s="4"/>
+    <row r="23" spans="1:33">
+      <c r="D23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D91BD2-10A4-45CB-8D91-7CA0B40C4DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C14CDA2-98D4-4743-BD49-2AD0A42D4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,10 +149,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="170" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,18 +228,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,41 +546,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECC31B8-9403-4F66-B332-2C0CDF711F8B}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="18.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
@@ -683,13 +684,13 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>43616</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="8">
@@ -784,13 +785,13 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="15">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>43708</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="8">
@@ -885,13 +886,13 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="15">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>43799</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
       <c r="D4" s="8">
@@ -986,13 +987,13 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="15">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>43888</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="8">
@@ -1087,13 +1088,13 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="15">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>43982</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="8">
@@ -1188,13 +1189,13 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="15">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>44074</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="8">
@@ -1289,13 +1290,13 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="15">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>44165</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="8">
@@ -1390,13 +1391,13 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="15">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>44254</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="8">
@@ -1491,13 +1492,13 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="15">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>44347</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="8">
@@ -1542,7 +1543,7 @@
       <c r="Q10" s="9">
         <v>4300000</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <v>-4220000</v>
       </c>
       <c r="S10" s="9">
@@ -1592,13 +1593,13 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="15">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>44439</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="8">
@@ -1693,13 +1694,13 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="15">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>44530</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="8">
@@ -1794,13 +1795,13 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="15">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>44619</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="D13" s="8">
@@ -1895,13 +1896,13 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="15">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>44712</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" s="8">
@@ -1996,13 +1997,13 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="15">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>44804</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="8">
@@ -2097,13 +2098,13 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="15">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>44895</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="8">
@@ -2198,13 +2199,13 @@
       </c>
     </row>
     <row r="17" spans="1:33" ht="15">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>44984</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>1</v>
       </c>
       <c r="D17" s="8">
@@ -2299,13 +2300,13 @@
       </c>
     </row>
     <row r="18" spans="1:33" ht="15">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>45077</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>1</v>
       </c>
       <c r="D18" s="8">
@@ -2326,7 +2327,7 @@
       <c r="I18" s="8">
         <v>632976000</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>5184972000</v>
       </c>
       <c r="K18" s="8">
@@ -2347,66 +2348,299 @@
       <c r="P18" s="8">
         <v>5832806000</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="8">
         <v>372072000</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="8">
         <v>-215197000</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <v>156875000</v>
       </c>
-      <c r="T18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V18" s="9">
+      <c r="T18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="8">
         <v>471595000</v>
       </c>
-      <c r="W18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" s="9">
+      <c r="W18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="8">
         <v>-314720000</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="8">
         <v>-4796000</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="8">
         <v>37000</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="8">
         <v>-1499000</v>
       </c>
-      <c r="AB18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC18" s="9">
+      <c r="AB18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18" s="8">
         <v>242000</v>
       </c>
-      <c r="AD18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE18" s="9">
+      <c r="AD18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE18" s="8">
         <v>-1103861000</v>
       </c>
-      <c r="AF18" s="9">
+      <c r="AF18" s="8">
         <v>1337000</v>
       </c>
-      <c r="AG18" s="9">
+      <c r="AG18" s="8">
         <v>-1105199000</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
-      <c r="D20" s="4"/>
+    <row r="19" spans="1:33" customFormat="1" ht="15">
+      <c r="A19" s="7">
+        <v>45169</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3031637846.9945354</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2974348857.9234972</v>
+      </c>
+      <c r="F19" s="8">
+        <v>6039474699.4535522</v>
+      </c>
+      <c r="G19" s="8">
+        <v>470637426.22950816</v>
+      </c>
+      <c r="H19" s="8">
+        <v>456173508.19672132</v>
+      </c>
+      <c r="I19" s="8">
+        <v>926811934.42622948</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5102310251.3661203</v>
+      </c>
+      <c r="K19" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="L19" s="8">
+        <v>5827109819.6721306</v>
+      </c>
+      <c r="M19" s="8">
+        <v>-824799071.0382514</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2970994464.4808745</v>
+      </c>
+      <c r="O19" s="8">
+        <v>5112662765.0273228</v>
+      </c>
+      <c r="P19" s="8">
+        <v>6039474699.4535522</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
     </row>
-    <row r="21" spans="1:33">
-      <c r="D21" s="4"/>
+    <row r="20" spans="1:33" customFormat="1" ht="15">
+      <c r="A20" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2207696000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3969590000</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6243897000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>614404000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>603049000</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1217454000</v>
+      </c>
+      <c r="J20" s="8">
+        <v>5020547000</v>
+      </c>
+      <c r="K20" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="L20" s="8">
+        <v>5084972000</v>
+      </c>
+      <c r="M20" s="8">
+        <v>-164425000</v>
+      </c>
+      <c r="N20" s="8">
+        <v>5895000000</v>
+      </c>
+      <c r="O20" s="8">
+        <v>5026443000</v>
+      </c>
+      <c r="P20" s="8">
+        <v>6243897000</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
     </row>
-    <row r="22" spans="1:33">
-      <c r="D22" s="4"/>
+    <row r="21" spans="1:33" customFormat="1" ht="15">
+      <c r="A21" s="7">
+        <v>45351</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8">
+        <v>5351940000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4828566000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>10180507000</v>
+      </c>
+      <c r="G21" s="8">
+        <v>688123000</v>
+      </c>
+      <c r="H21" s="8">
+        <v>610908000</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1299032000</v>
+      </c>
+      <c r="J21" s="8">
+        <v>8856571000</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1939980000</v>
+      </c>
+      <c r="L21" s="8">
+        <v>6924953000</v>
+      </c>
+      <c r="M21" s="8">
+        <v>-8361000</v>
+      </c>
+      <c r="N21" s="8">
+        <v>24903000</v>
+      </c>
+      <c r="O21" s="8">
+        <v>8881475000</v>
+      </c>
+      <c r="P21" s="8">
+        <v>10180507000</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+    </row>
+    <row r="22" spans="1:33" customFormat="1">
+      <c r="A22" s="7">
+        <v>45443</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
     </row>
     <row r="23" spans="1:33">
       <c r="D23" s="4"/>

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C14CDA2-98D4-4743-BD49-2AD0A42D4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EC8051-5267-4CF4-BB99-B9470A98DC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Fixed Assets</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Net loss</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Debt extinguishment gain</t>
@@ -151,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="170" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -228,20 +225,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECC31B8-9403-4F66-B332-2C0CDF711F8B}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -587,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -608,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -656,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>20</v>
@@ -671,7 +670,7 @@
         <v>23</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>24</v>
@@ -741,17 +740,17 @@
       <c r="S2" s="9">
         <v>0</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>27</v>
+      <c r="T2" s="9">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0</v>
       </c>
       <c r="V2" s="9">
         <v>595194000</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>27</v>
+      <c r="W2" s="9">
+        <v>0</v>
       </c>
       <c r="X2" s="9">
         <v>-595194000</v>
@@ -765,14 +764,14 @@
       <c r="AA2" s="9">
         <v>-1032000</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>27</v>
+      <c r="AB2" s="9">
+        <v>0</v>
       </c>
       <c r="AC2" s="9">
         <v>1129000</v>
       </c>
-      <c r="AD2" s="9" t="s">
-        <v>27</v>
+      <c r="AD2" s="9">
+        <v>0</v>
       </c>
       <c r="AE2" s="9">
         <v>-592244000</v>
@@ -842,17 +841,17 @@
       <c r="S3" s="9">
         <v>10054.644808743169</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>27</v>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
       </c>
       <c r="V3" s="8">
         <v>671911724.04371583</v>
       </c>
-      <c r="W3" s="9" t="s">
-        <v>27</v>
+      <c r="W3" s="9">
+        <v>0</v>
       </c>
       <c r="X3" s="8">
         <v>-671911724.04371583</v>
@@ -866,14 +865,14 @@
       <c r="AA3" s="8">
         <v>-820163.93442622945</v>
       </c>
-      <c r="AB3" s="9" t="s">
-        <v>27</v>
+      <c r="AB3" s="9">
+        <v>0</v>
       </c>
       <c r="AC3" s="8">
         <v>854756.83060109289</v>
       </c>
-      <c r="AD3" s="9" t="s">
-        <v>27</v>
+      <c r="AD3" s="9">
+        <v>0</v>
       </c>
       <c r="AE3" s="8">
         <v>-669425426.22950828</v>
@@ -943,17 +942,17 @@
       <c r="S4" s="9">
         <v>20000</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>27</v>
+      <c r="T4" s="9">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0</v>
       </c>
       <c r="V4" s="8">
         <v>749472500</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>27</v>
+      <c r="W4" s="9">
+        <v>0</v>
       </c>
       <c r="X4" s="8">
         <v>-749472500</v>
@@ -967,14 +966,14 @@
       <c r="AA4" s="8">
         <v>-606000</v>
       </c>
-      <c r="AB4" s="9" t="s">
-        <v>27</v>
+      <c r="AB4" s="9">
+        <v>0</v>
       </c>
       <c r="AC4" s="8">
         <v>577500</v>
       </c>
-      <c r="AD4" s="9" t="s">
-        <v>27</v>
+      <c r="AD4" s="9">
+        <v>0</v>
       </c>
       <c r="AE4" s="8">
         <v>-747455000</v>
@@ -1044,17 +1043,17 @@
       <c r="S5" s="9">
         <v>29726.775956284153</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>27</v>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
       </c>
       <c r="V5" s="8">
         <v>827033275.95628417</v>
       </c>
-      <c r="W5" s="9" t="s">
-        <v>27</v>
+      <c r="W5" s="9">
+        <v>0</v>
       </c>
       <c r="X5" s="8">
         <v>-827033275.95628417</v>
@@ -1068,14 +1067,14 @@
       <c r="AA5" s="8">
         <v>-391836.06557377049</v>
       </c>
-      <c r="AB5" s="9" t="s">
-        <v>27</v>
+      <c r="AB5" s="9">
+        <v>0</v>
       </c>
       <c r="AC5" s="8">
         <v>300243.16939890711</v>
       </c>
-      <c r="AD5" s="9" t="s">
-        <v>27</v>
+      <c r="AD5" s="9">
+        <v>0</v>
       </c>
       <c r="AE5" s="8">
         <v>-825484573.77049184</v>
@@ -1145,17 +1144,17 @@
       <c r="S6" s="9">
         <v>40000</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>27</v>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
       </c>
       <c r="V6" s="9">
         <v>903751000</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>27</v>
+      <c r="W6" s="9">
+        <v>0</v>
       </c>
       <c r="X6" s="9">
         <v>-903751000</v>
@@ -1169,14 +1168,14 @@
       <c r="AA6" s="9">
         <v>-180000</v>
       </c>
-      <c r="AB6" s="9" t="s">
-        <v>27</v>
+      <c r="AB6" s="9">
+        <v>0</v>
       </c>
       <c r="AC6" s="9">
         <v>26000</v>
       </c>
-      <c r="AD6" s="9" t="s">
-        <v>27</v>
+      <c r="AD6" s="9">
+        <v>0</v>
       </c>
       <c r="AE6" s="9">
         <v>-902666000</v>
@@ -1246,17 +1245,17 @@
       <c r="S7" s="9">
         <v>50082.191780821922</v>
       </c>
-      <c r="T7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>27</v>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
       </c>
       <c r="V7" s="8">
         <v>834882200</v>
       </c>
-      <c r="W7" s="9" t="s">
-        <v>27</v>
+      <c r="W7" s="9">
+        <v>0</v>
       </c>
       <c r="X7" s="8">
         <v>-834862254.79452062</v>
@@ -1270,14 +1269,14 @@
       <c r="AA7" s="8">
         <v>-388926.02739726024</v>
       </c>
-      <c r="AB7" s="9" t="s">
-        <v>27</v>
+      <c r="AB7" s="9">
+        <v>0</v>
       </c>
       <c r="AC7" s="8">
         <v>547567.12328767113</v>
       </c>
-      <c r="AD7" s="9" t="s">
-        <v>27</v>
+      <c r="AD7" s="9">
+        <v>0</v>
       </c>
       <c r="AE7" s="8">
         <v>-834731383.56164384</v>
@@ -1347,17 +1346,17 @@
       <c r="S8" s="9">
         <v>60054.794520547948</v>
       </c>
-      <c r="T8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>27</v>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
       </c>
       <c r="V8" s="8">
         <v>765256600</v>
       </c>
-      <c r="W8" s="9" t="s">
-        <v>27</v>
+      <c r="W8" s="9">
+        <v>0</v>
       </c>
       <c r="X8" s="8">
         <v>-765216490.41095889</v>
@@ -1371,14 +1370,14 @@
       <c r="AA8" s="8">
         <v>-600147.94520547951</v>
       </c>
-      <c r="AB8" s="9" t="s">
-        <v>27</v>
+      <c r="AB8" s="9">
+        <v>0</v>
       </c>
       <c r="AC8" s="8">
         <v>1074865.7534246575</v>
       </c>
-      <c r="AD8" s="9" t="s">
-        <v>27</v>
+      <c r="AD8" s="9">
+        <v>0</v>
       </c>
       <c r="AE8" s="8">
         <v>-766050232.87671232</v>
@@ -1448,17 +1447,17 @@
       <c r="S9" s="9">
         <v>69808.219178082189</v>
       </c>
-      <c r="T9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>27</v>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
       </c>
       <c r="V9" s="8">
         <v>695631000</v>
       </c>
-      <c r="W9" s="9" t="s">
-        <v>27</v>
+      <c r="W9" s="9">
+        <v>0</v>
       </c>
       <c r="X9" s="8">
         <v>-695570726.02739716</v>
@@ -1472,14 +1471,14 @@
       <c r="AA9" s="8">
         <v>-811369.8630136986</v>
       </c>
-      <c r="AB9" s="9" t="s">
-        <v>27</v>
+      <c r="AB9" s="9">
+        <v>0</v>
       </c>
       <c r="AC9" s="8">
         <v>1602164.3835616438</v>
       </c>
-      <c r="AD9" s="9" t="s">
-        <v>27</v>
+      <c r="AD9" s="9">
+        <v>0</v>
       </c>
       <c r="AE9" s="8">
         <v>-697369082.19178081</v>
@@ -1549,17 +1548,17 @@
       <c r="S10" s="9">
         <v>80000</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>27</v>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
       </c>
       <c r="V10" s="9">
         <v>627519000</v>
       </c>
-      <c r="W10" s="9" t="s">
-        <v>27</v>
+      <c r="W10" s="9">
+        <v>0</v>
       </c>
       <c r="X10" s="9">
         <v>-627439000</v>
@@ -1573,14 +1572,14 @@
       <c r="AA10" s="9">
         <v>-1018000</v>
       </c>
-      <c r="AB10" s="9" t="s">
-        <v>27</v>
+      <c r="AB10" s="9">
+        <v>0</v>
       </c>
       <c r="AC10" s="9">
         <v>2118000</v>
       </c>
-      <c r="AD10" s="9" t="s">
-        <v>27</v>
+      <c r="AD10" s="9">
+        <v>0</v>
       </c>
       <c r="AE10" s="9">
         <v>-630181000</v>
@@ -1650,17 +1649,17 @@
       <c r="S11" s="8">
         <v>2646698.6301369863</v>
       </c>
-      <c r="T11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>27</v>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
       </c>
       <c r="V11" s="8">
         <v>569009989.04109585</v>
       </c>
-      <c r="W11" s="9" t="s">
-        <v>27</v>
+      <c r="W11" s="9">
+        <v>0</v>
       </c>
       <c r="X11" s="8">
         <v>-566363290.41095889</v>
@@ -1674,14 +1673,14 @@
       <c r="AA11" s="8">
         <v>-353076.71232876717</v>
       </c>
-      <c r="AB11" s="9" t="s">
-        <v>27</v>
+      <c r="AB11" s="9">
+        <v>0</v>
       </c>
       <c r="AC11" s="8">
         <v>1593690.4109589041</v>
       </c>
-      <c r="AD11" s="9" t="s">
-        <v>27</v>
+      <c r="AD11" s="9">
+        <v>0</v>
       </c>
       <c r="AE11" s="8">
         <v>-569277317.80821919</v>
@@ -1751,17 +1750,17 @@
       <c r="S12" s="8">
         <v>5241602.7397260265</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>27</v>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
       </c>
       <c r="V12" s="8">
         <v>509858021.91780823</v>
       </c>
-      <c r="W12" s="9" t="s">
-        <v>27</v>
+      <c r="W12" s="9">
+        <v>0</v>
       </c>
       <c r="X12" s="8">
         <v>-504616419.17808223</v>
@@ -1775,14 +1774,14 @@
       <c r="AA12" s="8">
         <v>319153.42465753428</v>
       </c>
-      <c r="AB12" s="9" t="s">
-        <v>27</v>
+      <c r="AB12" s="9">
+        <v>0</v>
       </c>
       <c r="AC12" s="8">
         <v>1063619.1780821919</v>
       </c>
-      <c r="AD12" s="9" t="s">
-        <v>27</v>
+      <c r="AD12" s="9">
+        <v>0</v>
       </c>
       <c r="AE12" s="8">
         <v>-507704364.38356167</v>
@@ -1852,17 +1851,17 @@
       <c r="S13" s="8">
         <v>7836506.8493150687</v>
       </c>
-      <c r="T13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>27</v>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
       </c>
       <c r="V13" s="8">
         <v>450706054.79452056</v>
       </c>
-      <c r="W13" s="9" t="s">
-        <v>27</v>
+      <c r="W13" s="9">
+        <v>0</v>
       </c>
       <c r="X13" s="8">
         <v>-442869547.94520545</v>
@@ -1876,14 +1875,14 @@
       <c r="AA13" s="8">
         <v>991383.56164383562</v>
       </c>
-      <c r="AB13" s="9" t="s">
-        <v>27</v>
+      <c r="AB13" s="9">
+        <v>0</v>
       </c>
       <c r="AC13" s="8">
         <v>533547.94520547939</v>
       </c>
-      <c r="AD13" s="9" t="s">
-        <v>27</v>
+      <c r="AD13" s="9">
+        <v>0</v>
       </c>
       <c r="AE13" s="8">
         <v>-446131410.95890415</v>
@@ -1953,17 +1952,17 @@
       <c r="S14" s="9">
         <v>10375000</v>
       </c>
-      <c r="T14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>27</v>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
       </c>
       <c r="V14" s="9">
         <v>392840000</v>
       </c>
-      <c r="W14" s="9" t="s">
-        <v>27</v>
+      <c r="W14" s="9">
+        <v>0</v>
       </c>
       <c r="X14" s="9">
         <v>-382465000</v>
@@ -1977,14 +1976,14 @@
       <c r="AA14" s="9">
         <v>1649000</v>
       </c>
-      <c r="AB14" s="9" t="s">
-        <v>27</v>
+      <c r="AB14" s="9">
+        <v>0</v>
       </c>
       <c r="AC14" s="9">
         <v>15000</v>
       </c>
-      <c r="AD14" s="9" t="s">
-        <v>27</v>
+      <c r="AD14" s="9">
+        <v>0</v>
       </c>
       <c r="AE14" s="9">
         <v>-385897000</v>
@@ -2054,17 +2053,17 @@
       <c r="S15" s="8">
         <v>46899657.534246564</v>
       </c>
-      <c r="T15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>27</v>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
       </c>
       <c r="V15" s="8">
         <v>412474808.21917808</v>
       </c>
-      <c r="W15" s="9" t="s">
-        <v>27</v>
+      <c r="W15" s="9">
+        <v>0</v>
       </c>
       <c r="X15" s="8">
         <v>-365575150.68493158</v>
@@ -2078,14 +2077,14 @@
       <c r="AA15" s="8">
         <v>864156.1643835617</v>
       </c>
-      <c r="AB15" s="9" t="s">
-        <v>27</v>
+      <c r="AB15" s="9">
+        <v>0</v>
       </c>
       <c r="AC15" s="8">
         <v>71594.520547945198</v>
       </c>
-      <c r="AD15" s="9" t="s">
-        <v>27</v>
+      <c r="AD15" s="9">
+        <v>0</v>
       </c>
       <c r="AE15" s="8">
         <v>-564896243.83561635</v>
@@ -2155,17 +2154,17 @@
       <c r="S16" s="8">
         <v>83825684.931506842</v>
       </c>
-      <c r="T16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>27</v>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
       </c>
       <c r="V16" s="8">
         <v>432325383.56164384</v>
       </c>
-      <c r="W16" s="9" t="s">
-        <v>27</v>
+      <c r="W16" s="9">
+        <v>0</v>
       </c>
       <c r="X16" s="8">
         <v>-348499698.63013703</v>
@@ -2179,14 +2178,14 @@
       <c r="AA16" s="8">
         <v>70687.671232876717</v>
       </c>
-      <c r="AB16" s="9" t="s">
-        <v>27</v>
+      <c r="AB16" s="9">
+        <v>0</v>
       </c>
       <c r="AC16" s="8">
         <v>128810.95890410959</v>
       </c>
-      <c r="AD16" s="9" t="s">
-        <v>27</v>
+      <c r="AD16" s="9">
+        <v>0</v>
       </c>
       <c r="AE16" s="8">
         <v>-745862512.32876706</v>
@@ -2256,17 +2255,17 @@
       <c r="S17" s="8">
         <v>120751712.32876711</v>
       </c>
-      <c r="T17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>27</v>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
       </c>
       <c r="V17" s="8">
         <v>452175958.9041096</v>
       </c>
-      <c r="W17" s="9" t="s">
-        <v>27</v>
+      <c r="W17" s="9">
+        <v>0</v>
       </c>
       <c r="X17" s="8">
         <v>-331424246.57534248</v>
@@ -2280,14 +2279,14 @@
       <c r="AA17" s="8">
         <v>-722780.82191780827</v>
       </c>
-      <c r="AB17" s="9" t="s">
-        <v>27</v>
+      <c r="AB17" s="9">
+        <v>0</v>
       </c>
       <c r="AC17" s="8">
         <v>186027.39726027398</v>
       </c>
-      <c r="AD17" s="9" t="s">
-        <v>27</v>
+      <c r="AD17" s="9">
+        <v>0</v>
       </c>
       <c r="AE17" s="8">
         <v>-926828780.82191777</v>
@@ -2357,17 +2356,17 @@
       <c r="S18" s="8">
         <v>156875000</v>
       </c>
-      <c r="T18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>27</v>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
       </c>
       <c r="V18" s="8">
         <v>471595000</v>
       </c>
-      <c r="W18" s="8" t="s">
-        <v>27</v>
+      <c r="W18" s="9">
+        <v>0</v>
       </c>
       <c r="X18" s="8">
         <v>-314720000</v>
@@ -2381,14 +2380,14 @@
       <c r="AA18" s="8">
         <v>-1499000</v>
       </c>
-      <c r="AB18" s="8" t="s">
-        <v>27</v>
+      <c r="AB18" s="9">
+        <v>0</v>
       </c>
       <c r="AC18" s="8">
         <v>242000</v>
       </c>
-      <c r="AD18" s="8" t="s">
-        <v>27</v>
+      <c r="AD18" s="9">
+        <v>0</v>
       </c>
       <c r="AE18" s="8">
         <v>-1103861000</v>

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22028\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EC8051-5267-4CF4-BB99-B9470A98DC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011E3BE1-2F61-4EE0-B789-D3A9D4E4A3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="540" windowWidth="10605" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated" sheetId="8" r:id="rId1"/>
@@ -147,22 +147,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="179" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -170,7 +170,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -219,29 +219,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,44 +544,44 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="19.875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.125" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.75" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.875" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="42.75">
+    <row r="1" spans="1:33" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -682,7 +682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>43616</v>
       </c>
@@ -783,7 +783,7 @@
         <v>-593314000</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>43708</v>
       </c>
@@ -884,7 +884,7 @@
         <v>-670498907.10382509</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>43799</v>
       </c>
@@ -985,7 +985,7 @@
         <v>-748532000</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>43888</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>-826565092.89617491</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>43982</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>-903750000</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>44074</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>-835810147.94520545</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>44165</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>-767123704.1095891</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>44254</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>-698437260.27397263</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>44347</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>-631244000</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>44439</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>-570407882.19178081</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>44530</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>-508903235.61643839</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>44619</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>-447398589.04109591</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>44712</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>-387231000</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>44804</v>
       </c>
@@ -2096,12 +2096,12 @@
         <v>-566231241.0958904</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>44895</v>
       </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -2197,12 +2197,12 @@
         <v>-747198517.80821919</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>44984</v>
       </c>
       <c r="B17" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -2298,12 +2298,12 @@
         <v>-928165794.52054799</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>45077</v>
       </c>
       <c r="B18" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -2399,12 +2399,12 @@
         <v>-1105199000</v>
       </c>
     </row>
-    <row r="19" spans="1:33" customFormat="1" ht="15">
+    <row r="19" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>45169</v>
       </c>
       <c r="B19" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -2466,12 +2466,12 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
     </row>
-    <row r="20" spans="1:33" customFormat="1" ht="15">
+    <row r="20" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>45260</v>
       </c>
       <c r="B20" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -2533,12 +2533,12 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="1:33" customFormat="1" ht="15">
+    <row r="21" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>45351</v>
       </c>
       <c r="B21" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="6">
         <v>3</v>
@@ -2600,12 +2600,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="1:33" customFormat="1">
+    <row r="22" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>45443</v>
       </c>
       <c r="B22" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="6">
         <v>3</v>
@@ -2641,7 +2641,7 @@
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="D23" s="4"/>
     </row>
   </sheetData>

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -112,7 +112,7 @@
     <t>Provision for income taxes</t>
   </si>
   <si>
-    <t>Net loss</t>
+    <t>Net Loss</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="$#,##0_);($#,##0)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +133,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -147,6 +147,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -203,23 +209,26 @@
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -536,35 +545,35 @@
     <col min="2" max="2" style="14" width="13.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="15" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="15" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="15" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="15" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="15" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="15" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="15" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="15" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="15" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="15" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="16" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="16" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="16" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="16" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="16" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="16" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="16" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="16" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="16" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="71.25">

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2684B3D-04B6-9D4A-8454-79E6A4CF7336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="consolidated"/>
+    <sheet name="consolidated" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Quarter</t>
   </si>
@@ -113,17 +119,34 @@
   </si>
   <si>
     <t>Net Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted EBITDA </t>
+  </si>
+  <si>
+    <t>Cash flow from operating activities</t>
+  </si>
+  <si>
+    <t>Cash flow from investing activities</t>
+  </si>
+  <si>
+    <t>Cash flow from financing activities</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="$#,##0_);($#,##0)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="167" formatCode="&quot;¥&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +178,54 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF141414"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,68 +251,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -252,10 +347,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -293,71 +388,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,7 +480,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -408,11 +503,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -421,13 +516,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -437,7 +532,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -446,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -455,7 +550,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -463,10 +558,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -531,52 +626,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="13" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="16" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="16" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="16" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="16" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="16" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="16" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="16" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="16" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="19.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="18.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="16.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.83203125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="71.25">
+    <row r="1" spans="1:38" ht="71.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,98 +680,113 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:38" ht="18.75" customHeight="1">
       <c r="A2" s="5">
         <v>43616</v>
       </c>
@@ -687,98 +796,103 @@
       <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="3">
         <v>1805078000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="J2" s="3">
         <v>7020000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="K2" s="3">
         <v>1812099000</v>
       </c>
-      <c r="G2" s="3">
+      <c r="L2" s="3">
         <v>37259000</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="3">
         <v>20000000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="N2" s="3">
         <v>57259000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="3">
         <v>1746053000</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="3">
         <v>100000000</v>
       </c>
-      <c r="L2" s="3">
+      <c r="Q2" s="3">
         <v>2358000000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="R2" s="3">
         <v>-713005000</v>
       </c>
-      <c r="N2" s="3">
+      <c r="S2" s="3">
         <v>9845000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="T2" s="3">
         <v>1754840000</v>
       </c>
-      <c r="P2" s="3">
+      <c r="U2" s="3">
         <v>1812099000</v>
       </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
       <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
         <v>595194000</v>
       </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
+      <c r="AB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3">
         <v>-595194000</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="AD2" s="3">
         <v>2786000</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AE2" s="3">
         <v>66000</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AF2" s="3">
         <v>-1032000</v>
       </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
+      <c r="AG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3">
         <v>1129000</v>
       </c>
-      <c r="AD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3">
+      <c r="AI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3">
         <v>-592244000</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AK2" s="3">
         <v>1069000</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AL2" s="3">
         <v>-593314000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:38" ht="18.75" customHeight="1">
       <c r="A3" s="5">
         <v>43708</v>
       </c>
@@ -788,98 +902,103 @@
       <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="3">
         <v>1572117005.4644809</v>
       </c>
-      <c r="E3" s="3">
-        <v>6169672.131147541</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="J3" s="3">
+        <v>6169672.1311475411</v>
+      </c>
+      <c r="K3" s="3">
         <v>1578287428.9617488</v>
       </c>
-      <c r="G3" s="3">
+      <c r="L3" s="3">
         <v>30598098.36065574</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="3">
         <v>20000000</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>50598098.36065574</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>1521086827.8688526</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>100000000</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>2358000000</v>
       </c>
-      <c r="M3" s="3">
-        <v>-937707868.852459</v>
-      </c>
-      <c r="N3" s="3">
-        <v>7370300.546448087</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="R3" s="3">
+        <v>-937707868.85245895</v>
+      </c>
+      <c r="S3" s="3">
+        <v>7370300.5464480873</v>
+      </c>
+      <c r="T3" s="3">
         <v>1525192918.0327868</v>
       </c>
-      <c r="P3" s="3">
+      <c r="U3" s="3">
         <v>1575718071.0382514</v>
       </c>
-      <c r="Q3" s="3">
-        <v>540437.1584699453</v>
-      </c>
-      <c r="R3" s="3">
-        <v>-530382.5136612022</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="V3" s="3">
+        <v>540437.15846994531</v>
+      </c>
+      <c r="W3" s="3">
+        <v>-530382.51366120216</v>
+      </c>
+      <c r="X3" s="3">
         <v>10054.644808743169</v>
       </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>671911724.0437158</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <v>-671911724.0437158</v>
-      </c>
       <c r="Y3" s="3">
-        <v>2360587.431693989</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="3">
-        <v>90117.48633879781</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="3">
-        <v>-820163.9344262294</v>
+        <v>671911724.04371583</v>
       </c>
       <c r="AB3" s="3">
         <v>0</v>
       </c>
       <c r="AC3" s="3">
-        <v>854756.8306010929</v>
+        <v>-671911724.04371583</v>
       </c>
       <c r="AD3" s="3">
-        <v>0</v>
+        <v>2360587.4316939889</v>
       </c>
       <c r="AE3" s="3">
-        <v>-669425426.2295083</v>
+        <v>90117.486338797811</v>
       </c>
       <c r="AF3" s="3">
+        <v>-820163.93442622945</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>854756.83060109289</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>-669425426.22950828</v>
+      </c>
+      <c r="AK3" s="3">
         <v>1072729.5081967213</v>
       </c>
-      <c r="AG3" s="3">
-        <v>-670498907.1038251</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="AL3" s="3">
+        <v>-670498907.10382509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="18.75" customHeight="1">
       <c r="A4" s="5">
         <v>43799</v>
       </c>
@@ -889,98 +1008,103 @@
       <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="3">
         <v>1336596000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="J4" s="3">
         <v>5310000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="K4" s="3">
         <v>1341906500</v>
       </c>
-      <c r="G4" s="3">
+      <c r="L4" s="3">
         <v>23864000</v>
       </c>
-      <c r="H4" s="3">
+      <c r="M4" s="3">
         <v>20000000</v>
       </c>
-      <c r="I4" s="3">
+      <c r="N4" s="3">
         <v>43864000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>1293648500</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="3">
         <v>100000000</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Q4" s="3">
         <v>2358000000</v>
       </c>
-      <c r="M4" s="3">
+      <c r="R4" s="3">
         <v>-1164880000</v>
       </c>
-      <c r="N4" s="3">
+      <c r="S4" s="3">
         <v>4922500</v>
       </c>
-      <c r="O4" s="3">
+      <c r="T4" s="3">
         <v>1298042000</v>
       </c>
-      <c r="P4" s="3">
+      <c r="U4" s="3">
         <v>1341906500</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="V4" s="3">
         <v>1075000</v>
       </c>
-      <c r="R4" s="3">
+      <c r="W4" s="3">
         <v>-1055000</v>
       </c>
-      <c r="S4" s="3">
+      <c r="X4" s="3">
         <v>20000</v>
       </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
         <v>749472500</v>
       </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
         <v>-749472500</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="AD4" s="3">
         <v>1930500</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AE4" s="3">
         <v>114500</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AF4" s="3">
         <v>-606000</v>
       </c>
-      <c r="AB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3">
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
         <v>577500</v>
       </c>
-      <c r="AD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="3">
+      <c r="AI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3">
         <v>-747455000</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AK4" s="3">
         <v>1076500</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AL4" s="3">
         <v>-748532000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:38" ht="18.75" customHeight="1">
       <c r="A5" s="5">
         <v>43888</v>
       </c>
@@ -990,98 +1114,103 @@
       <c r="C5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="3">
         <v>1101074994.5355191</v>
       </c>
-      <c r="E5" s="3">
-        <v>4450327.868852459</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="J5" s="3">
+        <v>4450327.8688524589</v>
+      </c>
+      <c r="K5" s="3">
         <v>1105525571.0382512</v>
       </c>
-      <c r="G5" s="3">
+      <c r="L5" s="3">
         <v>17129901.63934426</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>20000000</v>
       </c>
-      <c r="I5" s="3">
-        <v>37129901.63934427</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="N5" s="3">
+        <v>37129901.639344268</v>
+      </c>
+      <c r="O5" s="3">
         <v>1066210172.1311475</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>100000000</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3">
         <v>2358000000</v>
       </c>
-      <c r="M5" s="3">
+      <c r="R5" s="3">
         <v>-1392052131.147541</v>
       </c>
-      <c r="N5" s="3">
+      <c r="S5" s="3">
         <v>2528497.2677595625</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <v>1075883409.8360655</v>
       </c>
-      <c r="P5" s="3">
+      <c r="U5" s="3">
         <v>1113233644.8087432</v>
       </c>
-      <c r="Q5" s="3">
-        <v>1597814.207650273</v>
-      </c>
-      <c r="R5" s="3">
-        <v>-1568087.431693989</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="V5" s="3">
+        <v>1597814.2076502731</v>
+      </c>
+      <c r="W5" s="3">
+        <v>-1568087.4316939891</v>
+      </c>
+      <c r="X5" s="3">
         <v>29726.775956284153</v>
       </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>827033275.9562842</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>-827033275.9562842</v>
-      </c>
       <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>827033275.95628417</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>-827033275.95628417</v>
+      </c>
+      <c r="AD5" s="3">
         <v>1500412.5683060111</v>
       </c>
-      <c r="Z5" s="3">
-        <v>138882.5136612022</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>-391836.0655737705</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>300243.1693989071</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0</v>
-      </c>
       <c r="AE5" s="3">
-        <v>-825484573.7704918</v>
+        <v>138882.51366120219</v>
       </c>
       <c r="AF5" s="3">
+        <v>-391836.06557377049</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>300243.16939890711</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>-825484573.77049184</v>
+      </c>
+      <c r="AK5" s="3">
         <v>1080270.4918032787</v>
       </c>
-      <c r="AG5" s="3">
-        <v>-826565092.8961749</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="AL5" s="3">
+        <v>-826565092.89617491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="18.75" customHeight="1">
       <c r="A6" s="5">
         <v>43982</v>
       </c>
@@ -1091,98 +1220,103 @@
       <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="3">
         <v>868114000</v>
       </c>
-      <c r="E6" s="3">
+      <c r="J6" s="3">
         <v>3600000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="K6" s="3">
         <v>871714000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="L6" s="3">
         <v>10469000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="3">
         <v>20000000</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>30469000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>841244000</v>
-      </c>
-      <c r="K6" s="3">
-        <v>100000000</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2358000000</v>
-      </c>
-      <c r="M6" s="3">
-        <v>-1616755000</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
       </c>
       <c r="O6" s="3">
         <v>841244000</v>
       </c>
       <c r="P6" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2358000000</v>
+      </c>
+      <c r="R6" s="3">
+        <v>-1616755000</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>841244000</v>
+      </c>
+      <c r="U6" s="3">
         <v>871714000</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="V6" s="3">
         <v>2150000</v>
       </c>
-      <c r="R6" s="3">
+      <c r="W6" s="3">
         <v>-2110000</v>
       </c>
-      <c r="S6" s="3">
+      <c r="X6" s="3">
         <v>40000</v>
       </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
         <v>903751000</v>
       </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
         <v>-903751000</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="AD6" s="3">
         <v>1075000</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AE6" s="3">
         <v>163000</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AF6" s="3">
         <v>-180000</v>
       </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3">
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
         <v>26000</v>
       </c>
-      <c r="AD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="3">
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
         <v>-902666000</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AK6" s="3">
         <v>1084000</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AL6" s="3">
         <v>-903750000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:38" ht="18.75" customHeight="1">
       <c r="A7" s="5">
         <v>44074</v>
       </c>
@@ -1192,98 +1326,103 @@
       <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
-        <v>924936893.1506848</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6089410.958904111</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="3">
+        <v>924936893.15068483</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6089410.9589041108</v>
+      </c>
+      <c r="K7" s="3">
         <v>931026304.1095891</v>
       </c>
-      <c r="G7" s="3">
-        <v>16278539.7260274</v>
-      </c>
-      <c r="H7" s="3">
-        <v>89808219.17808218</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="L7" s="3">
+        <v>16278539.726027399</v>
+      </c>
+      <c r="M7" s="3">
+        <v>89808219.178082183</v>
+      </c>
+      <c r="N7" s="3">
         <v>106086758.9041096</v>
       </c>
-      <c r="J7" s="3">
+      <c r="O7" s="3">
         <v>824938545.2054795</v>
       </c>
-      <c r="K7" s="3">
+      <c r="P7" s="3">
         <v>100000000</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="3">
         <v>2499073186.3013697</v>
       </c>
-      <c r="M7" s="3">
+      <c r="R7" s="3">
         <v>-1774133890.4109588</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>824759364.3835616</v>
-      </c>
-      <c r="P7" s="3">
-        <v>931678087.6712329</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>2691917.808219178</v>
-      </c>
-      <c r="R7" s="3">
-        <v>-2641835.616438356</v>
-      </c>
       <c r="S7" s="3">
-        <v>50082.19178082192</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>824759364.38356161</v>
       </c>
       <c r="U7" s="3">
-        <v>0</v>
+        <v>931678087.67123294</v>
       </c>
       <c r="V7" s="3">
+        <v>2691917.8082191781</v>
+      </c>
+      <c r="W7" s="3">
+        <v>-2641835.6164383562</v>
+      </c>
+      <c r="X7" s="3">
+        <v>50082.191780821922</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
         <v>834882200</v>
       </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>-834862254.7945206</v>
-      </c>
-      <c r="Y7" s="3">
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>-834862254.79452062</v>
+      </c>
+      <c r="AD7" s="3">
         <v>1771087.6712328768</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AE7" s="3">
         <v>128345.20547945207</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AF7" s="3">
         <v>-388926.02739726024</v>
       </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>547567.1232876711</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>-834731383.5616438</v>
-      </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>547567.12328767113</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>-834731383.56164384</v>
+      </c>
+      <c r="AK7" s="3">
         <v>1078515.0684931506</v>
       </c>
-      <c r="AG7" s="3">
-        <v>-835810147.9452055</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="AL7" s="3">
+        <v>-835810147.94520545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="18.75" customHeight="1">
       <c r="A8" s="5">
         <v>44165</v>
       </c>
@@ -1293,98 +1432,103 @@
       <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
-        <v>982384213.6986301</v>
-      </c>
-      <c r="E8" s="3">
-        <v>8606178.082191782</v>
-      </c>
-      <c r="F8" s="3">
-        <v>990990391.7808219</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="3">
+        <v>982384213.69863009</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8606178.0821917821</v>
+      </c>
+      <c r="K8" s="3">
+        <v>990990391.78082192</v>
+      </c>
+      <c r="L8" s="3">
         <v>22151920.547945205</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>160383561.64383563</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>182535482.19178084</v>
       </c>
-      <c r="J8" s="3">
-        <v>808453909.5890411</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
+        <v>808453909.58904111</v>
+      </c>
+      <c r="P8" s="3">
         <v>100000000</v>
       </c>
-      <c r="L8" s="3">
-        <v>2641696627.39726</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
+        <v>2641696627.3972602</v>
+      </c>
+      <c r="R8" s="3">
         <v>-1933242219.1780822</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>808453909.5890411</v>
-      </c>
-      <c r="P8" s="3">
-        <v>990990391.7808219</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3227945.205479452</v>
-      </c>
-      <c r="R8" s="3">
-        <v>-3167890.410958904</v>
-      </c>
       <c r="S8" s="3">
-        <v>60054.79452054795</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>808453909.58904111</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>990990391.78082192</v>
       </c>
       <c r="V8" s="3">
+        <v>3227945.2054794519</v>
+      </c>
+      <c r="W8" s="3">
+        <v>-3167890.4109589038</v>
+      </c>
+      <c r="X8" s="3">
+        <v>60054.794520547948</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>765256600</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>-765216490.4109589</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>-765216490.41095889</v>
+      </c>
+      <c r="AD8" s="3">
         <v>2474824.6575342463</v>
       </c>
-      <c r="Z8" s="3">
-        <v>93309.5890410959</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>-600147.9452054795</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
+        <v>93309.589041095896</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>-600147.94520547951</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
         <v>1074865.7534246575</v>
       </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>-766050232.8767123</v>
-      </c>
-      <c r="AF8" s="3">
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>-766050232.87671232</v>
+      </c>
+      <c r="AK8" s="3">
         <v>1072969.8630136987</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AL8" s="3">
         <v>-767123704.1095891</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:38" ht="18.75" customHeight="1">
       <c r="A9" s="5">
         <v>44254</v>
       </c>
@@ -1394,98 +1538,102 @@
       <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="I9" s="3">
         <v>1039831534.2465754</v>
       </c>
-      <c r="E9" s="3">
+      <c r="J9" s="3">
         <v>11122945.205479452</v>
       </c>
-      <c r="F9" s="3">
+      <c r="K9" s="3">
         <v>1050954479.4520547</v>
       </c>
-      <c r="G9" s="3">
+      <c r="L9" s="3">
         <v>28025301.369863015</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>230958904.10958907</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>258984205.47945207</v>
       </c>
-      <c r="J9" s="3">
-        <v>791969273.9726028</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
+        <v>791969273.97260284</v>
+      </c>
+      <c r="P9" s="3">
         <v>100000000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>2784320068.4931507</v>
       </c>
-      <c r="M9" s="3">
+      <c r="R9" s="3">
         <v>-2092350547.9452057</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>792506816.4383562</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>792506816.43835616</v>
+      </c>
+      <c r="U9" s="3">
         <v>1048999128.7671233</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="V9" s="3">
         <v>3752191.7808219176</v>
       </c>
-      <c r="R9" s="3">
+      <c r="W9" s="3">
         <v>-3682383.5616438356</v>
       </c>
-      <c r="S9" s="3">
-        <v>69808.21917808219</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
+        <v>69808.219178082189</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>695631000</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>-695570726.0273972</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>-695570726.02739716</v>
+      </c>
+      <c r="AD9" s="3">
         <v>3178561.6438356163</v>
       </c>
-      <c r="Z9" s="3">
-        <v>58273.97260273973</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AE9" s="3">
+        <v>58273.972602739726</v>
+      </c>
+      <c r="AF9" s="3">
         <v>-811369.8630136986</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
         <v>1602164.3835616438</v>
       </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>-697369082.1917808</v>
-      </c>
-      <c r="AF9" s="3">
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>-697369082.19178081</v>
+      </c>
+      <c r="AK9" s="3">
         <v>1067424.6575342466</v>
       </c>
-      <c r="AG9" s="3">
-        <v>-698437260.2739726</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="AL9" s="3">
+        <v>-698437260.27397263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="18.75" customHeight="1">
       <c r="A10" s="5">
         <v>44347</v>
       </c>
@@ -1495,98 +1643,105 @@
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="21">
+        <v>12976000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1096030000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="J10" s="3">
         <v>13585000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="K10" s="3">
         <v>1109615000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="L10" s="3">
         <v>33771000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>300000000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
         <v>333771000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>775843000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100000000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2923843000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-2248000000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>775843000</v>
       </c>
       <c r="P10" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2923843000</v>
+      </c>
+      <c r="R10" s="3">
+        <v>-2248000000</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>775843000</v>
+      </c>
+      <c r="U10" s="3">
         <v>1109615000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="V10" s="3">
         <v>4300000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="W10" s="3">
         <v>-4220000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="X10" s="3">
         <v>80000</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>627519000</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>-627439000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AD10" s="3">
         <v>3867000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AE10" s="3">
         <v>24000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AF10" s="3">
         <v>-1018000</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
         <v>2118000</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
         <v>-630181000</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AK10" s="3">
         <v>1062000</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AL10" s="3">
         <v>-631244000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:38" ht="18.75" customHeight="1">
       <c r="A11" s="5">
         <v>44439</v>
       </c>
@@ -1596,98 +1751,103 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="3">
         <v>1763056010.9589045</v>
       </c>
-      <c r="E11" s="3">
+      <c r="J11" s="3">
         <v>482280624.6575343</v>
       </c>
-      <c r="F11" s="3">
+      <c r="K11" s="3">
         <v>2245336635.6164384</v>
       </c>
-      <c r="G11" s="3">
-        <v>45732887.67123288</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="L11" s="3">
+        <v>45732887.671232879</v>
+      </c>
+      <c r="M11" s="3">
         <v>300000000</v>
       </c>
-      <c r="I11" s="3">
-        <v>345732887.6712329</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="N11" s="3">
+        <v>345732887.67123288</v>
+      </c>
+      <c r="O11" s="3">
         <v>1901328257.5342464</v>
       </c>
-      <c r="K11" s="3">
+      <c r="P11" s="3">
         <v>100000000</v>
       </c>
-      <c r="L11" s="3">
+      <c r="Q11" s="3">
         <v>3607848863.0136986</v>
       </c>
-      <c r="M11" s="3">
+      <c r="R11" s="3">
         <v>-1784082249.3150685</v>
       </c>
-      <c r="N11" s="3">
+      <c r="S11" s="3">
         <v>-1743967.1232876712</v>
       </c>
-      <c r="O11" s="3">
+      <c r="T11" s="3">
         <v>1911952008.2191782</v>
       </c>
-      <c r="P11" s="3">
-        <v>2257817093.150685</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>7902353.424657535</v>
-      </c>
-      <c r="R11" s="3">
-        <v>-5255654.794520548</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="U11" s="3">
+        <v>2257817093.1506848</v>
+      </c>
+      <c r="V11" s="3">
+        <v>7902353.4246575348</v>
+      </c>
+      <c r="W11" s="3">
+        <v>-5255654.7945205476</v>
+      </c>
+      <c r="X11" s="3">
         <v>2646698.6301369863</v>
       </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>569009989.0410959</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>-566363290.4109589</v>
-      </c>
       <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>569009989.04109585</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>-566363290.41095889</v>
+      </c>
+      <c r="AD11" s="3">
         <v>2779238.3561643832</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AE11" s="3">
         <v>21756.164383561645</v>
       </c>
-      <c r="AA11" s="3">
-        <v>-353076.7123287672</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>1593690.410958904</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>-569277317.8082192</v>
-      </c>
       <c r="AF11" s="3">
-        <v>1129813.698630137</v>
+        <v>-353076.71232876717</v>
       </c>
       <c r="AG11" s="3">
-        <v>-570407882.1917808</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>1593690.4109589041</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>-569277317.80821919</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>1129813.6986301369</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>-570407882.19178081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="18.75" customHeight="1">
       <c r="A12" s="5">
         <v>44530</v>
       </c>
@@ -1697,98 +1857,103 @@
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
-        <v>2437411978.082192</v>
-      </c>
-      <c r="E12" s="3">
-        <v>956126750.6849315</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3393538728.767123</v>
-      </c>
-      <c r="G12" s="3">
-        <v>57826224.65753424</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="3">
+        <v>2437411978.0821919</v>
+      </c>
+      <c r="J12" s="3">
+        <v>956126750.68493152</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3393538728.7671232</v>
+      </c>
+      <c r="L12" s="3">
+        <v>57826224.657534242</v>
+      </c>
+      <c r="M12" s="3">
         <v>300000000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="N12" s="3">
         <v>357826224.6575343</v>
       </c>
-      <c r="J12" s="3">
+      <c r="O12" s="3">
         <v>3039181484.9315066</v>
       </c>
-      <c r="K12" s="3">
+      <c r="P12" s="3">
         <v>100000000</v>
       </c>
-      <c r="L12" s="3">
-        <v>4299371273.972603</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="Q12" s="3">
+        <v>4299371273.9726028</v>
+      </c>
+      <c r="R12" s="3">
         <v>-1315066501.369863</v>
       </c>
-      <c r="N12" s="3">
+      <c r="S12" s="3">
         <v>-3468978.0821917807</v>
       </c>
-      <c r="O12" s="3">
-        <v>3035712005.479452</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3393538728.767123</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="T12" s="3">
+        <v>3035712005.4794521</v>
+      </c>
+      <c r="U12" s="3">
+        <v>3393538728.7671232</v>
+      </c>
+      <c r="V12" s="3">
         <v>11544293.15068493</v>
       </c>
-      <c r="R12" s="3">
-        <v>-6302690.410958904</v>
-      </c>
-      <c r="S12" s="3">
-        <v>5241602.739726027</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
+        <v>-6302690.4109589038</v>
+      </c>
+      <c r="X12" s="3">
+        <v>5241602.7397260265</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <v>509858021.91780823</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>-504616419.1780822</v>
-      </c>
-      <c r="Y12" s="3">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>-504616419.17808223</v>
+      </c>
+      <c r="AD12" s="3">
         <v>1679523.2876712326</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AE12" s="3">
         <v>19487.671232876713</v>
       </c>
-      <c r="AA12" s="3">
-        <v>319153.4246575343</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
+      <c r="AF12" s="3">
+        <v>319153.42465753428</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3">
         <v>1063619.1780821919</v>
       </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>-507704364.3835617</v>
-      </c>
-      <c r="AF12" s="3">
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>-507704364.38356167</v>
+      </c>
+      <c r="AK12" s="3">
         <v>1198372.602739726</v>
       </c>
-      <c r="AG12" s="3">
-        <v>-508903235.6164384</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="AL12" s="3">
+        <v>-508903235.61643839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="18.75" customHeight="1">
       <c r="A13" s="5">
         <v>44619</v>
       </c>
@@ -1798,98 +1963,103 @@
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="3">
         <v>3111767945.2054796</v>
       </c>
-      <c r="E13" s="3">
+      <c r="J13" s="3">
         <v>1429972876.7123287</v>
       </c>
-      <c r="F13" s="3">
-        <v>4541740821.917808</v>
-      </c>
-      <c r="G13" s="3">
-        <v>69919561.6438356</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="K13" s="3">
+        <v>4541740821.9178076</v>
+      </c>
+      <c r="L13" s="3">
+        <v>69919561.643835604</v>
+      </c>
+      <c r="M13" s="3">
         <v>300000000</v>
       </c>
-      <c r="I13" s="3">
+      <c r="N13" s="3">
         <v>369919561.6438356</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O13" s="3">
         <v>4177034712.3287673</v>
       </c>
-      <c r="K13" s="3">
+      <c r="P13" s="3">
         <v>100000000</v>
       </c>
-      <c r="L13" s="3">
-        <v>4990893684.931506</v>
-      </c>
-      <c r="M13" s="3">
-        <v>-846050753.4246575</v>
-      </c>
-      <c r="N13" s="3">
-        <v>-5156076.712328767</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="Q13" s="3">
+        <v>4990893684.9315062</v>
+      </c>
+      <c r="R13" s="3">
+        <v>-846050753.42465746</v>
+      </c>
+      <c r="S13" s="3">
+        <v>-5156076.7123287674</v>
+      </c>
+      <c r="T13" s="3">
         <v>4134773980.8219175</v>
       </c>
-      <c r="P13" s="3">
-        <v>4504299449.315068</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="U13" s="3">
+        <v>4504299449.3150682</v>
+      </c>
+      <c r="V13" s="3">
         <v>15186232.87671233</v>
       </c>
-      <c r="R13" s="3">
+      <c r="W13" s="3">
         <v>-7349726.027397261</v>
       </c>
-      <c r="S13" s="3">
-        <v>7836506.849315069</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
+      <c r="X13" s="3">
+        <v>7836506.8493150687</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
         <v>450706054.79452056</v>
       </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
         <v>-442869547.94520545</v>
       </c>
-      <c r="Y13" s="3">
-        <v>579808.2191780821</v>
-      </c>
-      <c r="Z13" s="3">
+      <c r="AD13" s="3">
+        <v>579808.21917808207</v>
+      </c>
+      <c r="AE13" s="3">
         <v>17219.178082191782</v>
       </c>
-      <c r="AA13" s="3">
-        <v>991383.5616438356</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>533547.9452054794</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
+      <c r="AF13" s="3">
+        <v>991383.56164383562</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>533547.94520547939</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
         <v>-446131410.95890415</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AK13" s="3">
         <v>1266931.5068493153</v>
       </c>
-      <c r="AG13" s="3">
-        <v>-447398589.0410959</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="AL13" s="3">
+        <v>-447398589.04109591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="18.75" customHeight="1">
       <c r="A14" s="5">
         <v>44712</v>
       </c>
@@ -1899,98 +2069,111 @@
       <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="19"/>
+      <c r="E14" s="22">
+        <v>-528000000</v>
+      </c>
+      <c r="F14" s="22">
+        <v>-1734000000</v>
+      </c>
+      <c r="G14" s="22">
+        <v>4882000000</v>
+      </c>
+      <c r="H14" s="23">
+        <v>27261000</v>
+      </c>
+      <c r="I14" s="3">
         <v>3771464000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="J14" s="3">
         <v>1893518000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="K14" s="3">
         <v>5664982000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="L14" s="3">
         <v>81750000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="3">
         <v>300000000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="N14" s="3">
         <v>381750000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="O14" s="3">
         <v>5290152000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="3">
         <v>100000000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="Q14" s="3">
         <v>5667383000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="R14" s="3">
         <v>-387231000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="S14" s="3">
         <v>-6919000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="T14" s="3">
         <v>5283232000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="U14" s="3">
         <v>5664982000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="V14" s="3">
         <v>18749000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="W14" s="3">
         <v>-8374000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="X14" s="3">
         <v>10375000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>392840000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-382465000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AD14" s="3">
         <v>-496000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AE14" s="3">
         <v>15000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AF14" s="3">
         <v>1649000</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
         <v>15000</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3">
+      <c r="AI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3">
         <v>-385897000</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AK14" s="3">
         <v>1334000</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AL14" s="3">
         <v>-387231000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:38" ht="18.75" customHeight="1">
       <c r="A15" s="5">
         <v>44804</v>
       </c>
@@ -2000,98 +2183,103 @@
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="3">
         <v>3794692684.9315066</v>
       </c>
-      <c r="E15" s="3">
+      <c r="J15" s="3">
         <v>1912130117.8082192</v>
       </c>
-      <c r="F15" s="3">
-        <v>5706823052.054794</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="K15" s="3">
+        <v>5706823052.0547943</v>
+      </c>
+      <c r="L15" s="3">
         <v>142468441.09589043</v>
       </c>
-      <c r="H15" s="3">
+      <c r="M15" s="3">
         <v>301915736.98630136</v>
       </c>
-      <c r="I15" s="3">
+      <c r="N15" s="3">
         <v>444384427.39726025</v>
       </c>
-      <c r="J15" s="3">
+      <c r="O15" s="3">
         <v>5263929041.09589</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="3">
         <v>100000000</v>
       </c>
-      <c r="L15" s="3">
-        <v>5894264698.630137</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-662773764.3835617</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
+        <v>5894264698.6301374</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-662773764.38356173</v>
+      </c>
+      <c r="S15" s="3">
         <v>-1430254.7945205485</v>
       </c>
-      <c r="O15" s="3">
-        <v>5262210126.027397</v>
-      </c>
-      <c r="P15" s="3">
-        <v>5707282843.835617</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="T15" s="3">
+        <v>5262210126.0273972</v>
+      </c>
+      <c r="U15" s="3">
+        <v>5707282843.8356171</v>
+      </c>
+      <c r="V15" s="3">
         <v>106837747.94520546</v>
       </c>
-      <c r="R15" s="3">
-        <v>-59938090.4109589</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="W15" s="3">
+        <v>-59938090.410958901</v>
+      </c>
+      <c r="X15" s="3">
         <v>46899657.534246564</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>412474808.2191781</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>-365575150.6849316</v>
-      </c>
       <c r="Y15" s="3">
-        <v>-1568054.794520548</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>412474808.21917808</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>-365575150.68493158</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>-1568054.7945205481</v>
+      </c>
+      <c r="AE15" s="3">
         <v>20484.931506849312</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AF15" s="3">
         <v>864156.1643835617</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>71594.5205479452</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>-564896243.8356164</v>
-      </c>
-      <c r="AF15" s="3">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>71594.520547945198</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>-564896243.83561635</v>
+      </c>
+      <c r="AK15" s="3">
         <v>1334747.9452054794</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AL15" s="3">
         <v>-566231241.0958904</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:38" ht="18.75" customHeight="1">
       <c r="A16" s="5">
         <v>44895</v>
       </c>
@@ -2101,98 +2289,103 @@
       <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="3">
         <v>3818176630.1369863</v>
       </c>
-      <c r="E16" s="3">
+      <c r="J16" s="3">
         <v>1930946764.3835616</v>
       </c>
-      <c r="F16" s="3">
-        <v>5749123895.890411</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="K16" s="3">
+        <v>5749123895.8904114</v>
+      </c>
+      <c r="L16" s="3">
         <v>203854117.80821916</v>
       </c>
-      <c r="H16" s="3">
-        <v>303852526.0273973</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="M16" s="3">
+        <v>303852526.02739727</v>
+      </c>
+      <c r="N16" s="3">
         <v>507707145.20547944</v>
       </c>
-      <c r="J16" s="3">
+      <c r="O16" s="3">
         <v>5237417917.808219</v>
       </c>
-      <c r="K16" s="3">
+      <c r="P16" s="3">
         <v>100000000</v>
       </c>
-      <c r="L16" s="3">
-        <v>6123639602.739726</v>
-      </c>
-      <c r="M16" s="3">
-        <v>-941344471.2328768</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="Q16" s="3">
+        <v>6123639602.7397261</v>
+      </c>
+      <c r="R16" s="3">
+        <v>-941344471.23287678</v>
+      </c>
+      <c r="S16" s="3">
         <v>3998830.1369863003</v>
       </c>
-      <c r="O16" s="3">
-        <v>5241416750.684932</v>
-      </c>
-      <c r="P16" s="3">
-        <v>5749123895.890411</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="T16" s="3">
+        <v>5241416750.6849318</v>
+      </c>
+      <c r="U16" s="3">
+        <v>5749123895.8904114</v>
+      </c>
+      <c r="V16" s="3">
         <v>195894504.10958904</v>
       </c>
-      <c r="R16" s="3">
+      <c r="W16" s="3">
         <v>-112068819.17808218</v>
       </c>
-      <c r="S16" s="3">
-        <v>83825684.93150684</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
+      <c r="X16" s="3">
+        <v>83825684.931506842</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
         <v>432325383.56164384</v>
       </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <v>-348499698.630137</v>
-      </c>
-      <c r="Y16" s="3">
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>-348499698.63013703</v>
+      </c>
+      <c r="AD16" s="3">
         <v>-2651890.4109589043</v>
       </c>
-      <c r="Z16" s="3">
-        <v>26030.13698630137</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>70687.67123287672</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="3">
+      <c r="AE16" s="3">
+        <v>26030.136986301372</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>70687.671232876717</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
         <v>128810.95890410959</v>
       </c>
-      <c r="AD16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>-745862512.3287671</v>
-      </c>
-      <c r="AF16" s="3">
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>-745862512.32876706</v>
+      </c>
+      <c r="AK16" s="3">
         <v>1335504.109589041</v>
       </c>
-      <c r="AG16" s="3">
-        <v>-747198517.8082192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="AL16" s="3">
+        <v>-747198517.80821919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="18.75" customHeight="1">
       <c r="A17" s="5">
         <v>44984</v>
       </c>
@@ -2202,98 +2395,103 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
-        <v>3841660575.342466</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="19"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="3">
+        <v>3841660575.3424659</v>
+      </c>
+      <c r="J17" s="3">
         <v>1949763410.958904</v>
       </c>
-      <c r="F17" s="3">
+      <c r="K17" s="3">
         <v>5791424739.7260275</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>265239794.52054796</v>
       </c>
-      <c r="H17" s="3">
-        <v>305789315.0684931</v>
-      </c>
-      <c r="I17" s="3">
-        <v>571029863.0136986</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5210906794.520548</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
+        <v>305789315.06849313</v>
+      </c>
+      <c r="N17" s="3">
+        <v>571029863.01369858</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5210906794.5205479</v>
+      </c>
+      <c r="P17" s="3">
         <v>100000000</v>
       </c>
-      <c r="L17" s="3">
-        <v>6353014506.849315</v>
-      </c>
-      <c r="M17" s="3">
-        <v>-1219915178.082192</v>
-      </c>
-      <c r="N17" s="3">
-        <v>9308594.520547945</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5221080372.60274</v>
-      </c>
-      <c r="P17" s="3">
-        <v>5790045364.383562</v>
-      </c>
       <c r="Q17" s="3">
-        <v>284951260.2739726</v>
+        <v>6353014506.8493147</v>
       </c>
       <c r="R17" s="3">
+        <v>-1219915178.0821919</v>
+      </c>
+      <c r="S17" s="3">
+        <v>9308594.5205479451</v>
+      </c>
+      <c r="T17" s="3">
+        <v>5221080372.6027403</v>
+      </c>
+      <c r="U17" s="3">
+        <v>5790045364.3835621</v>
+      </c>
+      <c r="V17" s="3">
+        <v>284951260.27397257</v>
+      </c>
+      <c r="W17" s="3">
         <v>-164199547.94520548</v>
       </c>
-      <c r="S17" s="3">
-        <v>120751712.3287671</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
+        <v>120751712.32876711</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>452175958.9041096</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>-331424246.5753425</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>-331424246.57534248</v>
+      </c>
+      <c r="AD17" s="3">
         <v>-3735726.0273972605</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AE17" s="3">
         <v>31575.342465753427</v>
       </c>
-      <c r="AA17" s="3">
-        <v>-722780.8219178083</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AF17" s="3">
+        <v>-722780.82191780827</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
         <v>186027.39726027398</v>
       </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>-926828780.8219178</v>
-      </c>
-      <c r="AF17" s="3">
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>-926828780.82191777</v>
+      </c>
+      <c r="AK17" s="3">
         <v>1336260.2739726028</v>
       </c>
-      <c r="AG17" s="3">
-        <v>-928165794.520548</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="AL17" s="3">
+        <v>-928165794.52054799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="18.75" customHeight="1">
       <c r="A18" s="5">
         <v>45077</v>
       </c>
@@ -2303,98 +2501,111 @@
       <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="19"/>
+      <c r="E18" s="21">
+        <v>-150000000</v>
+      </c>
+      <c r="F18" s="24">
+        <v>-897000000</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1000000000</v>
+      </c>
+      <c r="H18" s="23">
+        <v>67789000</v>
+      </c>
+      <c r="I18" s="3">
         <v>3864634000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="J18" s="3">
         <v>1968171000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="K18" s="3">
         <v>5832806000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
         <v>325291000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>307684000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>632976000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>5184972000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>100000000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="3">
         <v>6577403000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="R18" s="3">
         <v>-1492430000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="S18" s="3">
         <v>14857000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>5199830000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="U18" s="3">
         <v>5832806000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="V18" s="3">
         <v>372072000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="W18" s="3">
         <v>-215197000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="X18" s="3">
         <v>156875000</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>471595000</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-314720000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AD18" s="3">
         <v>-4796000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AE18" s="3">
         <v>37000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AF18" s="3">
         <v>-1499000</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3">
         <v>242000</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="3">
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
         <v>-1103861000</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AK18" s="3">
         <v>1337000</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AL18" s="3">
         <v>-1105199000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:38" ht="18.75" customHeight="1">
       <c r="A19" s="5">
         <v>45169</v>
       </c>
@@ -2404,50 +2615,50 @@
       <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="19"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="3">
         <v>3031637846.9945354</v>
       </c>
-      <c r="E19" s="3">
-        <v>2974348857.923497</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6039474699.453552</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="J19" s="3">
+        <v>2974348857.9234972</v>
+      </c>
+      <c r="K19" s="3">
+        <v>6039474699.4535522</v>
+      </c>
+      <c r="L19" s="3">
         <v>470637426.22950816</v>
       </c>
-      <c r="H19" s="3">
-        <v>456173508.1967213</v>
-      </c>
-      <c r="I19" s="3">
-        <v>926811934.4262295</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5102310251.36612</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="M19" s="3">
+        <v>456173508.19672132</v>
+      </c>
+      <c r="N19" s="3">
+        <v>926811934.42622948</v>
+      </c>
+      <c r="O19" s="3">
+        <v>5102310251.3661203</v>
+      </c>
+      <c r="P19" s="3">
         <v>100000000</v>
       </c>
-      <c r="L19" s="3">
-        <v>5827109819.672131</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="Q19" s="3">
+        <v>5827109819.6721306</v>
+      </c>
+      <c r="R19" s="3">
         <v>-824799071.0382514</v>
       </c>
-      <c r="N19" s="3">
+      <c r="S19" s="3">
         <v>2970994464.4808745</v>
       </c>
-      <c r="O19" s="3">
-        <v>5112662765.027323</v>
-      </c>
-      <c r="P19" s="3">
-        <v>6039474699.453552</v>
-      </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="T19" s="3">
+        <v>5112662765.0273228</v>
+      </c>
+      <c r="U19" s="3">
+        <v>6039474699.4535522</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2460,8 +2671,13 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+    </row>
+    <row r="20" spans="1:38" ht="18.75" customHeight="1">
       <c r="A20" s="5">
         <v>45260</v>
       </c>
@@ -2471,50 +2687,50 @@
       <c r="C20" s="6">
         <v>2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="19"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="3">
         <v>2207696000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="J20" s="3">
         <v>3969590000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="K20" s="3">
         <v>6243897000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="L20" s="3">
         <v>614404000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>603049000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>1217454000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>5020547000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="3">
         <v>100000000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="3">
         <v>5084972000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>-164425000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="S20" s="3">
         <v>5895000000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
         <v>5026443000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="U20" s="3">
         <v>6243897000</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2527,8 +2743,13 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+    </row>
+    <row r="21" spans="1:38" ht="18.75" customHeight="1">
       <c r="A21" s="5">
         <v>45351</v>
       </c>
@@ -2538,50 +2759,50 @@
       <c r="C21" s="6">
         <v>3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="19"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="3">
         <v>5351940000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="J21" s="3">
         <v>4828566000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="K21" s="3">
         <v>10180507000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="L21" s="3">
         <v>688123000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>610908000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>1299032000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>8856571000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
         <v>1939980000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="Q21" s="3">
         <v>6924953000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="R21" s="3">
         <v>-8361000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="S21" s="3">
         <v>24903000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
         <v>8881475000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="U21" s="3">
         <v>10180507000</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2594,8 +2815,13 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="23.25">
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+    </row>
+    <row r="22" spans="1:38" ht="23.25" customHeight="1">
       <c r="A22" s="5">
         <v>45443</v>
       </c>
@@ -2605,18 +2831,24 @@
       <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="21">
+        <v>707000000</v>
+      </c>
+      <c r="F22" s="22">
+        <v>-3756000000</v>
+      </c>
+      <c r="G22" s="22">
+        <v>5395000000</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -2635,17 +2867,17 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+    </row>
+    <row r="23" spans="1:38" ht="17.25" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
@@ -2670,8 +2902,84 @@
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+    </row>
+    <row r="26" spans="1:38" ht="22">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:38" ht="18">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:38" ht="18">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:38" ht="18">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+    </row>
+    <row r="33" spans="4:8" ht="18">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="4:8" ht="22">
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/financial_data/20240817/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2684B3D-04B6-9D4A-8454-79E6A4CF7336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82815585-8C81-034B-9424-550F95D3B03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7240" yWindow="500" windowWidth="19740" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Quarter</t>
   </si>
@@ -121,9 +134,6 @@
     <t>Net Loss</t>
   </si>
   <si>
-    <t xml:space="preserve">Adjusted EBITDA </t>
-  </si>
-  <si>
     <t>Cash flow from operating activities</t>
   </si>
   <si>
@@ -134,19 +144,32 @@
   </si>
   <si>
     <t>Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Current Profit</t>
+  </si>
+  <si>
+    <t>EBITDA(calculated)</t>
+  </si>
+  <si>
+    <t>EBITDA(Published)</t>
+  </si>
+  <si>
+    <t>EBITDA(same equasion with other companies)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="167" formatCode="&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,26 +190,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="ArialMT"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF141414"/>
-      <name val="ArialMT"/>
     </font>
     <font>
       <sz val="11"/>
@@ -199,24 +206,9 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="MS"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
     </font>
     <font>
       <u/>
@@ -226,13 +218,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF141414"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -253,77 +272,102 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -630,2355 +674,2811 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="20" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="19.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="18.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="16.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="14" customWidth="1"/>
+    <col min="9" max="10" width="15.5" style="14" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="16.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.33203125" style="14" customWidth="1"/>
+    <col min="40" max="40" width="21.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="71.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:42" s="27" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="I1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="J1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AA1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AD1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AF1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AG1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AH1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AI1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AK1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AL1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AM1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AO1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AP1" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A2" s="5">
+    <row r="2" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A2" s="1">
         <v>43616</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15">
         <v>1805078000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="M2" s="15">
         <v>7020000</v>
       </c>
-      <c r="K2" s="3">
+      <c r="N2" s="15">
         <v>1812099000</v>
       </c>
-      <c r="L2" s="3">
+      <c r="O2" s="15">
         <v>37259000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="P2" s="15">
         <v>20000000</v>
       </c>
-      <c r="N2" s="3">
+      <c r="Q2" s="15">
         <v>57259000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="R2" s="15">
         <v>1746053000</v>
       </c>
-      <c r="P2" s="3">
+      <c r="S2" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="T2" s="15">
         <v>2358000000</v>
       </c>
-      <c r="R2" s="3">
+      <c r="U2" s="15">
         <v>-713005000</v>
       </c>
-      <c r="S2" s="3">
+      <c r="V2" s="15">
         <v>9845000</v>
       </c>
-      <c r="T2" s="3">
+      <c r="W2" s="15">
         <v>1754840000</v>
       </c>
-      <c r="U2" s="3">
+      <c r="X2" s="15">
         <v>1812099000</v>
       </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
+      <c r="Y2" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="15">
         <v>595194000</v>
       </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
+      <c r="AE2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="15">
         <v>-595194000</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AG2" s="15">
         <v>2786000</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AH2" s="15">
         <v>66000</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AI2" s="15">
         <v>-1032000</v>
       </c>
-      <c r="AG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3">
+      <c r="AJ2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="15">
         <v>1129000</v>
       </c>
-      <c r="AI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3">
+      <c r="AL2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="20">
         <v>-592244000</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AN2" s="15">
+        <v>-592244000</v>
+      </c>
+      <c r="AO2" s="15">
         <v>1069000</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AP2" s="15">
         <v>-593314000</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A3" s="1">
         <v>43708</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="3">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="15">
         <v>1572117005.4644809</v>
       </c>
-      <c r="J3" s="3">
+      <c r="M3" s="15">
         <v>6169672.1311475411</v>
       </c>
-      <c r="K3" s="3">
+      <c r="N3" s="15">
         <v>1578287428.9617488</v>
       </c>
-      <c r="L3" s="3">
+      <c r="O3" s="15">
         <v>30598098.36065574</v>
       </c>
-      <c r="M3" s="3">
+      <c r="P3" s="15">
         <v>20000000</v>
       </c>
-      <c r="N3" s="3">
+      <c r="Q3" s="15">
         <v>50598098.36065574</v>
       </c>
-      <c r="O3" s="3">
+      <c r="R3" s="15">
         <v>1521086827.8688526</v>
       </c>
-      <c r="P3" s="3">
+      <c r="S3" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="T3" s="15">
         <v>2358000000</v>
       </c>
-      <c r="R3" s="3">
+      <c r="U3" s="15">
         <v>-937707868.85245895</v>
       </c>
-      <c r="S3" s="3">
+      <c r="V3" s="15">
         <v>7370300.5464480873</v>
       </c>
-      <c r="T3" s="3">
+      <c r="W3" s="15">
         <v>1525192918.0327868</v>
       </c>
-      <c r="U3" s="3">
+      <c r="X3" s="15">
         <v>1575718071.0382514</v>
       </c>
-      <c r="V3" s="3">
+      <c r="Y3" s="15">
         <v>540437.15846994531</v>
       </c>
-      <c r="W3" s="3">
+      <c r="Z3" s="15">
         <v>-530382.51366120216</v>
       </c>
-      <c r="X3" s="3">
+      <c r="AA3" s="15">
         <v>10054.644808743169</v>
       </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
+      <c r="AB3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="15">
         <v>671911724.04371583</v>
       </c>
-      <c r="AB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3">
+      <c r="AE3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="15">
         <v>-671911724.04371583</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AG3" s="15">
         <v>2360587.4316939889</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AH3" s="15">
         <v>90117.486338797811</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AI3" s="15">
         <v>-820163.93442622945</v>
       </c>
-      <c r="AG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3">
+      <c r="AJ3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="15">
         <v>854756.83060109289</v>
       </c>
-      <c r="AI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="3">
+      <c r="AL3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="21">
+        <v>-670273573.77049184</v>
+      </c>
+      <c r="AN3" s="15">
         <v>-669425426.22950828</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AO3" s="15">
         <v>1072729.5081967213</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AP3" s="15">
         <v>-670498907.10382509</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A4" s="5">
+    <row r="4" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A4" s="1">
         <v>43799</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="3">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="15">
         <v>1336596000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="M4" s="15">
         <v>5310000</v>
       </c>
-      <c r="K4" s="3">
+      <c r="N4" s="15">
         <v>1341906500</v>
       </c>
-      <c r="L4" s="3">
+      <c r="O4" s="15">
         <v>23864000</v>
       </c>
-      <c r="M4" s="3">
+      <c r="P4" s="15">
         <v>20000000</v>
       </c>
-      <c r="N4" s="3">
+      <c r="Q4" s="15">
         <v>43864000</v>
       </c>
-      <c r="O4" s="3">
+      <c r="R4" s="15">
         <v>1293648500</v>
       </c>
-      <c r="P4" s="3">
+      <c r="S4" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="T4" s="15">
         <v>2358000000</v>
       </c>
-      <c r="R4" s="3">
+      <c r="U4" s="15">
         <v>-1164880000</v>
       </c>
-      <c r="S4" s="3">
+      <c r="V4" s="15">
         <v>4922500</v>
       </c>
-      <c r="T4" s="3">
+      <c r="W4" s="15">
         <v>1298042000</v>
       </c>
-      <c r="U4" s="3">
+      <c r="X4" s="15">
         <v>1341906500</v>
       </c>
-      <c r="V4" s="3">
+      <c r="Y4" s="15">
         <v>1075000</v>
       </c>
-      <c r="W4" s="3">
+      <c r="Z4" s="15">
         <v>-1055000</v>
       </c>
-      <c r="X4" s="3">
+      <c r="AA4" s="15">
         <v>20000</v>
       </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
+      <c r="AB4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="15">
         <v>749472500</v>
       </c>
-      <c r="AB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3">
+      <c r="AE4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15">
         <v>-749472500</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AG4" s="15">
         <v>1930500</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AH4" s="15">
         <v>114500</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AI4" s="15">
         <v>-606000</v>
       </c>
-      <c r="AG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3">
+      <c r="AJ4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="15">
         <v>577500</v>
       </c>
-      <c r="AI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="3">
+      <c r="AL4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="21">
         <v>-747455000</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AN4" s="15">
+        <v>-747455000</v>
+      </c>
+      <c r="AO4" s="15">
         <v>1076500</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AP4" s="15">
         <v>-748532000</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A5" s="5">
+    <row r="5" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A5" s="1">
         <v>43888</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="3">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15">
         <v>1101074994.5355191</v>
       </c>
-      <c r="J5" s="3">
+      <c r="M5" s="15">
         <v>4450327.8688524589</v>
       </c>
-      <c r="K5" s="3">
+      <c r="N5" s="15">
         <v>1105525571.0382512</v>
       </c>
-      <c r="L5" s="3">
+      <c r="O5" s="15">
         <v>17129901.63934426</v>
       </c>
-      <c r="M5" s="3">
+      <c r="P5" s="15">
         <v>20000000</v>
       </c>
-      <c r="N5" s="3">
+      <c r="Q5" s="15">
         <v>37129901.639344268</v>
       </c>
-      <c r="O5" s="3">
+      <c r="R5" s="15">
         <v>1066210172.1311475</v>
       </c>
-      <c r="P5" s="3">
+      <c r="S5" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="T5" s="15">
         <v>2358000000</v>
       </c>
-      <c r="R5" s="3">
+      <c r="U5" s="15">
         <v>-1392052131.147541</v>
       </c>
-      <c r="S5" s="3">
+      <c r="V5" s="15">
         <v>2528497.2677595625</v>
       </c>
-      <c r="T5" s="3">
+      <c r="W5" s="15">
         <v>1075883409.8360655</v>
       </c>
-      <c r="U5" s="3">
+      <c r="X5" s="15">
         <v>1113233644.8087432</v>
       </c>
-      <c r="V5" s="3">
+      <c r="Y5" s="15">
         <v>1597814.2076502731</v>
       </c>
-      <c r="W5" s="3">
+      <c r="Z5" s="15">
         <v>-1568087.4316939891</v>
       </c>
-      <c r="X5" s="3">
+      <c r="AA5" s="15">
         <v>29726.775956284153</v>
       </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
         <v>827033275.95628417</v>
       </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3">
+      <c r="AE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="15">
         <v>-827033275.95628417</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AG5" s="15">
         <v>1500412.5683060111</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AH5" s="15">
         <v>138882.51366120219</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AI5" s="15">
         <v>-391836.06557377049</v>
       </c>
-      <c r="AG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3">
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
         <v>300243.16939890711</v>
       </c>
-      <c r="AI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="3">
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="21">
+        <v>-822940131.14754105</v>
+      </c>
+      <c r="AN5" s="15">
         <v>-825484573.77049184</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AO5" s="15">
         <v>1080270.4918032787</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AP5" s="15">
         <v>-826565092.89617491</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A6" s="5">
+    <row r="6" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A6" s="1">
         <v>43982</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="3">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="15">
         <v>868114000</v>
       </c>
-      <c r="J6" s="3">
+      <c r="M6" s="15">
         <v>3600000</v>
       </c>
-      <c r="K6" s="3">
+      <c r="N6" s="15">
         <v>871714000</v>
       </c>
-      <c r="L6" s="3">
+      <c r="O6" s="15">
         <v>10469000</v>
       </c>
-      <c r="M6" s="3">
+      <c r="P6" s="15">
         <v>20000000</v>
       </c>
-      <c r="N6" s="3">
+      <c r="Q6" s="15">
         <v>30469000</v>
       </c>
-      <c r="O6" s="3">
+      <c r="R6" s="15">
         <v>841244000</v>
       </c>
-      <c r="P6" s="3">
+      <c r="S6" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="T6" s="15">
         <v>2358000000</v>
       </c>
-      <c r="R6" s="3">
+      <c r="U6" s="15">
         <v>-1616755000</v>
       </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
         <v>841244000</v>
       </c>
-      <c r="U6" s="3">
+      <c r="X6" s="15">
         <v>871714000</v>
       </c>
-      <c r="V6" s="3">
+      <c r="Y6" s="15">
         <v>2150000</v>
       </c>
-      <c r="W6" s="3">
+      <c r="Z6" s="15">
         <v>-2110000</v>
       </c>
-      <c r="X6" s="3">
+      <c r="AA6" s="15">
         <v>40000</v>
       </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
         <v>903751000</v>
       </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3">
+      <c r="AE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="15">
         <v>-903751000</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AG6" s="15">
         <v>1075000</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AH6" s="15">
         <v>163000</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AI6" s="15">
         <v>-180000</v>
       </c>
-      <c r="AG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="3">
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
         <v>26000</v>
       </c>
-      <c r="AI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="3">
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="20">
         <v>-902666000</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AN6" s="15">
+        <v>-902666000</v>
+      </c>
+      <c r="AO6" s="15">
         <v>1084000</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AP6" s="15">
         <v>-903750000</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A7" s="5">
+    <row r="7" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A7" s="1">
         <v>44074</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="3">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="15">
         <v>924936893.15068483</v>
       </c>
-      <c r="J7" s="3">
+      <c r="M7" s="15">
         <v>6089410.9589041108</v>
       </c>
-      <c r="K7" s="3">
+      <c r="N7" s="15">
         <v>931026304.1095891</v>
       </c>
-      <c r="L7" s="3">
+      <c r="O7" s="15">
         <v>16278539.726027399</v>
       </c>
-      <c r="M7" s="3">
+      <c r="P7" s="15">
         <v>89808219.178082183</v>
       </c>
-      <c r="N7" s="3">
+      <c r="Q7" s="15">
         <v>106086758.9041096</v>
       </c>
-      <c r="O7" s="3">
+      <c r="R7" s="15">
         <v>824938545.2054795</v>
       </c>
-      <c r="P7" s="3">
+      <c r="S7" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="T7" s="15">
         <v>2499073186.3013697</v>
       </c>
-      <c r="R7" s="3">
+      <c r="U7" s="15">
         <v>-1774133890.4109588</v>
       </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
         <v>824759364.38356161</v>
       </c>
-      <c r="U7" s="3">
+      <c r="X7" s="15">
         <v>931678087.67123294</v>
       </c>
-      <c r="V7" s="3">
+      <c r="Y7" s="15">
         <v>2691917.8082191781</v>
       </c>
-      <c r="W7" s="3">
+      <c r="Z7" s="15">
         <v>-2641835.6164383562</v>
       </c>
-      <c r="X7" s="3">
+      <c r="AA7" s="15">
         <v>50082.191780821922</v>
       </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
         <v>834882200</v>
       </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
+      <c r="AE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="15">
         <v>-834862254.79452062</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AG7" s="15">
         <v>1771087.6712328768</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AH7" s="15">
         <v>128345.20547945207</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AI7" s="15">
         <v>-388926.02739726024</v>
       </c>
-      <c r="AG7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="3">
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
         <v>547567.12328767113</v>
       </c>
-      <c r="AI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="3">
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="21">
+        <v>-833984849.31506848</v>
+      </c>
+      <c r="AN7" s="15">
         <v>-834731383.56164384</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AO7" s="15">
         <v>1078515.0684931506</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AP7" s="15">
         <v>-835810147.94520545</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A8" s="5">
+    <row r="8" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A8" s="1">
         <v>44165</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="3">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="15">
         <v>982384213.69863009</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="15">
         <v>8606178.0821917821</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="15">
         <v>990990391.78082192</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="15">
         <v>22151920.547945205</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="15">
         <v>160383561.64383563</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="15">
         <v>182535482.19178084</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="15">
         <v>808453909.58904111</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="15">
         <v>2641696627.3972602</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="15">
         <v>-1933242219.1780822</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="V8" s="15">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
         <v>808453909.58904111</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="15">
         <v>990990391.78082192</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="15">
         <v>3227945.2054794519</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="15">
         <v>-3167890.4109589038</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="15">
         <v>60054.794520547948</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
         <v>765256600</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="15">
         <v>-765216490.41095889</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AG8" s="15">
         <v>2474824.6575342463</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AH8" s="15">
         <v>93309.589041095896</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AI8" s="15">
         <v>-600147.94520547951</v>
       </c>
-      <c r="AG8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="3">
+      <c r="AJ8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="15">
         <v>1074865.7534246575</v>
       </c>
-      <c r="AI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="3">
+      <c r="AL8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="21">
         <v>-766050232.87671232</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AN8" s="15">
+        <v>-766050232.87671232</v>
+      </c>
+      <c r="AO8" s="15">
         <v>1072969.8630136987</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AP8" s="15">
         <v>-767123704.1095891</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A9" s="1">
         <v>44254</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="3">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="15">
         <v>1039831534.2465754</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="15">
         <v>11122945.205479452</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="15">
         <v>1050954479.4520547</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="15">
         <v>28025301.369863015</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="15">
         <v>230958904.10958907</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="15">
         <v>258984205.47945207</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="15">
         <v>791969273.97260284</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="15">
         <v>2784320068.4931507</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="15">
         <v>-2092350547.9452057</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
         <v>792506816.43835616</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="15">
         <v>1048999128.7671233</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="15">
         <v>3752191.7808219176</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Z9" s="15">
         <v>-3682383.5616438356</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="15">
         <v>69808.219178082189</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
         <v>695631000</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="15">
         <v>-695570726.02739716</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AG9" s="15">
         <v>3178561.6438356163</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AH9" s="15">
         <v>58273.972602739726</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AI9" s="15">
         <v>-811369.8630136986</v>
       </c>
-      <c r="AG9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="3">
+      <c r="AJ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="15">
         <v>1602164.3835616438</v>
       </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="3">
+      <c r="AL9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="21">
+        <v>-699608684.93150687</v>
+      </c>
+      <c r="AN9" s="15">
         <v>-697369082.19178081</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AO9" s="15">
         <v>1067424.6575342466</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AP9" s="15">
         <v>-698437260.27397263</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A10" s="1">
         <v>44347</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="21">
+      <c r="D10" s="33">
+        <v>-615481000</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="20">
+        <v>-618223000</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22">
         <v>12976000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="15">
         <v>1096030000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="15">
         <v>13585000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="15">
         <v>1109615000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="15">
         <v>33771000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="15">
         <v>300000000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="15">
         <v>333771000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="15">
         <v>775843000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="15">
         <v>2923843000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="15">
         <v>-2248000000</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
         <v>775843000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="15">
         <v>1109615000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="15">
         <v>4300000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="15">
         <v>-4220000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA10" s="15">
         <v>80000</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
         <v>627519000</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="15">
         <v>-627439000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AG10" s="15">
         <v>3867000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AH10" s="15">
         <v>24000</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AI10" s="15">
         <v>-1018000</v>
       </c>
-      <c r="AG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
+      <c r="AJ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="15">
         <v>2118000</v>
       </c>
-      <c r="AI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3">
+      <c r="AL10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="7">
         <v>-630181000</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AN10" s="15">
+        <v>-630181000</v>
+      </c>
+      <c r="AO10" s="15">
         <v>1062000</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AP10" s="15">
         <v>-631244000</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A11" s="5">
+    <row r="11" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A11" s="1">
         <v>44439</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="3">
+      <c r="D11" s="33">
+        <v>-550139764.38356161</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="20">
+        <v>-552384520.54794514</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23">
+        <v>16576602.739726027</v>
+      </c>
+      <c r="L11" s="15">
         <v>1763056010.9589045</v>
       </c>
-      <c r="J11" s="3">
+      <c r="M11" s="15">
         <v>482280624.6575343</v>
       </c>
-      <c r="K11" s="3">
+      <c r="N11" s="15">
         <v>2245336635.6164384</v>
       </c>
-      <c r="L11" s="3">
+      <c r="O11" s="15">
         <v>45732887.671232879</v>
       </c>
-      <c r="M11" s="3">
+      <c r="P11" s="15">
         <v>300000000</v>
       </c>
-      <c r="N11" s="3">
+      <c r="Q11" s="15">
         <v>345732887.67123288</v>
       </c>
-      <c r="O11" s="3">
+      <c r="R11" s="15">
         <v>1901328257.5342464</v>
       </c>
-      <c r="P11" s="3">
+      <c r="S11" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="T11" s="15">
         <v>3607848863.0136986</v>
       </c>
-      <c r="R11" s="3">
+      <c r="U11" s="15">
         <v>-1784082249.3150685</v>
       </c>
-      <c r="S11" s="3">
+      <c r="V11" s="15">
         <v>-1743967.1232876712</v>
       </c>
-      <c r="T11" s="3">
+      <c r="W11" s="15">
         <v>1911952008.2191782</v>
       </c>
-      <c r="U11" s="3">
+      <c r="X11" s="15">
         <v>2257817093.1506848</v>
       </c>
-      <c r="V11" s="3">
+      <c r="Y11" s="15">
         <v>7902353.4246575348</v>
       </c>
-      <c r="W11" s="3">
+      <c r="Z11" s="15">
         <v>-5255654.7945205476</v>
       </c>
-      <c r="X11" s="3">
+      <c r="AA11" s="15">
         <v>2646698.6301369863</v>
       </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
         <v>569009989.04109585</v>
       </c>
-      <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="3">
+      <c r="AE11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="15">
         <v>-566363290.41095889</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AG11" s="15">
         <v>2779238.3561643832</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AH11" s="15">
         <v>21756.164383561645</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AI11" s="15">
         <v>-353076.71232876717</v>
       </c>
-      <c r="AG11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="3">
+      <c r="AJ11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="15">
         <v>1593690.4109589041</v>
       </c>
-      <c r="AI11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="3">
+      <c r="AL11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="21">
+        <v>-568608046.57534242</v>
+      </c>
+      <c r="AN11" s="15">
         <v>-569277317.80821919</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AO11" s="15">
         <v>1129813.6986301369</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AP11" s="15">
         <v>-570407882.19178081</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A12" s="1">
         <v>44530</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="3">
+      <c r="D12" s="33">
+        <v>-484159197.26027399</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20">
+        <v>-487247142.46575338</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23">
+        <v>20138068.493150685</v>
+      </c>
+      <c r="L12" s="15">
         <v>2437411978.0821919</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="15">
         <v>956126750.68493152</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="15">
         <v>3393538728.7671232</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="15">
         <v>57826224.657534242</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="15">
         <v>300000000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="15">
         <v>357826224.6575343</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="15">
         <v>3039181484.9315066</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="T12" s="15">
         <v>4299371273.9726028</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="15">
         <v>-1315066501.369863</v>
       </c>
-      <c r="S12" s="3">
+      <c r="V12" s="15">
         <v>-3468978.0821917807</v>
       </c>
-      <c r="T12" s="3">
+      <c r="W12" s="15">
         <v>3035712005.4794521</v>
       </c>
-      <c r="U12" s="3">
+      <c r="X12" s="15">
         <v>3393538728.7671232</v>
       </c>
-      <c r="V12" s="3">
+      <c r="Y12" s="15">
         <v>11544293.15068493</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Z12" s="15">
         <v>-6302690.4109589038</v>
       </c>
-      <c r="X12" s="3">
+      <c r="AA12" s="15">
         <v>5241602.7397260265</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
         <v>509858021.91780823</v>
       </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="15">
         <v>-504616419.17808223</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AG12" s="15">
         <v>1679523.2876712326</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AH12" s="15">
         <v>19487.671232876713</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AI12" s="15">
         <v>319153.42465753428</v>
       </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="3">
+      <c r="AJ12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="15">
         <v>1063619.1780821919</v>
       </c>
-      <c r="AI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3">
+      <c r="AL12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="21">
+        <v>-507704364.38356161</v>
+      </c>
+      <c r="AN12" s="15">
         <v>-507704364.38356167</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AO12" s="15">
         <v>1198372.602739726</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AP12" s="15">
         <v>-508903235.61643839</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A13" s="1">
         <v>44619</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="3">
+      <c r="D13" s="33">
+        <v>-418256904.10958898</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="20">
+        <v>-423526580.82191777</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23">
+        <v>23621260.273972601</v>
+      </c>
+      <c r="L13" s="15">
         <v>3111767945.2054796</v>
       </c>
-      <c r="J13" s="3">
+      <c r="M13" s="15">
         <v>1429972876.7123287</v>
       </c>
-      <c r="K13" s="3">
+      <c r="N13" s="15">
         <v>4541740821.9178076</v>
       </c>
-      <c r="L13" s="3">
+      <c r="O13" s="15">
         <v>69919561.643835604</v>
       </c>
-      <c r="M13" s="3">
+      <c r="P13" s="15">
         <v>300000000</v>
       </c>
-      <c r="N13" s="3">
+      <c r="Q13" s="15">
         <v>369919561.6438356</v>
       </c>
-      <c r="O13" s="3">
+      <c r="R13" s="15">
         <v>4177034712.3287673</v>
       </c>
-      <c r="P13" s="3">
+      <c r="S13" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="T13" s="15">
         <v>4990893684.9315062</v>
       </c>
-      <c r="R13" s="3">
+      <c r="U13" s="15">
         <v>-846050753.42465746</v>
       </c>
-      <c r="S13" s="3">
+      <c r="V13" s="15">
         <v>-5156076.7123287674</v>
       </c>
-      <c r="T13" s="3">
+      <c r="W13" s="15">
         <v>4134773980.8219175</v>
       </c>
-      <c r="U13" s="3">
+      <c r="X13" s="15">
         <v>4504299449.3150682</v>
       </c>
-      <c r="V13" s="3">
+      <c r="Y13" s="15">
         <v>15186232.87671233</v>
       </c>
-      <c r="W13" s="3">
+      <c r="Z13" s="15">
         <v>-7349726.027397261</v>
       </c>
-      <c r="X13" s="3">
+      <c r="AA13" s="15">
         <v>7836506.8493150687</v>
       </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
+      <c r="AB13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="15">
         <v>450706054.79452056</v>
       </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
+      <c r="AE13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="15">
         <v>-442869547.94520545</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AG13" s="15">
         <v>579808.21917808207</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AH13" s="15">
         <v>17219.178082191782</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AI13" s="15">
         <v>991383.56164383562</v>
       </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="3">
+      <c r="AJ13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="15">
         <v>533547.94520547939</v>
       </c>
-      <c r="AI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="3">
+      <c r="AL13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="21">
+        <v>-448139224.65753424</v>
+      </c>
+      <c r="AN13" s="15">
         <v>-446131410.95890415</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AO13" s="15">
         <v>1266931.5068493153</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AP13" s="15">
         <v>-447398589.04109591</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A14" s="1">
         <v>44712</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22">
+      <c r="D14" s="33">
+        <v>-353555000</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="20">
+        <v>-356987000</v>
+      </c>
+      <c r="G14" s="9">
         <v>-528000000</v>
       </c>
-      <c r="F14" s="22">
+      <c r="H14" s="9">
         <v>-1734000000</v>
       </c>
-      <c r="G14" s="22">
+      <c r="I14" s="9">
         <v>4882000000</v>
       </c>
-      <c r="H14" s="23">
+      <c r="J14" s="9"/>
+      <c r="K14" s="10">
         <v>27261000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="15">
         <v>3771464000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="15">
         <v>1893518000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="15">
         <v>5664982000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="15">
         <v>81750000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="15">
         <v>300000000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="15">
         <v>381750000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="15">
         <v>5290152000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="T14" s="15">
         <v>5667383000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="15">
         <v>-387231000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="V14" s="15">
         <v>-6919000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="W14" s="15">
         <v>5283232000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="X14" s="15">
         <v>5664982000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="Y14" s="15">
         <v>18749000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Z14" s="15">
         <v>-8374000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="AA14" s="15">
         <v>10375000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="15">
         <v>392840000</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="15">
         <v>-382465000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AG14" s="15">
         <v>-496000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AH14" s="15">
         <v>15000</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AI14" s="15">
         <v>1649000</v>
       </c>
-      <c r="AG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="3">
+      <c r="AJ14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="15">
         <v>15000</v>
       </c>
-      <c r="AI14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="3">
+      <c r="AL14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="20">
         <v>-385897000</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AN14" s="15">
+        <v>-385897000</v>
+      </c>
+      <c r="AO14" s="15">
         <v>1334000</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AP14" s="15">
         <v>-387231000</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A15" s="1">
         <v>44804</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="3">
+      <c r="D15" s="33">
+        <v>-332604997.26027399</v>
+      </c>
+      <c r="E15" s="23">
+        <v>-69315068.493150681</v>
+      </c>
+      <c r="F15" s="20">
+        <v>-337306254.7945205</v>
+      </c>
+      <c r="G15" s="23">
+        <v>-432723287.67123288</v>
+      </c>
+      <c r="H15" s="23">
+        <v>-1523030136.9863014</v>
+      </c>
+      <c r="I15" s="23">
+        <v>3903523287.6712327</v>
+      </c>
+      <c r="J15" s="23">
+        <v>11716263.013698628</v>
+      </c>
+      <c r="K15" s="23">
+        <v>32105997.260273974</v>
+      </c>
+      <c r="L15" s="15">
         <v>3794692684.9315066</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="15">
         <v>1912130117.8082192</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="15">
         <v>5706823052.0547943</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="15">
         <v>142468441.09589043</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="15">
         <v>301915736.98630136</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="15">
         <v>444384427.39726025</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="15">
         <v>5263929041.09589</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="T15" s="15">
         <v>5894264698.6301374</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="15">
         <v>-662773764.38356173</v>
       </c>
-      <c r="S15" s="3">
+      <c r="V15" s="15">
         <v>-1430254.7945205485</v>
       </c>
-      <c r="T15" s="3">
+      <c r="W15" s="15">
         <v>5262210126.0273972</v>
       </c>
-      <c r="U15" s="3">
+      <c r="X15" s="15">
         <v>5707282843.8356171</v>
       </c>
-      <c r="V15" s="3">
+      <c r="Y15" s="15">
         <v>106837747.94520546</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Z15" s="15">
         <v>-59938090.410958901</v>
       </c>
-      <c r="X15" s="3">
+      <c r="AA15" s="15">
         <v>46899657.534246564</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="15">
         <v>412474808.21917808</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="15">
         <v>-365575150.68493158</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AG15" s="15">
         <v>-1568054.7945205481</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AH15" s="15">
         <v>20484.931506849312</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AI15" s="15">
         <v>864156.1643835617</v>
       </c>
-      <c r="AG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="3">
+      <c r="AJ15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="15">
         <v>71594.520547945198</v>
       </c>
-      <c r="AI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="3">
+      <c r="AL15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="21">
+        <v>-370276408.21917808</v>
+      </c>
+      <c r="AN15" s="15">
         <v>-564896243.83561635</v>
       </c>
-      <c r="AK15" s="3">
+      <c r="AO15" s="15">
         <v>1334747.9452054794</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AP15" s="15">
         <v>-566231241.0958904</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A16" s="5">
+    <row r="16" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A16" s="1">
         <v>44895</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="3">
+      <c r="D16" s="33">
+        <v>-311530679.45205486</v>
+      </c>
+      <c r="E16" s="23">
+        <v>-137876712.32876712</v>
+      </c>
+      <c r="F16" s="20">
+        <v>-317856586.30136991</v>
+      </c>
+      <c r="G16" s="23">
+        <v>-338482191.78082192</v>
+      </c>
+      <c r="H16" s="23">
+        <v>-1314353424.6575341</v>
+      </c>
+      <c r="I16" s="23">
+        <v>2935682191.7808218</v>
+      </c>
+      <c r="J16" s="23">
+        <v>23305175.342465751</v>
+      </c>
+      <c r="K16" s="23">
+        <v>36898331.506849319</v>
+      </c>
+      <c r="L16" s="15">
         <v>3818176630.1369863</v>
       </c>
-      <c r="J16" s="3">
+      <c r="M16" s="15">
         <v>1930946764.3835616</v>
       </c>
-      <c r="K16" s="3">
+      <c r="N16" s="15">
         <v>5749123895.8904114</v>
       </c>
-      <c r="L16" s="3">
+      <c r="O16" s="15">
         <v>203854117.80821916</v>
       </c>
-      <c r="M16" s="3">
+      <c r="P16" s="15">
         <v>303852526.02739727</v>
       </c>
-      <c r="N16" s="3">
+      <c r="Q16" s="15">
         <v>507707145.20547944</v>
       </c>
-      <c r="O16" s="3">
+      <c r="R16" s="15">
         <v>5237417917.808219</v>
       </c>
-      <c r="P16" s="3">
+      <c r="S16" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="T16" s="15">
         <v>6123639602.7397261</v>
       </c>
-      <c r="R16" s="3">
+      <c r="U16" s="15">
         <v>-941344471.23287678</v>
       </c>
-      <c r="S16" s="3">
+      <c r="V16" s="15">
         <v>3998830.1369863003</v>
       </c>
-      <c r="T16" s="3">
+      <c r="W16" s="15">
         <v>5241416750.6849318</v>
       </c>
-      <c r="U16" s="3">
+      <c r="X16" s="15">
         <v>5749123895.8904114</v>
       </c>
-      <c r="V16" s="3">
+      <c r="Y16" s="15">
         <v>195894504.10958904</v>
       </c>
-      <c r="W16" s="3">
+      <c r="Z16" s="15">
         <v>-112068819.17808218</v>
       </c>
-      <c r="X16" s="3">
+      <c r="AA16" s="15">
         <v>83825684.931506842</v>
       </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
+      <c r="AB16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="15">
         <v>432325383.56164384</v>
       </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="3">
+      <c r="AE16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="15">
         <v>-348499698.63013703</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AG16" s="15">
         <v>-2651890.4109589043</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AH16" s="15">
         <v>26030.136986301372</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AI16" s="15">
         <v>70687.671232876717</v>
       </c>
-      <c r="AG16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3">
+      <c r="AJ16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="15">
         <v>128810.95890410959</v>
       </c>
-      <c r="AI16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="3">
+      <c r="AL16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="21">
+        <v>-354825605.47945207</v>
+      </c>
+      <c r="AN16" s="15">
         <v>-745862512.32876706</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AO16" s="15">
         <v>1335504.109589041</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AP16" s="15">
         <v>-747198517.80821919</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A17" s="5">
+    <row r="17" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A17" s="1">
         <v>44984</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="3">
+      <c r="D17" s="33">
+        <v>-290561687.67123294</v>
+      </c>
+      <c r="E17" s="23">
+        <v>-204931506.84931505</v>
+      </c>
+      <c r="F17" s="20">
+        <v>-298851821.91780829</v>
+      </c>
+      <c r="G17" s="23">
+        <v>-246312328.76712328</v>
+      </c>
+      <c r="H17" s="23">
+        <v>-1110263013.6986301</v>
+      </c>
+      <c r="I17" s="23">
+        <v>1989112328.7671232</v>
+      </c>
+      <c r="J17" s="23">
+        <v>34639386.301369861</v>
+      </c>
+      <c r="K17" s="23">
+        <v>41585339.726027399</v>
+      </c>
+      <c r="L17" s="15">
         <v>3841660575.3424659</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="15">
         <v>1949763410.958904</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="15">
         <v>5791424739.7260275</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="15">
         <v>265239794.52054796</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="15">
         <v>305789315.06849313</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="15">
         <v>571029863.01369858</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="15">
         <v>5210906794.5205479</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="15">
         <v>6353014506.8493147</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="15">
         <v>-1219915178.0821919</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="15">
         <v>9308594.5205479451</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="15">
         <v>5221080372.6027403</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="15">
         <v>5790045364.3835621</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="15">
         <v>284951260.27397257</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="15">
         <v>-164199547.94520548</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="15">
         <v>120751712.32876711</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="15">
         <v>452175958.9041096</v>
       </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="15">
         <v>-331424246.57534248</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AG17" s="15">
         <v>-3735726.0273972605</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AH17" s="15">
         <v>31575.342465753427</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AI17" s="15">
         <v>-722780.82191780827</v>
       </c>
-      <c r="AG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="3">
+      <c r="AJ17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="15">
         <v>186027.39726027398</v>
       </c>
-      <c r="AI17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="3">
+      <c r="AL17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="21">
+        <v>-339714380.82191783</v>
+      </c>
+      <c r="AN17" s="15">
         <v>-926828780.82191777</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AO17" s="15">
         <v>1336260.2739726028</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AP17" s="15">
         <v>-928165794.52054799</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A18" s="5">
+    <row r="18" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A18" s="1">
         <v>45077</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="21">
+      <c r="D18" s="33">
+        <v>-269736000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>-275000000</v>
+      </c>
+      <c r="F18" s="20">
+        <v>-278940000</v>
+      </c>
+      <c r="G18" s="22">
         <v>-150000000</v>
       </c>
-      <c r="F18" s="24">
+      <c r="H18" s="24">
         <v>-897000000</v>
       </c>
-      <c r="G18" s="21">
+      <c r="I18" s="22">
         <v>1000000000</v>
       </c>
-      <c r="H18" s="23">
-        <v>67789000</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="10">
+        <v>46483000</v>
+      </c>
+      <c r="K18" s="10">
+        <v>46483000</v>
+      </c>
+      <c r="L18" s="15">
         <v>3864634000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="15">
         <v>1968171000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="15">
         <v>5832806000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="15">
         <v>325291000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="15">
         <v>307684000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="15">
         <v>632976000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="15">
         <v>5184972000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="15">
         <v>100000000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="15">
         <v>6577403000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="15">
         <v>-1492430000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="15">
         <v>14857000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="15">
         <v>5199830000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="15">
         <v>5832806000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="15">
         <v>372072000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="15">
         <v>-215197000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="15">
         <v>156875000</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="15">
         <v>471595000</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="15">
         <v>-314720000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AG18" s="15">
         <v>-4796000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AH18" s="15">
         <v>37000</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AI18" s="15">
         <v>-1499000</v>
       </c>
-      <c r="AG18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="3">
+      <c r="AJ18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="18">
         <v>242000</v>
       </c>
-      <c r="AI18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="3">
+      <c r="AL18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>-323924000</v>
+      </c>
+      <c r="AN18" s="15">
         <v>-1103861000</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AO18" s="15">
         <v>1337000</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AP18" s="15">
         <v>-1105199000</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A19" s="5">
+    <row r="19" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A19" s="1">
         <v>45169</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="3">
-        <v>3031637846.9945354</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2974348857.9234972</v>
-      </c>
-      <c r="K19" s="3">
-        <v>6039474699.4535522</v>
-      </c>
-      <c r="L19" s="3">
-        <v>470637426.22950816</v>
-      </c>
-      <c r="M19" s="3">
-        <v>456173508.19672132</v>
-      </c>
-      <c r="N19" s="3">
-        <v>926811934.42622948</v>
-      </c>
-      <c r="O19" s="3">
-        <v>5102310251.3661203</v>
-      </c>
-      <c r="P19" s="3">
-        <v>100000000</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>5827109819.6721306</v>
-      </c>
-      <c r="R19" s="3">
-        <v>-824799071.0382514</v>
-      </c>
-      <c r="S19" s="3">
-        <v>2970994464.4808745</v>
-      </c>
-      <c r="T19" s="3">
-        <v>5112662765.0273228</v>
-      </c>
-      <c r="U19" s="3">
-        <v>6039474699.4535522</v>
-      </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
+      <c r="D19" s="33">
+        <v>-61195879.781420738</v>
+      </c>
+      <c r="E19" s="23">
+        <v>-98792349.726775944</v>
+      </c>
+      <c r="F19" s="20">
+        <v>-101610754.09836063</v>
+      </c>
+      <c r="G19" s="23">
+        <v>65420765.027322412</v>
+      </c>
+      <c r="H19" s="23">
+        <v>-1615655737.7049179</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2104754098.3606558</v>
+      </c>
+      <c r="J19" s="23">
+        <v>87068322.404371589</v>
+      </c>
+      <c r="K19" s="23">
+        <v>87068322.404371589</v>
+      </c>
+      <c r="L19" s="11">
+        <v>4856692120.2185793</v>
+      </c>
+      <c r="M19" s="11">
+        <v>2715698650.2732239</v>
+      </c>
+      <c r="N19" s="11">
+        <v>7589593256.8306007</v>
+      </c>
+      <c r="O19" s="11">
+        <v>817608639.34426236</v>
+      </c>
+      <c r="P19" s="11">
+        <v>758211519.12568307</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>1575820907.1038251</v>
+      </c>
+      <c r="R19" s="11">
+        <v>6002648896.1748638</v>
+      </c>
+      <c r="S19" s="11">
+        <v>562508633.87978148</v>
+      </c>
+      <c r="T19" s="11">
+        <v>6664765295.0819674</v>
+      </c>
+      <c r="U19" s="11">
+        <v>-1224624032.7868853</v>
+      </c>
+      <c r="V19" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W19" s="11">
+        <v>6013772098.3606558</v>
+      </c>
+      <c r="X19" s="11">
+        <v>7589593256.8306007</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>694295967.21311474</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>15728781.420765013</v>
+      </c>
+      <c r="AA19" s="11">
+        <v>356359655.73770493</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>506189513.66120219</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>-149829857.92349726</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>2197256.8306010934</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>37251.366120218576</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>1565655.7377049183</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>40148382.513661198</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="21">
+        <v>-190244732.24043715</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>-826481913.96721315</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>14170245.901639344</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>-934729786.88524592</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A20" s="5">
+    <row r="20" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A20" s="1">
         <v>45260</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="3">
-        <v>2207696000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3969590000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>6243897000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>614404000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>603049000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1217454000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>5020547000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100000000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>5084972000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-164425000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>5895000000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>5026443000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>6243897000</v>
-      </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
+      <c r="D20" s="33">
+        <v>145077500</v>
+      </c>
+      <c r="E20" s="23">
+        <v>75500000</v>
+      </c>
+      <c r="F20" s="20">
+        <v>73791000</v>
+      </c>
+      <c r="G20" s="23">
+        <v>278500000</v>
+      </c>
+      <c r="H20" s="23">
+        <v>-2326500000</v>
+      </c>
+      <c r="I20" s="23">
+        <v>3197500000</v>
+      </c>
+      <c r="J20" s="23">
+        <v>127212500</v>
+      </c>
+      <c r="K20" s="23">
+        <v>127212500</v>
+      </c>
+      <c r="L20" s="11">
+        <v>5837967000</v>
+      </c>
+      <c r="M20" s="11">
+        <v>3455101000</v>
+      </c>
+      <c r="N20" s="11">
+        <v>9327285000</v>
+      </c>
+      <c r="O20" s="11">
+        <v>1304575000</v>
+      </c>
+      <c r="P20" s="11">
+        <v>1203842000</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>2508417500</v>
+      </c>
+      <c r="R20" s="11">
+        <v>6811438000</v>
+      </c>
+      <c r="S20" s="11">
+        <v>1019990000</v>
+      </c>
+      <c r="T20" s="11">
+        <v>6751178000</v>
+      </c>
+      <c r="U20" s="11">
+        <v>-959729000</v>
+      </c>
+      <c r="V20" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W20" s="11">
+        <v>6818867000</v>
+      </c>
+      <c r="X20" s="11">
+        <v>9327285000</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>1013017500</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>244144500</v>
+      </c>
+      <c r="AA20" s="11">
+        <v>553676000</v>
+      </c>
+      <c r="AB20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>540408000</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="11">
+        <v>13268000</v>
+      </c>
+      <c r="AG20" s="11">
+        <v>9114500</v>
+      </c>
+      <c r="AH20" s="11">
+        <v>37500</v>
+      </c>
+      <c r="AI20" s="11">
+        <v>4597000</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>79621000</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="21">
+        <v>-58018500</v>
+      </c>
+      <c r="AN20" s="11">
+        <v>-552117818</v>
+      </c>
+      <c r="AO20" s="11">
+        <v>26864000</v>
+      </c>
+      <c r="AP20" s="11">
+        <v>-766113500</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" ht="18.75" customHeight="1">
-      <c r="A21" s="5">
+    <row r="21" spans="1:42" ht="18.75" customHeight="1">
+      <c r="A21" s="1">
         <v>45351</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="3">
-        <v>5351940000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4828566000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>10180507000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>688123000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>610908000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1299032000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>8856571000</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="D21" s="33">
+        <v>351350879.78142071</v>
+      </c>
+      <c r="E21" s="23">
+        <v>249792349.72677597</v>
+      </c>
+      <c r="F21" s="20">
+        <v>249192754.09836066</v>
+      </c>
+      <c r="G21" s="23">
+        <v>491579234.97267759</v>
+      </c>
+      <c r="H21" s="23">
+        <v>-3037344262.2950821</v>
+      </c>
+      <c r="I21" s="23">
+        <v>4290245901.6393442</v>
+      </c>
+      <c r="J21" s="23">
+        <v>167356677.59562841</v>
+      </c>
+      <c r="K21" s="23">
+        <v>167356677.59562841</v>
+      </c>
+      <c r="L21" s="11">
+        <v>6819241879.7814207</v>
+      </c>
+      <c r="M21" s="11">
+        <v>4194503349.7267761</v>
+      </c>
+      <c r="N21" s="11">
+        <v>11064976743.169399</v>
+      </c>
+      <c r="O21" s="11">
+        <v>1791541360.6557379</v>
+      </c>
+      <c r="P21" s="11">
+        <v>1649472480.8743169</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>3441014092.8961749</v>
+      </c>
+      <c r="R21" s="11">
+        <v>7620227103.8251362</v>
+      </c>
+      <c r="S21" s="11">
+        <v>1477471366.1202185</v>
+      </c>
+      <c r="T21" s="11">
+        <v>6837590704.9180326</v>
+      </c>
+      <c r="U21" s="11">
+        <v>-694833967.21311474</v>
+      </c>
+      <c r="V21" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W21" s="11">
+        <v>7623961901.6393442</v>
+      </c>
+      <c r="X21" s="11">
+        <v>11064976743.169399</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>1331739032.7868853</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>472560218.57923496</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>750992344.26229513</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>574626486.33879781</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>176365857.92349726</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>16031743.169398908</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>37748.633879781424</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>7628344.2622950822</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>119093617.48633879</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="21">
+        <v>74207732.240437165</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>-277753722.03278691</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>39557754.098360658</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>-597497213.11475408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="23.25" customHeight="1">
+      <c r="A22" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="33">
+        <v>559891000</v>
+      </c>
+      <c r="E22" s="22">
+        <v>426000000</v>
+      </c>
+      <c r="F22" s="20">
+        <v>426522000</v>
+      </c>
+      <c r="G22" s="22">
+        <v>707000000</v>
+      </c>
+      <c r="H22" s="9">
+        <v>-3756000000</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5395000000</v>
+      </c>
+      <c r="J22" s="10">
+        <v>207942000</v>
+      </c>
+      <c r="K22" s="10">
+        <v>207942000</v>
+      </c>
+      <c r="L22" s="18">
+        <v>7811300000</v>
+      </c>
+      <c r="M22" s="18">
+        <v>4942031000</v>
+      </c>
+      <c r="N22" s="18">
+        <v>12821764000</v>
+      </c>
+      <c r="O22" s="18">
+        <v>2283859000</v>
+      </c>
+      <c r="P22" s="18">
+        <v>2100000000</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>4383859000</v>
+      </c>
+      <c r="R22" s="18">
+        <v>8437904000</v>
+      </c>
+      <c r="S22" s="18">
         <v>1939980000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T22" s="18">
         <v>6924953000</v>
       </c>
-      <c r="R21" s="3">
-        <v>-8361000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>24903000</v>
-      </c>
-      <c r="T21" s="3">
-        <v>8881475000</v>
-      </c>
-      <c r="U21" s="3">
-        <v>10180507000</v>
-      </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
+      <c r="U22" s="18">
+        <v>-427028000</v>
+      </c>
+      <c r="V22" s="12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W22" s="18">
+        <v>8437904000</v>
+      </c>
+      <c r="X22" s="18">
+        <v>12821764000</v>
+      </c>
+      <c r="Y22" s="18">
+        <v>1653963000</v>
+      </c>
+      <c r="Z22" s="18">
+        <v>703486000</v>
+      </c>
+      <c r="AA22" s="18">
+        <v>950477000</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="18">
+        <v>609221000</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="18">
+        <v>341256000</v>
+      </c>
+      <c r="AG22" s="18">
+        <v>23025000</v>
+      </c>
+      <c r="AH22" s="18">
+        <v>38000</v>
+      </c>
+      <c r="AI22" s="18">
+        <v>10693000</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="18">
+        <v>159000000</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>207887000</v>
+      </c>
+      <c r="AN22" s="18">
+        <v>-374636</v>
+      </c>
+      <c r="AO22" s="18">
+        <v>52391000</v>
+      </c>
+      <c r="AP22" s="18">
+        <v>-427028000</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" ht="23.25" customHeight="1">
-      <c r="A22" s="5">
-        <v>45443</v>
-      </c>
-      <c r="B22" s="6">
-        <v>7</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="21">
-        <v>707000000</v>
-      </c>
-      <c r="F22" s="22">
-        <v>-3756000000</v>
-      </c>
-      <c r="G22" s="22">
-        <v>5395000000</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
+    <row r="23" spans="1:42" ht="17.25" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
     </row>
-    <row r="23" spans="1:38" ht="17.25" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+    <row r="26" spans="1:42">
+      <c r="E26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
-    <row r="26" spans="1:38" ht="22">
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+    <row r="27" spans="1:42">
+      <c r="E27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="34"/>
     </row>
-    <row r="27" spans="1:38" ht="18">
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+    <row r="28" spans="1:42">
+      <c r="E28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="34"/>
     </row>
-    <row r="28" spans="1:38" ht="18">
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
+    <row r="29" spans="1:42">
+      <c r="E29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="34"/>
     </row>
-    <row r="29" spans="1:38" ht="18">
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
+    <row r="30" spans="1:42">
+      <c r="E30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="34"/>
     </row>
-    <row r="30" spans="1:38">
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+    <row r="31" spans="1:42">
+      <c r="E31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="34"/>
     </row>
-    <row r="31" spans="1:38">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+    <row r="32" spans="1:42">
+      <c r="E32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="34"/>
     </row>
-    <row r="32" spans="1:38">
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
+    <row r="33" spans="5:11">
+      <c r="E33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
     </row>
-    <row r="33" spans="4:8" ht="18">
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="4:8" ht="22">
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34"/>
+    <row r="34" spans="5:11">
+      <c r="E34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
     <mergeCell ref="H27:H29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="K27:K29"/>
     <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916F11E3-AE23-9B47-BD76-A27E28747A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="4580" yWindow="500" windowWidth="18200" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="consolidated"/>
+    <sheet name="consolidated" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Quarter</t>
   </si>
@@ -25,9 +31,6 @@
     <t>Total Operational Satellites</t>
   </si>
   <si>
-    <t>EBITDA(same equasion with other companies)</t>
-  </si>
-  <si>
     <t>EBITDA(Published)</t>
   </si>
   <si>
@@ -142,18 +145,18 @@
     <t>Net Loss</t>
   </si>
   <si>
-    <t>#VALUE!</t>
+    <t>EBITDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="$#,##0_);($#,##0)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,7 +235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -253,16 +256,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -270,104 +273,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -378,10 +369,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -419,71 +410,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,7 +502,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -534,11 +525,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -547,13 +538,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -563,7 +554,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -572,7 +563,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -581,7 +572,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -589,10 +580,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -657,61 +648,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="26" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="27" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="28" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="29" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="28" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="29" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="29" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="29" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="29" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="28" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="28" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="28" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="28" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="28" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="28" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="28" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="28" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="28" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="28" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="28" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="28" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="28" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="28" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="28" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="28" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="28" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="28" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="28" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="28" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="28" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="28" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="28" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="28" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="28" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="28" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="28" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="28" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="28" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="28" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="28" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="21" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="16.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="58.5">
+    <row r="1" spans="1:42" ht="58.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,124 +707,124 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:42" ht="18.75" customHeight="1">
       <c r="A2" s="8">
         <v>43616</v>
       </c>
@@ -951,7 +936,7 @@
         <v>-593314000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:42" ht="18.75" customHeight="1">
       <c r="A3" s="8">
         <v>43708</v>
       </c>
@@ -973,7 +958,7 @@
         <v>1572117005.4644809</v>
       </c>
       <c r="M3" s="11">
-        <v>6169672.131147541</v>
+        <v>6169672.1311475411</v>
       </c>
       <c r="N3" s="11">
         <v>1578287428.9617488</v>
@@ -997,10 +982,10 @@
         <v>2358000000</v>
       </c>
       <c r="U3" s="11">
-        <v>-937707868.852459</v>
+        <v>-937707868.85245895</v>
       </c>
       <c r="V3" s="11">
-        <v>7370300.546448087</v>
+        <v>7370300.5464480873</v>
       </c>
       <c r="W3" s="11">
         <v>1525192918.0327868</v>
@@ -1009,10 +994,10 @@
         <v>1575718071.0382514</v>
       </c>
       <c r="Y3" s="11">
-        <v>540437.1584699453</v>
+        <v>540437.15846994531</v>
       </c>
       <c r="Z3" s="11">
-        <v>-530382.5136612022</v>
+        <v>-530382.51366120216</v>
       </c>
       <c r="AA3" s="11">
         <v>10054.644808743169</v>
@@ -1024,46 +1009,46 @@
         <v>0</v>
       </c>
       <c r="AD3" s="11">
-        <v>671911724.0437158</v>
+        <v>671911724.04371583</v>
       </c>
       <c r="AE3" s="11">
         <v>0</v>
       </c>
       <c r="AF3" s="11">
-        <v>-671911724.0437158</v>
+        <v>-671911724.04371583</v>
       </c>
       <c r="AG3" s="11">
-        <v>2360587.431693989</v>
+        <v>2360587.4316939889</v>
       </c>
       <c r="AH3" s="11">
-        <v>90117.48633879781</v>
+        <v>90117.486338797811</v>
       </c>
       <c r="AI3" s="11">
-        <v>-820163.9344262294</v>
+        <v>-820163.93442622945</v>
       </c>
       <c r="AJ3" s="11">
         <v>0</v>
       </c>
       <c r="AK3" s="11">
-        <v>854756.8306010929</v>
+        <v>854756.83060109289</v>
       </c>
       <c r="AL3" s="11">
         <v>0</v>
       </c>
       <c r="AM3" s="11">
-        <v>-670273573.7704918</v>
+        <v>-670273573.77049184</v>
       </c>
       <c r="AN3" s="11">
-        <v>-669425426.2295083</v>
+        <v>-669425426.22950828</v>
       </c>
       <c r="AO3" s="11">
         <v>1072729.5081967213</v>
       </c>
       <c r="AP3" s="11">
-        <v>-670498907.1038251</v>
+        <v>-670498907.10382509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:42" ht="18.75" customHeight="1">
       <c r="A4" s="8">
         <v>43799</v>
       </c>
@@ -1175,7 +1160,7 @@
         <v>-748532000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:42" ht="18.75" customHeight="1">
       <c r="A5" s="8">
         <v>43888</v>
       </c>
@@ -1197,7 +1182,7 @@
         <v>1101074994.5355191</v>
       </c>
       <c r="M5" s="11">
-        <v>4450327.868852459</v>
+        <v>4450327.8688524589</v>
       </c>
       <c r="N5" s="11">
         <v>1105525571.0382512</v>
@@ -1209,7 +1194,7 @@
         <v>20000000</v>
       </c>
       <c r="Q5" s="11">
-        <v>37129901.63934427</v>
+        <v>37129901.639344268</v>
       </c>
       <c r="R5" s="11">
         <v>1066210172.1311475</v>
@@ -1233,10 +1218,10 @@
         <v>1113233644.8087432</v>
       </c>
       <c r="Y5" s="11">
-        <v>1597814.207650273</v>
+        <v>1597814.2076502731</v>
       </c>
       <c r="Z5" s="11">
-        <v>-1568087.431693989</v>
+        <v>-1568087.4316939891</v>
       </c>
       <c r="AA5" s="11">
         <v>29726.775956284153</v>
@@ -1248,46 +1233,46 @@
         <v>0</v>
       </c>
       <c r="AD5" s="11">
-        <v>827033275.9562842</v>
+        <v>827033275.95628417</v>
       </c>
       <c r="AE5" s="11">
         <v>0</v>
       </c>
       <c r="AF5" s="11">
-        <v>-827033275.9562842</v>
+        <v>-827033275.95628417</v>
       </c>
       <c r="AG5" s="11">
         <v>1500412.5683060111</v>
       </c>
       <c r="AH5" s="11">
-        <v>138882.5136612022</v>
+        <v>138882.51366120219</v>
       </c>
       <c r="AI5" s="11">
-        <v>-391836.0655737705</v>
+        <v>-391836.06557377049</v>
       </c>
       <c r="AJ5" s="11">
         <v>0</v>
       </c>
       <c r="AK5" s="11">
-        <v>300243.1693989071</v>
+        <v>300243.16939890711</v>
       </c>
       <c r="AL5" s="11">
         <v>0</v>
       </c>
       <c r="AM5" s="11">
-        <v>-822940131.147541</v>
+        <v>-822940131.14754105</v>
       </c>
       <c r="AN5" s="11">
-        <v>-825484573.7704918</v>
+        <v>-825484573.77049184</v>
       </c>
       <c r="AO5" s="11">
         <v>1080270.4918032787</v>
       </c>
       <c r="AP5" s="11">
-        <v>-826565092.8961749</v>
+        <v>-826565092.89617491</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:42" ht="18.75" customHeight="1">
       <c r="A6" s="8">
         <v>43982</v>
       </c>
@@ -1399,7 +1384,7 @@
         <v>-903750000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:42" ht="18.75" customHeight="1">
       <c r="A7" s="8">
         <v>44074</v>
       </c>
@@ -1418,19 +1403,19 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="11">
-        <v>924936893.1506848</v>
+        <v>924936893.15068483</v>
       </c>
       <c r="M7" s="11">
-        <v>6089410.958904111</v>
+        <v>6089410.9589041108</v>
       </c>
       <c r="N7" s="11">
         <v>931026304.1095891</v>
       </c>
       <c r="O7" s="11">
-        <v>16278539.7260274</v>
+        <v>16278539.726027399</v>
       </c>
       <c r="P7" s="11">
-        <v>89808219.17808218</v>
+        <v>89808219.178082183</v>
       </c>
       <c r="Q7" s="11">
         <v>106086758.9041096</v>
@@ -1451,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="W7" s="11">
-        <v>824759364.3835616</v>
+        <v>824759364.38356161</v>
       </c>
       <c r="X7" s="11">
-        <v>931678087.6712329</v>
+        <v>931678087.67123294</v>
       </c>
       <c r="Y7" s="11">
-        <v>2691917.808219178</v>
+        <v>2691917.8082191781</v>
       </c>
       <c r="Z7" s="11">
-        <v>-2641835.616438356</v>
+        <v>-2641835.6164383562</v>
       </c>
       <c r="AA7" s="11">
-        <v>50082.19178082192</v>
+        <v>50082.191780821922</v>
       </c>
       <c r="AB7" s="11">
         <v>0</v>
@@ -1478,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="11">
-        <v>-834862254.7945206</v>
+        <v>-834862254.79452062</v>
       </c>
       <c r="AG7" s="11">
         <v>1771087.6712328768</v>
@@ -1493,25 +1478,25 @@
         <v>0</v>
       </c>
       <c r="AK7" s="11">
-        <v>547567.1232876711</v>
+        <v>547567.12328767113</v>
       </c>
       <c r="AL7" s="11">
         <v>0</v>
       </c>
       <c r="AM7" s="11">
-        <v>-833984849.3150685</v>
+        <v>-833984849.31506848</v>
       </c>
       <c r="AN7" s="11">
-        <v>-834731383.5616438</v>
+        <v>-834731383.56164384</v>
       </c>
       <c r="AO7" s="11">
         <v>1078515.0684931506</v>
       </c>
       <c r="AP7" s="11">
-        <v>-835810147.9452055</v>
+        <v>-835810147.94520545</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:42" ht="18.75" customHeight="1">
       <c r="A8" s="8">
         <v>44165</v>
       </c>
@@ -1530,13 +1515,13 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11">
-        <v>982384213.6986301</v>
+        <v>982384213.69863009</v>
       </c>
       <c r="M8" s="11">
-        <v>8606178.082191782</v>
+        <v>8606178.0821917821</v>
       </c>
       <c r="N8" s="11">
-        <v>990990391.7808219</v>
+        <v>990990391.78082192</v>
       </c>
       <c r="O8" s="11">
         <v>22151920.547945205</v>
@@ -1548,13 +1533,13 @@
         <v>182535482.19178084</v>
       </c>
       <c r="R8" s="11">
-        <v>808453909.5890411</v>
+        <v>808453909.58904111</v>
       </c>
       <c r="S8" s="11">
         <v>100000000</v>
       </c>
       <c r="T8" s="11">
-        <v>2641696627.39726</v>
+        <v>2641696627.3972602</v>
       </c>
       <c r="U8" s="11">
         <v>-1933242219.1780822</v>
@@ -1563,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="W8" s="11">
-        <v>808453909.5890411</v>
+        <v>808453909.58904111</v>
       </c>
       <c r="X8" s="11">
-        <v>990990391.7808219</v>
+        <v>990990391.78082192</v>
       </c>
       <c r="Y8" s="11">
-        <v>3227945.205479452</v>
+        <v>3227945.2054794519</v>
       </c>
       <c r="Z8" s="11">
-        <v>-3167890.410958904</v>
+        <v>-3167890.4109589038</v>
       </c>
       <c r="AA8" s="11">
-        <v>60054.79452054795</v>
+        <v>60054.794520547948</v>
       </c>
       <c r="AB8" s="11">
         <v>0</v>
@@ -1590,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="AF8" s="11">
-        <v>-765216490.4109589</v>
+        <v>-765216490.41095889</v>
       </c>
       <c r="AG8" s="11">
         <v>2474824.6575342463</v>
       </c>
       <c r="AH8" s="11">
-        <v>93309.5890410959</v>
+        <v>93309.589041095896</v>
       </c>
       <c r="AI8" s="11">
-        <v>-600147.9452054795</v>
+        <v>-600147.94520547951</v>
       </c>
       <c r="AJ8" s="11">
         <v>0</v>
@@ -1611,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="AM8" s="11">
-        <v>-766050232.8767123</v>
+        <v>-766050232.87671232</v>
       </c>
       <c r="AN8" s="11">
-        <v>-766050232.8767123</v>
+        <v>-766050232.87671232</v>
       </c>
       <c r="AO8" s="11">
         <v>1072969.8630136987</v>
@@ -1623,7 +1608,7 @@
         <v>-767123704.1095891</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:42" ht="18.75" customHeight="1">
       <c r="A9" s="8">
         <v>44254</v>
       </c>
@@ -1660,7 +1645,7 @@
         <v>258984205.47945207</v>
       </c>
       <c r="R9" s="11">
-        <v>791969273.9726028</v>
+        <v>791969273.97260284</v>
       </c>
       <c r="S9" s="11">
         <v>100000000</v>
@@ -1675,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="11">
-        <v>792506816.4383562</v>
+        <v>792506816.43835616</v>
       </c>
       <c r="X9" s="11">
         <v>1048999128.7671233</v>
@@ -1687,7 +1672,7 @@
         <v>-3682383.5616438356</v>
       </c>
       <c r="AA9" s="11">
-        <v>69808.21917808219</v>
+        <v>69808.219178082189</v>
       </c>
       <c r="AB9" s="11">
         <v>0</v>
@@ -1702,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="AF9" s="11">
-        <v>-695570726.0273972</v>
+        <v>-695570726.02739716</v>
       </c>
       <c r="AG9" s="11">
         <v>3178561.6438356163</v>
       </c>
       <c r="AH9" s="11">
-        <v>58273.97260273973</v>
+        <v>58273.972602739726</v>
       </c>
       <c r="AI9" s="11">
         <v>-811369.8630136986</v>
@@ -1723,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="AM9" s="11">
-        <v>-699608684.9315069</v>
+        <v>-699608684.93150687</v>
       </c>
       <c r="AN9" s="11">
-        <v>-697369082.1917808</v>
+        <v>-697369082.19178081</v>
       </c>
       <c r="AO9" s="11">
         <v>1067424.6575342466</v>
       </c>
       <c r="AP9" s="11">
-        <v>-698437260.2739726</v>
+        <v>-698437260.27397263</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:42" ht="18.75" customHeight="1">
       <c r="A10" s="8">
         <v>44347</v>
       </c>
@@ -1853,7 +1838,7 @@
         <v>-631244000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:42" ht="18.75" customHeight="1">
       <c r="A11" s="8">
         <v>44439</v>
       </c>
@@ -1864,11 +1849,11 @@
         <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>-550139764.3835616</v>
+        <v>-550139764.38356161</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11">
-        <v>-552384520.5479451</v>
+        <v>-552384520.54794514</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1887,13 +1872,13 @@
         <v>2245336635.6164384</v>
       </c>
       <c r="O11" s="11">
-        <v>45732887.67123288</v>
+        <v>45732887.671232879</v>
       </c>
       <c r="P11" s="11">
         <v>300000000</v>
       </c>
       <c r="Q11" s="11">
-        <v>345732887.6712329</v>
+        <v>345732887.67123288</v>
       </c>
       <c r="R11" s="11">
         <v>1901328257.5342464</v>
@@ -1914,13 +1899,13 @@
         <v>1911952008.2191782</v>
       </c>
       <c r="X11" s="11">
-        <v>2257817093.150685</v>
+        <v>2257817093.1506848</v>
       </c>
       <c r="Y11" s="11">
-        <v>7902353.424657535</v>
+        <v>7902353.4246575348</v>
       </c>
       <c r="Z11" s="11">
-        <v>-5255654.794520548</v>
+        <v>-5255654.7945205476</v>
       </c>
       <c r="AA11" s="11">
         <v>2646698.6301369863</v>
@@ -1932,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="AD11" s="11">
-        <v>569009989.0410959</v>
+        <v>569009989.04109585</v>
       </c>
       <c r="AE11" s="11">
         <v>0</v>
       </c>
       <c r="AF11" s="11">
-        <v>-566363290.4109589</v>
+        <v>-566363290.41095889</v>
       </c>
       <c r="AG11" s="11">
         <v>2779238.3561643832</v>
@@ -1947,31 +1932,31 @@
         <v>21756.164383561645</v>
       </c>
       <c r="AI11" s="11">
-        <v>-353076.7123287672</v>
+        <v>-353076.71232876717</v>
       </c>
       <c r="AJ11" s="11">
         <v>0</v>
       </c>
       <c r="AK11" s="11">
-        <v>1593690.410958904</v>
+        <v>1593690.4109589041</v>
       </c>
       <c r="AL11" s="11">
         <v>0</v>
       </c>
       <c r="AM11" s="11">
-        <v>-568608046.5753424</v>
+        <v>-568608046.57534242</v>
       </c>
       <c r="AN11" s="11">
-        <v>-569277317.8082192</v>
+        <v>-569277317.80821919</v>
       </c>
       <c r="AO11" s="11">
-        <v>1129813.698630137</v>
+        <v>1129813.6986301369</v>
       </c>
       <c r="AP11" s="11">
-        <v>-570407882.1917808</v>
+        <v>-570407882.19178081</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:42" ht="18.75" customHeight="1">
       <c r="A12" s="8">
         <v>44530</v>
       </c>
@@ -1982,11 +1967,11 @@
         <v>1</v>
       </c>
       <c r="D12" s="13">
-        <v>-484159197.260274</v>
+        <v>-484159197.26027399</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11">
-        <v>-487247142.4657534</v>
+        <v>-487247142.46575338</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1996,16 +1981,16 @@
         <v>20138068.493150685</v>
       </c>
       <c r="L12" s="11">
-        <v>2437411978.082192</v>
+        <v>2437411978.0821919</v>
       </c>
       <c r="M12" s="11">
-        <v>956126750.6849315</v>
+        <v>956126750.68493152</v>
       </c>
       <c r="N12" s="11">
-        <v>3393538728.767123</v>
+        <v>3393538728.7671232</v>
       </c>
       <c r="O12" s="11">
-        <v>57826224.65753424</v>
+        <v>57826224.657534242</v>
       </c>
       <c r="P12" s="11">
         <v>300000000</v>
@@ -2020,7 +2005,7 @@
         <v>100000000</v>
       </c>
       <c r="T12" s="11">
-        <v>4299371273.972603</v>
+        <v>4299371273.9726028</v>
       </c>
       <c r="U12" s="11">
         <v>-1315066501.369863</v>
@@ -2029,19 +2014,19 @@
         <v>-3468978.0821917807</v>
       </c>
       <c r="W12" s="11">
-        <v>3035712005.479452</v>
+        <v>3035712005.4794521</v>
       </c>
       <c r="X12" s="11">
-        <v>3393538728.767123</v>
+        <v>3393538728.7671232</v>
       </c>
       <c r="Y12" s="11">
         <v>11544293.15068493</v>
       </c>
       <c r="Z12" s="11">
-        <v>-6302690.410958904</v>
+        <v>-6302690.4109589038</v>
       </c>
       <c r="AA12" s="11">
-        <v>5241602.739726027</v>
+        <v>5241602.7397260265</v>
       </c>
       <c r="AB12" s="11">
         <v>0</v>
@@ -2056,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="11">
-        <v>-504616419.1780822</v>
+        <v>-504616419.17808223</v>
       </c>
       <c r="AG12" s="11">
         <v>1679523.2876712326</v>
@@ -2065,7 +2050,7 @@
         <v>19487.671232876713</v>
       </c>
       <c r="AI12" s="11">
-        <v>319153.4246575343</v>
+        <v>319153.42465753428</v>
       </c>
       <c r="AJ12" s="11">
         <v>0</v>
@@ -2077,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="AM12" s="11">
-        <v>-507704364.3835616</v>
+        <v>-507704364.38356161</v>
       </c>
       <c r="AN12" s="11">
-        <v>-507704364.3835617</v>
+        <v>-507704364.38356167</v>
       </c>
       <c r="AO12" s="11">
         <v>1198372.602739726</v>
       </c>
       <c r="AP12" s="11">
-        <v>-508903235.6164384</v>
+        <v>-508903235.61643839</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:42" ht="18.75" customHeight="1">
       <c r="A13" s="8">
         <v>44619</v>
       </c>
@@ -2100,18 +2085,18 @@
         <v>1</v>
       </c>
       <c r="D13" s="13">
-        <v>-418256904.109589</v>
+        <v>-418256904.10958898</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11">
-        <v>-423526580.8219178</v>
+        <v>-423526580.82191777</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11">
-        <v>23621260.2739726</v>
+        <v>23621260.273972601</v>
       </c>
       <c r="L13" s="11">
         <v>3111767945.2054796</v>
@@ -2120,10 +2105,10 @@
         <v>1429972876.7123287</v>
       </c>
       <c r="N13" s="11">
-        <v>4541740821.917808</v>
+        <v>4541740821.9178076</v>
       </c>
       <c r="O13" s="11">
-        <v>69919561.6438356</v>
+        <v>69919561.643835604</v>
       </c>
       <c r="P13" s="11">
         <v>300000000</v>
@@ -2138,19 +2123,19 @@
         <v>100000000</v>
       </c>
       <c r="T13" s="11">
-        <v>4990893684.931506</v>
+        <v>4990893684.9315062</v>
       </c>
       <c r="U13" s="11">
-        <v>-846050753.4246575</v>
+        <v>-846050753.42465746</v>
       </c>
       <c r="V13" s="11">
-        <v>-5156076.712328767</v>
+        <v>-5156076.7123287674</v>
       </c>
       <c r="W13" s="11">
         <v>4134773980.8219175</v>
       </c>
       <c r="X13" s="11">
-        <v>4504299449.315068</v>
+        <v>4504299449.3150682</v>
       </c>
       <c r="Y13" s="11">
         <v>15186232.87671233</v>
@@ -2159,7 +2144,7 @@
         <v>-7349726.027397261</v>
       </c>
       <c r="AA13" s="11">
-        <v>7836506.849315069</v>
+        <v>7836506.8493150687</v>
       </c>
       <c r="AB13" s="11">
         <v>0</v>
@@ -2177,19 +2162,19 @@
         <v>-442869547.94520545</v>
       </c>
       <c r="AG13" s="11">
-        <v>579808.2191780821</v>
+        <v>579808.21917808207</v>
       </c>
       <c r="AH13" s="11">
         <v>17219.178082191782</v>
       </c>
       <c r="AI13" s="11">
-        <v>991383.5616438356</v>
+        <v>991383.56164383562</v>
       </c>
       <c r="AJ13" s="11">
         <v>0</v>
       </c>
       <c r="AK13" s="11">
-        <v>533547.9452054794</v>
+        <v>533547.94520547939</v>
       </c>
       <c r="AL13" s="11">
         <v>0</v>
@@ -2204,10 +2189,10 @@
         <v>1266931.5068493153</v>
       </c>
       <c r="AP13" s="11">
-        <v>-447398589.0410959</v>
+        <v>-447398589.04109591</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:42" ht="18.75" customHeight="1">
       <c r="A14" s="8">
         <v>44712</v>
       </c>
@@ -2331,7 +2316,7 @@
         <v>-387231000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:42" ht="18.75" customHeight="1">
       <c r="A15" s="8">
         <v>44804</v>
       </c>
@@ -2342,16 +2327,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="13">
-        <v>-332604997.260274</v>
+        <v>-332604997.26027399</v>
       </c>
       <c r="E15" s="11">
-        <v>-69315068.49315068</v>
+        <v>-69315068.493150681</v>
       </c>
       <c r="F15" s="11">
         <v>-337306254.7945205</v>
       </c>
       <c r="G15" s="11">
-        <v>-432723287.6712329</v>
+        <v>-432723287.67123288</v>
       </c>
       <c r="H15" s="11">
         <v>-1523030136.9863014</v>
@@ -2372,7 +2357,7 @@
         <v>1912130117.8082192</v>
       </c>
       <c r="N15" s="11">
-        <v>5706823052.054794</v>
+        <v>5706823052.0547943</v>
       </c>
       <c r="O15" s="11">
         <v>142468441.09589043</v>
@@ -2390,25 +2375,25 @@
         <v>100000000</v>
       </c>
       <c r="T15" s="11">
-        <v>5894264698.630137</v>
+        <v>5894264698.6301374</v>
       </c>
       <c r="U15" s="11">
-        <v>-662773764.3835617</v>
+        <v>-662773764.38356173</v>
       </c>
       <c r="V15" s="11">
         <v>-1430254.7945205485</v>
       </c>
       <c r="W15" s="11">
-        <v>5262210126.027397</v>
+        <v>5262210126.0273972</v>
       </c>
       <c r="X15" s="11">
-        <v>5707282843.835617</v>
+        <v>5707282843.8356171</v>
       </c>
       <c r="Y15" s="11">
         <v>106837747.94520546</v>
       </c>
       <c r="Z15" s="11">
-        <v>-59938090.4109589</v>
+        <v>-59938090.410958901</v>
       </c>
       <c r="AA15" s="11">
         <v>46899657.534246564</v>
@@ -2420,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="AD15" s="11">
-        <v>412474808.2191781</v>
+        <v>412474808.21917808</v>
       </c>
       <c r="AE15" s="11">
         <v>0</v>
       </c>
       <c r="AF15" s="11">
-        <v>-365575150.6849316</v>
+        <v>-365575150.68493158</v>
       </c>
       <c r="AG15" s="11">
-        <v>-1568054.794520548</v>
+        <v>-1568054.7945205481</v>
       </c>
       <c r="AH15" s="11">
         <v>20484.931506849312</v>
@@ -2441,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="AK15" s="11">
-        <v>71594.5205479452</v>
+        <v>71594.520547945198</v>
       </c>
       <c r="AL15" s="11">
         <v>0</v>
       </c>
       <c r="AM15" s="11">
-        <v>-370276408.2191781</v>
+        <v>-370276408.21917808</v>
       </c>
       <c r="AN15" s="11">
-        <v>-564896243.8356164</v>
+        <v>-564896243.83561635</v>
       </c>
       <c r="AO15" s="11">
         <v>1334747.9452054794</v>
@@ -2459,7 +2444,7 @@
         <v>-566231241.0958904</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:42" ht="18.75" customHeight="1">
       <c r="A16" s="8">
         <v>44895</v>
       </c>
@@ -2476,22 +2461,22 @@
         <v>-137876712.32876712</v>
       </c>
       <c r="F16" s="11">
-        <v>-317856586.3013699</v>
+        <v>-317856586.30136991</v>
       </c>
       <c r="G16" s="11">
-        <v>-338482191.7808219</v>
+        <v>-338482191.78082192</v>
       </c>
       <c r="H16" s="11">
         <v>-1314353424.6575341</v>
       </c>
       <c r="I16" s="11">
-        <v>2935682191.780822</v>
+        <v>2935682191.7808218</v>
       </c>
       <c r="J16" s="11">
-        <v>23305175.34246575</v>
+        <v>23305175.342465751</v>
       </c>
       <c r="K16" s="11">
-        <v>36898331.50684932</v>
+        <v>36898331.506849319</v>
       </c>
       <c r="L16" s="11">
         <v>3818176630.1369863</v>
@@ -2500,13 +2485,13 @@
         <v>1930946764.3835616</v>
       </c>
       <c r="N16" s="11">
-        <v>5749123895.890411</v>
+        <v>5749123895.8904114</v>
       </c>
       <c r="O16" s="11">
         <v>203854117.80821916</v>
       </c>
       <c r="P16" s="11">
-        <v>303852526.0273973</v>
+        <v>303852526.02739727</v>
       </c>
       <c r="Q16" s="11">
         <v>507707145.20547944</v>
@@ -2518,19 +2503,19 @@
         <v>100000000</v>
       </c>
       <c r="T16" s="11">
-        <v>6123639602.739726</v>
+        <v>6123639602.7397261</v>
       </c>
       <c r="U16" s="11">
-        <v>-941344471.2328768</v>
+        <v>-941344471.23287678</v>
       </c>
       <c r="V16" s="11">
         <v>3998830.1369863003</v>
       </c>
       <c r="W16" s="11">
-        <v>5241416750.684932</v>
+        <v>5241416750.6849318</v>
       </c>
       <c r="X16" s="11">
-        <v>5749123895.890411</v>
+        <v>5749123895.8904114</v>
       </c>
       <c r="Y16" s="11">
         <v>195894504.10958904</v>
@@ -2539,7 +2524,7 @@
         <v>-112068819.17808218</v>
       </c>
       <c r="AA16" s="11">
-        <v>83825684.93150684</v>
+        <v>83825684.931506842</v>
       </c>
       <c r="AB16" s="11">
         <v>0</v>
@@ -2554,16 +2539,16 @@
         <v>0</v>
       </c>
       <c r="AF16" s="11">
-        <v>-348499698.630137</v>
+        <v>-348499698.63013703</v>
       </c>
       <c r="AG16" s="11">
         <v>-2651890.4109589043</v>
       </c>
       <c r="AH16" s="11">
-        <v>26030.13698630137</v>
+        <v>26030.136986301372</v>
       </c>
       <c r="AI16" s="11">
-        <v>70687.67123287672</v>
+        <v>70687.671232876717</v>
       </c>
       <c r="AJ16" s="11">
         <v>0</v>
@@ -2575,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="AM16" s="11">
-        <v>-354825605.4794521</v>
+        <v>-354825605.47945207</v>
       </c>
       <c r="AN16" s="11">
-        <v>-745862512.3287671</v>
+        <v>-745862512.32876706</v>
       </c>
       <c r="AO16" s="11">
         <v>1335504.109589041</v>
       </c>
       <c r="AP16" s="11">
-        <v>-747198517.8082192</v>
+        <v>-747198517.80821919</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:42" ht="18.75" customHeight="1">
       <c r="A17" s="8">
         <v>44984</v>
       </c>
@@ -2604,25 +2589,25 @@
         <v>-204931506.84931505</v>
       </c>
       <c r="F17" s="11">
-        <v>-298851821.9178083</v>
+        <v>-298851821.91780829</v>
       </c>
       <c r="G17" s="11">
         <v>-246312328.76712328</v>
       </c>
       <c r="H17" s="11">
-        <v>-1110263013.69863</v>
+        <v>-1110263013.6986301</v>
       </c>
       <c r="I17" s="11">
         <v>1989112328.7671232</v>
       </c>
       <c r="J17" s="11">
-        <v>34639386.30136986</v>
+        <v>34639386.301369861</v>
       </c>
       <c r="K17" s="11">
-        <v>41585339.7260274</v>
+        <v>41585339.726027399</v>
       </c>
       <c r="L17" s="11">
-        <v>3841660575.342466</v>
+        <v>3841660575.3424659</v>
       </c>
       <c r="M17" s="11">
         <v>1949763410.958904</v>
@@ -2634,40 +2619,40 @@
         <v>265239794.52054796</v>
       </c>
       <c r="P17" s="11">
-        <v>305789315.0684931</v>
+        <v>305789315.06849313</v>
       </c>
       <c r="Q17" s="11">
-        <v>571029863.0136986</v>
+        <v>571029863.01369858</v>
       </c>
       <c r="R17" s="11">
-        <v>5210906794.520548</v>
+        <v>5210906794.5205479</v>
       </c>
       <c r="S17" s="11">
         <v>100000000</v>
       </c>
       <c r="T17" s="11">
-        <v>6353014506.849315</v>
+        <v>6353014506.8493147</v>
       </c>
       <c r="U17" s="11">
-        <v>-1219915178.082192</v>
+        <v>-1219915178.0821919</v>
       </c>
       <c r="V17" s="11">
-        <v>9308594.520547945</v>
+        <v>9308594.5205479451</v>
       </c>
       <c r="W17" s="11">
-        <v>5221080372.60274</v>
+        <v>5221080372.6027403</v>
       </c>
       <c r="X17" s="11">
-        <v>5790045364.383562</v>
+        <v>5790045364.3835621</v>
       </c>
       <c r="Y17" s="11">
-        <v>284951260.2739726</v>
+        <v>284951260.27397257</v>
       </c>
       <c r="Z17" s="11">
         <v>-164199547.94520548</v>
       </c>
       <c r="AA17" s="11">
-        <v>120751712.3287671</v>
+        <v>120751712.32876711</v>
       </c>
       <c r="AB17" s="11">
         <v>0</v>
@@ -2682,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="11">
-        <v>-331424246.5753425</v>
+        <v>-331424246.57534248</v>
       </c>
       <c r="AG17" s="11">
         <v>-3735726.0273972605</v>
@@ -2691,7 +2676,7 @@
         <v>31575.342465753427</v>
       </c>
       <c r="AI17" s="11">
-        <v>-722780.8219178083</v>
+        <v>-722780.82191780827</v>
       </c>
       <c r="AJ17" s="11">
         <v>0</v>
@@ -2706,16 +2691,16 @@
         <v>-339714380.82191783</v>
       </c>
       <c r="AN17" s="11">
-        <v>-926828780.8219178</v>
+        <v>-926828780.82191777</v>
       </c>
       <c r="AO17" s="11">
         <v>1336260.2739726028</v>
       </c>
       <c r="AP17" s="11">
-        <v>-928165794.520548</v>
+        <v>-928165794.52054799</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:42" ht="18.75" customHeight="1">
       <c r="A18" s="8">
         <v>45077</v>
       </c>
@@ -2843,7 +2828,7 @@
         <v>-1105199000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:42" ht="18.75" customHeight="1">
       <c r="A19" s="8">
         <v>45169</v>
       </c>
@@ -2854,70 +2839,70 @@
         <v>2</v>
       </c>
       <c r="D19" s="13">
-        <v>-61195879.78142074</v>
+        <v>-61195879.781420738</v>
       </c>
       <c r="E19" s="11">
-        <v>-98792349.72677594</v>
+        <v>-98792349.726775944</v>
       </c>
       <c r="F19" s="11">
         <v>-101610754.09836063</v>
       </c>
       <c r="G19" s="11">
-        <v>65420765.02732241</v>
+        <v>65420765.027322412</v>
       </c>
       <c r="H19" s="11">
-        <v>-1615655737.704918</v>
+        <v>-1615655737.7049179</v>
       </c>
       <c r="I19" s="11">
         <v>2104754098.3606558</v>
       </c>
       <c r="J19" s="11">
-        <v>87068322.40437159</v>
+        <v>87068322.404371589</v>
       </c>
       <c r="K19" s="11">
-        <v>87068322.40437159</v>
+        <v>87068322.404371589</v>
       </c>
       <c r="L19" s="11">
-        <v>4856692120.218579</v>
+        <v>4856692120.2185793</v>
       </c>
       <c r="M19" s="11">
-        <v>2715698650.273224</v>
+        <v>2715698650.2732239</v>
       </c>
       <c r="N19" s="11">
-        <v>7589593256.830601</v>
+        <v>7589593256.8306007</v>
       </c>
       <c r="O19" s="11">
-        <v>817608639.3442624</v>
+        <v>817608639.34426236</v>
       </c>
       <c r="P19" s="11">
-        <v>758211519.1256831</v>
+        <v>758211519.12568307</v>
       </c>
       <c r="Q19" s="11">
-        <v>1575820907.103825</v>
+        <v>1575820907.1038251</v>
       </c>
       <c r="R19" s="11">
-        <v>6002648896.174864</v>
+        <v>6002648896.1748638</v>
       </c>
       <c r="S19" s="11">
-        <v>562508633.8797815</v>
+        <v>562508633.87978148</v>
       </c>
       <c r="T19" s="11">
-        <v>6664765295.081967</v>
+        <v>6664765295.0819674</v>
       </c>
       <c r="U19" s="11">
         <v>-1224624032.7868853</v>
       </c>
-      <c r="V19" s="11" t="s">
-        <v>42</v>
+      <c r="V19" s="11">
+        <v>0</v>
       </c>
       <c r="W19" s="11">
-        <v>6013772098.360656</v>
+        <v>6013772098.3606558</v>
       </c>
       <c r="X19" s="11">
-        <v>7589593256.830601</v>
+        <v>7589593256.8306007</v>
       </c>
       <c r="Y19" s="11">
-        <v>694295967.2131147</v>
+        <v>694295967.21311474</v>
       </c>
       <c r="Z19" s="11">
         <v>15728781.420765013</v>
@@ -2932,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="11">
-        <v>506189513.6612022</v>
+        <v>506189513.66120219</v>
       </c>
       <c r="AE19" s="11">
         <v>0</v>
@@ -2953,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="11">
-        <v>40148382.5136612</v>
+        <v>40148382.513661198</v>
       </c>
       <c r="AL19" s="11">
         <v>0</v>
@@ -2962,16 +2947,16 @@
         <v>-190244732.24043715</v>
       </c>
       <c r="AN19" s="11">
-        <v>-826481913.9672132</v>
+        <v>-826481913.96721315</v>
       </c>
       <c r="AO19" s="11">
         <v>14170245.901639344</v>
       </c>
       <c r="AP19" s="11">
-        <v>-934729786.8852459</v>
+        <v>-934729786.88524592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:42" ht="18.75" customHeight="1">
       <c r="A20" s="8">
         <v>45260</v>
       </c>
@@ -3035,8 +3020,8 @@
       <c r="U20" s="11">
         <v>-959729000</v>
       </c>
-      <c r="V20" s="11" t="s">
-        <v>42</v>
+      <c r="V20" s="11">
+        <v>0</v>
       </c>
       <c r="W20" s="11">
         <v>6818867000</v>
@@ -3099,7 +3084,7 @@
         <v>-766113500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:42" ht="18.75" customHeight="1">
       <c r="A21" s="8">
         <v>45351</v>
       </c>
@@ -3110,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="13">
-        <v>351350879.7814207</v>
+        <v>351350879.78142071</v>
       </c>
       <c r="E21" s="11">
         <v>249792349.72677597</v>
@@ -3119,58 +3104,58 @@
         <v>249192754.09836066</v>
       </c>
       <c r="G21" s="11">
-        <v>491579234.9726776</v>
+        <v>491579234.97267759</v>
       </c>
       <c r="H21" s="11">
-        <v>-3037344262.295082</v>
+        <v>-3037344262.2950821</v>
       </c>
       <c r="I21" s="11">
-        <v>4290245901.639344</v>
+        <v>4290245901.6393442</v>
       </c>
       <c r="J21" s="11">
-        <v>167356677.5956284</v>
+        <v>167356677.59562841</v>
       </c>
       <c r="K21" s="11">
-        <v>167356677.5956284</v>
+        <v>167356677.59562841</v>
       </c>
       <c r="L21" s="11">
-        <v>6819241879.781421</v>
+        <v>6819241879.7814207</v>
       </c>
       <c r="M21" s="11">
-        <v>4194503349.726776</v>
+        <v>4194503349.7267761</v>
       </c>
       <c r="N21" s="11">
-        <v>11064976743.1694</v>
+        <v>11064976743.169399</v>
       </c>
       <c r="O21" s="11">
         <v>1791541360.6557379</v>
       </c>
       <c r="P21" s="11">
-        <v>1649472480.874317</v>
+        <v>1649472480.8743169</v>
       </c>
       <c r="Q21" s="11">
-        <v>3441014092.896175</v>
+        <v>3441014092.8961749</v>
       </c>
       <c r="R21" s="11">
-        <v>7620227103.825136</v>
+        <v>7620227103.8251362</v>
       </c>
       <c r="S21" s="11">
         <v>1477471366.1202185</v>
       </c>
       <c r="T21" s="11">
-        <v>6837590704.918033</v>
+        <v>6837590704.9180326</v>
       </c>
       <c r="U21" s="11">
-        <v>-694833967.2131147</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>42</v>
+        <v>-694833967.21311474</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
       </c>
       <c r="W21" s="11">
-        <v>7623961901.639344</v>
+        <v>7623961901.6393442</v>
       </c>
       <c r="X21" s="11">
-        <v>11064976743.1694</v>
+        <v>11064976743.169399</v>
       </c>
       <c r="Y21" s="11">
         <v>1331739032.7868853</v>
@@ -3179,7 +3164,7 @@
         <v>472560218.57923496</v>
       </c>
       <c r="AA21" s="11">
-        <v>750992344.2622951</v>
+        <v>750992344.26229513</v>
       </c>
       <c r="AB21" s="11">
         <v>0</v>
@@ -3188,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="11">
-        <v>574626486.3387978</v>
+        <v>574626486.33879781</v>
       </c>
       <c r="AE21" s="11">
         <v>0</v>
@@ -3203,31 +3188,31 @@
         <v>37748.633879781424</v>
       </c>
       <c r="AI21" s="11">
-        <v>7628344.262295082</v>
+        <v>7628344.2622950822</v>
       </c>
       <c r="AJ21" s="11">
         <v>0</v>
       </c>
       <c r="AK21" s="11">
-        <v>119093617.4863388</v>
+        <v>119093617.48633879</v>
       </c>
       <c r="AL21" s="11">
         <v>0</v>
       </c>
       <c r="AM21" s="11">
-        <v>74207732.24043716</v>
+        <v>74207732.240437165</v>
       </c>
       <c r="AN21" s="11">
-        <v>-277753722.0327869</v>
+        <v>-277753722.03278691</v>
       </c>
       <c r="AO21" s="11">
-        <v>39557754.09836066</v>
+        <v>39557754.098360658</v>
       </c>
       <c r="AP21" s="11">
-        <v>-597497213.1147541</v>
+        <v>-597497213.11475408</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="23.25">
+    <row r="22" spans="1:42" ht="23.25" customHeight="1">
       <c r="A22" s="8">
         <v>45443</v>
       </c>
@@ -3291,8 +3276,8 @@
       <c r="U22" s="14">
         <v>-427028000</v>
       </c>
-      <c r="V22" s="17" t="s">
-        <v>42</v>
+      <c r="V22" s="11">
+        <v>0</v>
       </c>
       <c r="W22" s="14">
         <v>8437904000</v>
@@ -3355,18 +3340,12 @@
         <v>-427028000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row r="23" spans="1:42" ht="17.25" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -3399,489 +3378,78 @@
       <c r="AO23" s="17"/>
       <c r="AP23" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="21"/>
+    <row r="24" spans="1:42" ht="17.25" customHeight="1"/>
+    <row r="25" spans="1:42" ht="17.25" customHeight="1"/>
+    <row r="26" spans="1:42" ht="17.25" customHeight="1">
       <c r="E26" s="15"/>
-      <c r="F26" s="21"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="21"/>
-      <c r="AJ26" s="21"/>
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="21"/>
-      <c r="AM26" s="21"/>
-      <c r="AN26" s="21"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="21"/>
+    <row r="27" spans="1:42" ht="17.25" customHeight="1">
       <c r="E27" s="15"/>
-      <c r="F27" s="21"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="21"/>
-      <c r="AL27" s="21"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="21"/>
-      <c r="AO27" s="21"/>
-      <c r="AP27" s="21"/>
+      <c r="K27" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="21"/>
+    <row r="28" spans="1:42" ht="17.25" customHeight="1">
       <c r="E28" s="15"/>
-      <c r="F28" s="21"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="21"/>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="21"/>
+      <c r="K28" s="26"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="21"/>
+    <row r="29" spans="1:42" ht="17.25" customHeight="1">
       <c r="E29" s="15"/>
-      <c r="F29" s="21"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="21"/>
-      <c r="AM29" s="21"/>
-      <c r="AN29" s="21"/>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="21"/>
+      <c r="K29" s="26"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+    <row r="30" spans="1:42" ht="17.25" customHeight="1">
+      <c r="E30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="21"/>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="21"/>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
+      <c r="K30" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+    <row r="31" spans="1:42" ht="17.25" customHeight="1">
+      <c r="E31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="21"/>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
+      <c r="K31" s="26"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+    <row r="32" spans="1:42" ht="17.25" customHeight="1">
+      <c r="E32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="21"/>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="21"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21"/>
+      <c r="K32" s="26"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="21"/>
+    <row r="33" spans="5:11" ht="17.25" customHeight="1">
       <c r="E33" s="15"/>
-      <c r="F33" s="21"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
-      <c r="AG33" s="21"/>
-      <c r="AH33" s="21"/>
-      <c r="AI33" s="21"/>
-      <c r="AJ33" s="21"/>
-      <c r="AK33" s="21"/>
-      <c r="AL33" s="21"/>
-      <c r="AM33" s="21"/>
-      <c r="AN33" s="21"/>
-      <c r="AO33" s="21"/>
-      <c r="AP33" s="21"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="21"/>
+    <row r="34" spans="5:11" ht="17.25" customHeight="1">
       <c r="E34" s="15"/>
-      <c r="F34" s="21"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-      <c r="AK34" s="21"/>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916F11E3-AE23-9B47-BD76-A27E28747A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209705AC-5C36-4976-87E0-9C39EA073C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="500" windowWidth="18200" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
     <t>Total Operational Satellites</t>
   </si>
   <si>
-    <t>EBITDA(Published)</t>
-  </si>
-  <si>
-    <t>EBITDA(calculated)</t>
-  </si>
-  <si>
     <t>Cash flow from operating activities</t>
   </si>
   <si>
@@ -146,17 +140,24 @@
   </si>
   <si>
     <t>EBITDA</t>
+  </si>
+  <si>
+    <t>EBITDA (calculated)</t>
+  </si>
+  <si>
+    <t>EBITDA (published)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,43 +174,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ArialMT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF141414"/>
-      <name val="ArialMT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="-webkit-standard"/>
       <family val="2"/>
     </font>
     <font>
@@ -223,6 +188,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF141414"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -273,63 +244,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -338,13 +270,34 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -655,2643 +608,2820 @@
   <dimension ref="A1:AP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="A1:AP22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="20" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="16.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="58.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:42" s="16" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AK1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AO1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A2" s="8">
+    <row r="2" spans="1:42">
+      <c r="A2" s="1">
         <v>43616</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
         <v>1805078000</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="17">
         <v>7020000</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="17">
         <v>1812099000</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="17">
         <v>37259000</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="17">
         <v>57259000</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="17">
         <v>1746053000</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="17">
         <v>100000000</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="17">
         <v>-713005000</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="17">
         <v>9845000</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="17">
         <v>1754840000</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="17">
         <v>1812099000</v>
       </c>
-      <c r="Y2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="11">
+      <c r="Y2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="17">
         <v>595194000</v>
       </c>
-      <c r="AE2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="11">
+      <c r="AE2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="17">
         <v>-595194000</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="17">
         <v>2786000</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="17">
         <v>66000</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2" s="17">
         <v>-1032000</v>
       </c>
-      <c r="AJ2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="11">
+      <c r="AJ2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="17">
         <v>1129000</v>
       </c>
-      <c r="AL2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="11">
+      <c r="AL2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="17">
         <v>-592244000</v>
       </c>
-      <c r="AN2" s="11">
+      <c r="AN2" s="17">
         <v>-592244000</v>
       </c>
-      <c r="AO2" s="11">
+      <c r="AO2" s="17">
         <v>1069000</v>
       </c>
-      <c r="AP2" s="11">
+      <c r="AP2" s="17">
         <v>-593314000</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A3" s="8">
+    <row r="3" spans="1:42">
+      <c r="A3" s="1">
         <v>43708</v>
       </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
         <v>1572117005.4644809</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="17">
         <v>6169672.1311475411</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="17">
         <v>1578287428.9617488</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="17">
         <v>30598098.36065574</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="17">
         <v>50598098.36065574</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="17">
         <v>1521086827.8688526</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="17">
         <v>100000000</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="17">
         <v>-937707868.85245895</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="17">
         <v>7370300.5464480873</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="17">
         <v>1525192918.0327868</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="17">
         <v>1575718071.0382514</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="17">
         <v>540437.15846994531</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="17">
         <v>-530382.51366120216</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="17">
         <v>10054.644808743169</v>
       </c>
-      <c r="AB3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="11">
+      <c r="AB3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="17">
         <v>671911724.04371583</v>
       </c>
-      <c r="AE3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="11">
+      <c r="AE3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="17">
         <v>-671911724.04371583</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="17">
         <v>2360587.4316939889</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="17">
         <v>90117.486338797811</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="17">
         <v>-820163.93442622945</v>
       </c>
-      <c r="AJ3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="11">
+      <c r="AJ3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="17">
         <v>854756.83060109289</v>
       </c>
-      <c r="AL3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="11">
+      <c r="AL3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="17">
         <v>-670273573.77049184</v>
       </c>
-      <c r="AN3" s="11">
+      <c r="AN3" s="17">
         <v>-669425426.22950828</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AO3" s="17">
         <v>1072729.5081967213</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AP3" s="17">
         <v>-670498907.10382509</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:42">
+      <c r="A4" s="1">
         <v>43799</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
         <v>1336596000</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="17">
         <v>5310000</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="17">
         <v>1341906500</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="17">
         <v>23864000</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="17">
         <v>43864000</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="17">
         <v>1293648500</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="17">
         <v>100000000</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="17">
         <v>-1164880000</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="17">
         <v>4922500</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="17">
         <v>1298042000</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="17">
         <v>1341906500</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="17">
         <v>1075000</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="17">
         <v>-1055000</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="17">
         <v>20000</v>
       </c>
-      <c r="AB4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="11">
+      <c r="AB4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="17">
         <v>749472500</v>
       </c>
-      <c r="AE4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="11">
+      <c r="AE4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="17">
         <v>-749472500</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="17">
         <v>1930500</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="17">
         <v>114500</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="17">
         <v>-606000</v>
       </c>
-      <c r="AJ4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="11">
+      <c r="AJ4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="17">
         <v>577500</v>
       </c>
-      <c r="AL4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="11">
+      <c r="AL4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="17">
         <v>-747455000</v>
       </c>
-      <c r="AN4" s="11">
+      <c r="AN4" s="17">
         <v>-747455000</v>
       </c>
-      <c r="AO4" s="11">
+      <c r="AO4" s="17">
         <v>1076500</v>
       </c>
-      <c r="AP4" s="11">
+      <c r="AP4" s="17">
         <v>-748532000</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A5" s="8">
+    <row r="5" spans="1:42">
+      <c r="A5" s="1">
         <v>43888</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
         <v>1101074994.5355191</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="17">
         <v>4450327.8688524589</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="17">
         <v>1105525571.0382512</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="17">
         <v>17129901.63934426</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="17">
         <v>37129901.639344268</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="17">
         <v>1066210172.1311475</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="17">
         <v>100000000</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="17">
         <v>-1392052131.147541</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="17">
         <v>2528497.2677595625</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="17">
         <v>1075883409.8360655</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="17">
         <v>1113233644.8087432</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="17">
         <v>1597814.2076502731</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="17">
         <v>-1568087.4316939891</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="17">
         <v>29726.775956284153</v>
       </c>
-      <c r="AB5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11">
+      <c r="AB5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="17">
         <v>827033275.95628417</v>
       </c>
-      <c r="AE5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="11">
+      <c r="AE5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="17">
         <v>-827033275.95628417</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="17">
         <v>1500412.5683060111</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="17">
         <v>138882.51366120219</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="17">
         <v>-391836.06557377049</v>
       </c>
-      <c r="AJ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="11">
+      <c r="AJ5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="17">
         <v>300243.16939890711</v>
       </c>
-      <c r="AL5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="11">
+      <c r="AL5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="17">
         <v>-822940131.14754105</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="AN5" s="17">
         <v>-825484573.77049184</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AO5" s="17">
         <v>1080270.4918032787</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AP5" s="17">
         <v>-826565092.89617491</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:42">
+      <c r="A6" s="1">
         <v>43982</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <v>868114000</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="17">
         <v>3600000</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="17">
         <v>871714000</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="17">
         <v>10469000</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="17">
         <v>30469000</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="17">
         <v>841244000</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="17">
         <v>100000000</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="17">
         <v>-1616755000</v>
       </c>
-      <c r="V6" s="11">
-        <v>0</v>
-      </c>
-      <c r="W6" s="11">
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
         <v>841244000</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="17">
         <v>871714000</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="17">
         <v>2150000</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="17">
         <v>-2110000</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="17">
         <v>40000</v>
       </c>
-      <c r="AB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11">
+      <c r="AB6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="17">
         <v>903751000</v>
       </c>
-      <c r="AE6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="11">
+      <c r="AE6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="17">
         <v>-903751000</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="17">
         <v>1075000</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="17">
         <v>163000</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="17">
         <v>-180000</v>
       </c>
-      <c r="AJ6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="11">
+      <c r="AJ6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="17">
         <v>26000</v>
       </c>
-      <c r="AL6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="11">
+      <c r="AL6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="17">
         <v>-902666000</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AN6" s="17">
         <v>-902666000</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO6" s="17">
         <v>1084000</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AP6" s="17">
         <v>-903750000</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A7" s="8">
+    <row r="7" spans="1:42">
+      <c r="A7" s="1">
         <v>44074</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
         <v>924936893.15068483</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="17">
         <v>6089410.9589041108</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="17">
         <v>931026304.1095891</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="17">
         <v>16278539.726027399</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="17">
         <v>89808219.178082183</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="17">
         <v>106086758.9041096</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="17">
         <v>824938545.2054795</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="17">
         <v>100000000</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="17">
         <v>2499073186.3013697</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="17">
         <v>-1774133890.4109588</v>
       </c>
-      <c r="V7" s="11">
-        <v>0</v>
-      </c>
-      <c r="W7" s="11">
+      <c r="V7" s="17">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17">
         <v>824759364.38356161</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="17">
         <v>931678087.67123294</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="17">
         <v>2691917.8082191781</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="17">
         <v>-2641835.6164383562</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="17">
         <v>50082.191780821922</v>
       </c>
-      <c r="AB7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
+      <c r="AB7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="17">
         <v>834882200</v>
       </c>
-      <c r="AE7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="11">
+      <c r="AE7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="17">
         <v>-834862254.79452062</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="17">
         <v>1771087.6712328768</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="17">
         <v>128345.20547945207</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7" s="17">
         <v>-388926.02739726024</v>
       </c>
-      <c r="AJ7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="11">
+      <c r="AJ7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="17">
         <v>547567.12328767113</v>
       </c>
-      <c r="AL7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="11">
+      <c r="AL7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="17">
         <v>-833984849.31506848</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AN7" s="17">
         <v>-834731383.56164384</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO7" s="17">
         <v>1078515.0684931506</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7" s="17">
         <v>-835810147.94520545</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A8" s="8">
+    <row r="8" spans="1:42">
+      <c r="A8" s="1">
         <v>44165</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
         <v>982384213.69863009</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="17">
         <v>8606178.0821917821</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="17">
         <v>990990391.78082192</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="17">
         <v>22151920.547945205</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="17">
         <v>160383561.64383563</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="17">
         <v>182535482.19178084</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="17">
         <v>808453909.58904111</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="17">
         <v>100000000</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="17">
         <v>2641696627.3972602</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="17">
         <v>-1933242219.1780822</v>
       </c>
-      <c r="V8" s="11">
-        <v>0</v>
-      </c>
-      <c r="W8" s="11">
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
         <v>808453909.58904111</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="17">
         <v>990990391.78082192</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="17">
         <v>3227945.2054794519</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="17">
         <v>-3167890.4109589038</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="17">
         <v>60054.794520547948</v>
       </c>
-      <c r="AB8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11">
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
         <v>765256600</v>
       </c>
-      <c r="AE8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="11">
+      <c r="AE8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
         <v>-765216490.41095889</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AG8" s="17">
         <v>2474824.6575342463</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AH8" s="17">
         <v>93309.589041095896</v>
       </c>
-      <c r="AI8" s="11">
+      <c r="AI8" s="17">
         <v>-600147.94520547951</v>
       </c>
-      <c r="AJ8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="11">
+      <c r="AJ8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="17">
         <v>1074865.7534246575</v>
       </c>
-      <c r="AL8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="11">
+      <c r="AL8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="17">
         <v>-766050232.87671232</v>
       </c>
-      <c r="AN8" s="11">
+      <c r="AN8" s="17">
         <v>-766050232.87671232</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AO8" s="17">
         <v>1072969.8630136987</v>
       </c>
-      <c r="AP8" s="11">
+      <c r="AP8" s="17">
         <v>-767123704.1095891</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A9" s="8">
+    <row r="9" spans="1:42">
+      <c r="A9" s="1">
         <v>44254</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="11">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
         <v>1039831534.2465754</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="17">
         <v>11122945.205479452</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="17">
         <v>1050954479.4520547</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="17">
         <v>28025301.369863015</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="17">
         <v>230958904.10958907</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="17">
         <v>258984205.47945207</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="17">
         <v>791969273.97260284</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="17">
         <v>100000000</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="17">
         <v>2784320068.4931507</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="17">
         <v>-2092350547.9452057</v>
       </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
-      <c r="W9" s="11">
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
         <v>792506816.43835616</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="17">
         <v>1048999128.7671233</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="17">
         <v>3752191.7808219176</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="17">
         <v>-3682383.5616438356</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="17">
         <v>69808.219178082189</v>
       </c>
-      <c r="AB9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
+      <c r="AB9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17">
         <v>695631000</v>
       </c>
-      <c r="AE9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="11">
+      <c r="AE9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="17">
         <v>-695570726.02739716</v>
       </c>
-      <c r="AG9" s="11">
+      <c r="AG9" s="17">
         <v>3178561.6438356163</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH9" s="17">
         <v>58273.972602739726</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AI9" s="17">
         <v>-811369.8630136986</v>
       </c>
-      <c r="AJ9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="11">
+      <c r="AJ9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="17">
         <v>1602164.3835616438</v>
       </c>
-      <c r="AL9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="11">
+      <c r="AL9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="17">
         <v>-699608684.93150687</v>
       </c>
-      <c r="AN9" s="11">
+      <c r="AN9" s="17">
         <v>-697369082.19178081</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AO9" s="17">
         <v>1067424.6575342466</v>
       </c>
-      <c r="AP9" s="11">
+      <c r="AP9" s="17">
         <v>-698437260.27397263</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A10" s="8">
+    <row r="10" spans="1:42">
+      <c r="A10" s="1">
         <v>44347</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <v>-615481000</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11">
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
         <v>-618223000</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
         <v>12976000</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="17">
         <v>1096030000</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="17">
         <v>13585000</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="17">
         <v>1109615000</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="17">
         <v>33771000</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="17">
         <v>333771000</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="17">
         <v>775843000</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="17">
         <v>100000000</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="17">
         <v>2923843000</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="17">
         <v>-2248000000</v>
       </c>
-      <c r="V10" s="11">
-        <v>0</v>
-      </c>
-      <c r="W10" s="11">
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
         <v>775843000</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="17">
         <v>1109615000</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="17">
         <v>4300000</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="17">
         <v>-4220000</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="17">
         <v>80000</v>
       </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="11">
+      <c r="AB10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17">
         <v>627519000</v>
       </c>
-      <c r="AE10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="11">
+      <c r="AE10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="17">
         <v>-627439000</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AG10" s="17">
         <v>3867000</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH10" s="17">
         <v>24000</v>
       </c>
-      <c r="AI10" s="11">
+      <c r="AI10" s="17">
         <v>-1018000</v>
       </c>
-      <c r="AJ10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="11">
+      <c r="AJ10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="17">
         <v>2118000</v>
       </c>
-      <c r="AL10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="14">
+      <c r="AL10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="17">
         <v>-630181000</v>
       </c>
-      <c r="AN10" s="11">
+      <c r="AN10" s="17">
         <v>-630181000</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AO10" s="17">
         <v>1062000</v>
       </c>
-      <c r="AP10" s="11">
+      <c r="AP10" s="17">
         <v>-631244000</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A11" s="8">
+    <row r="11" spans="1:42">
+      <c r="A11" s="1">
         <v>44439</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="17">
         <v>-550139764.38356161</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11">
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
         <v>-552384520.54794514</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11">
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
         <v>16576602.739726027</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="17">
         <v>1763056010.9589045</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="17">
         <v>482280624.6575343</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="17">
         <v>2245336635.6164384</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="17">
         <v>45732887.671232879</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="17">
         <v>345732887.67123288</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="17">
         <v>1901328257.5342464</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="17">
         <v>100000000</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="17">
         <v>3607848863.0136986</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="17">
         <v>-1784082249.3150685</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="17">
         <v>-1743967.1232876712</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="17">
         <v>1911952008.2191782</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="17">
         <v>2257817093.1506848</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="17">
         <v>7902353.4246575348</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="17">
         <v>-5255654.7945205476</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="17">
         <v>2646698.6301369863</v>
       </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
+      <c r="AB11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
         <v>569009989.04109585</v>
       </c>
-      <c r="AE11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="11">
+      <c r="AE11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
         <v>-566363290.41095889</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AG11" s="17">
         <v>2779238.3561643832</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AH11" s="17">
         <v>21756.164383561645</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AI11" s="17">
         <v>-353076.71232876717</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="11">
+      <c r="AJ11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="17">
         <v>1593690.4109589041</v>
       </c>
-      <c r="AL11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="11">
+      <c r="AL11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="17">
         <v>-568608046.57534242</v>
       </c>
-      <c r="AN11" s="11">
+      <c r="AN11" s="17">
         <v>-569277317.80821919</v>
       </c>
-      <c r="AO11" s="11">
+      <c r="AO11" s="17">
         <v>1129813.6986301369</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AP11" s="17">
         <v>-570407882.19178081</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A12" s="8">
+    <row r="12" spans="1:42">
+      <c r="A12" s="1">
         <v>44530</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="17">
         <v>-484159197.26027399</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
         <v>-487247142.46575338</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11">
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
         <v>20138068.493150685</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="17">
         <v>2437411978.0821919</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="17">
         <v>956126750.68493152</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="17">
         <v>3393538728.7671232</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="17">
         <v>57826224.657534242</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="17">
         <v>357826224.6575343</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="17">
         <v>3039181484.9315066</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="17">
         <v>100000000</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="17">
         <v>4299371273.9726028</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="17">
         <v>-1315066501.369863</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="17">
         <v>-3468978.0821917807</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="17">
         <v>3035712005.4794521</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="17">
         <v>3393538728.7671232</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="17">
         <v>11544293.15068493</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="17">
         <v>-6302690.4109589038</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="17">
         <v>5241602.7397260265</v>
       </c>
-      <c r="AB12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="11">
+      <c r="AB12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
         <v>509858021.91780823</v>
       </c>
-      <c r="AE12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="11">
+      <c r="AE12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17">
         <v>-504616419.17808223</v>
       </c>
-      <c r="AG12" s="11">
+      <c r="AG12" s="17">
         <v>1679523.2876712326</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AH12" s="17">
         <v>19487.671232876713</v>
       </c>
-      <c r="AI12" s="11">
+      <c r="AI12" s="17">
         <v>319153.42465753428</v>
       </c>
-      <c r="AJ12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="11">
+      <c r="AJ12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="17">
         <v>1063619.1780821919</v>
       </c>
-      <c r="AL12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="11">
+      <c r="AL12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="17">
         <v>-507704364.38356161</v>
       </c>
-      <c r="AN12" s="11">
+      <c r="AN12" s="17">
         <v>-507704364.38356167</v>
       </c>
-      <c r="AO12" s="11">
+      <c r="AO12" s="17">
         <v>1198372.602739726</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="17">
         <v>-508903235.61643839</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A13" s="8">
+    <row r="13" spans="1:42">
+      <c r="A13" s="1">
         <v>44619</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="17">
         <v>-418256904.10958898</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
         <v>-423526580.82191777</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11">
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
         <v>23621260.273972601</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="17">
         <v>3111767945.2054796</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="17">
         <v>1429972876.7123287</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="17">
         <v>4541740821.9178076</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="17">
         <v>69919561.643835604</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="17">
         <v>369919561.6438356</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="17">
         <v>4177034712.3287673</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="17">
         <v>100000000</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="17">
         <v>4990893684.9315062</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="17">
         <v>-846050753.42465746</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="17">
         <v>-5156076.7123287674</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="17">
         <v>4134773980.8219175</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="17">
         <v>4504299449.3150682</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="17">
         <v>15186232.87671233</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="17">
         <v>-7349726.027397261</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="17">
         <v>7836506.8493150687</v>
       </c>
-      <c r="AB13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="11">
+      <c r="AB13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="17">
         <v>450706054.79452056</v>
       </c>
-      <c r="AE13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="11">
+      <c r="AE13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="17">
         <v>-442869547.94520545</v>
       </c>
-      <c r="AG13" s="11">
+      <c r="AG13" s="17">
         <v>579808.21917808207</v>
       </c>
-      <c r="AH13" s="11">
+      <c r="AH13" s="17">
         <v>17219.178082191782</v>
       </c>
-      <c r="AI13" s="11">
+      <c r="AI13" s="17">
         <v>991383.56164383562</v>
       </c>
-      <c r="AJ13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="11">
+      <c r="AJ13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="17">
         <v>533547.94520547939</v>
       </c>
-      <c r="AL13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="11">
+      <c r="AL13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="17">
         <v>-448139224.65753424</v>
       </c>
-      <c r="AN13" s="11">
+      <c r="AN13" s="17">
         <v>-446131410.95890415</v>
       </c>
-      <c r="AO13" s="11">
+      <c r="AO13" s="17">
         <v>1266931.5068493153</v>
       </c>
-      <c r="AP13" s="11">
+      <c r="AP13" s="17">
         <v>-447398589.04109591</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A14" s="8">
+    <row r="14" spans="1:42">
+      <c r="A14" s="1">
         <v>44712</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="17">
         <v>-353555000</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11">
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
         <v>-356987000</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="17">
         <v>-528000000</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="17">
         <v>-1734000000</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="17">
         <v>4882000000</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14">
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
         <v>27261000</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="17">
         <v>3771464000</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="17">
         <v>1893518000</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="17">
         <v>5664982000</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="17">
         <v>81750000</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="17">
         <v>381750000</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="17">
         <v>5290152000</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="17">
         <v>100000000</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="17">
         <v>5667383000</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="17">
         <v>-387231000</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="17">
         <v>-6919000</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="17">
         <v>5283232000</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="17">
         <v>5664982000</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="17">
         <v>18749000</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="17">
         <v>-8374000</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14" s="17">
         <v>10375000</v>
       </c>
-      <c r="AB14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="11">
+      <c r="AB14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
         <v>392840000</v>
       </c>
-      <c r="AE14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="11">
+      <c r="AE14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="17">
         <v>-382465000</v>
       </c>
-      <c r="AG14" s="11">
+      <c r="AG14" s="17">
         <v>-496000</v>
       </c>
-      <c r="AH14" s="11">
+      <c r="AH14" s="17">
         <v>15000</v>
       </c>
-      <c r="AI14" s="11">
+      <c r="AI14" s="17">
         <v>1649000</v>
       </c>
-      <c r="AJ14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="11">
+      <c r="AJ14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="17">
         <v>15000</v>
       </c>
-      <c r="AL14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="11">
+      <c r="AL14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="17">
         <v>-385897000</v>
       </c>
-      <c r="AN14" s="11">
+      <c r="AN14" s="17">
         <v>-385897000</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AO14" s="17">
         <v>1334000</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AP14" s="17">
         <v>-387231000</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A15" s="8">
+    <row r="15" spans="1:42">
+      <c r="A15" s="1">
         <v>44804</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="17">
         <v>-332604997.26027399</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="17">
         <v>-69315068.493150681</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="17">
         <v>-337306254.7945205</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="17">
         <v>-432723287.67123288</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="17">
         <v>-1523030136.9863014</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="17">
         <v>3903523287.6712327</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="17">
         <v>11716263.013698628</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="17">
         <v>32105997.260273974</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="17">
         <v>3794692684.9315066</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="17">
         <v>1912130117.8082192</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="17">
         <v>5706823052.0547943</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="17">
         <v>142468441.09589043</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="17">
         <v>301915736.98630136</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="17">
         <v>444384427.39726025</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="17">
         <v>5263929041.09589</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="17">
         <v>100000000</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="17">
         <v>5894264698.6301374</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="17">
         <v>-662773764.38356173</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="17">
         <v>-1430254.7945205485</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="17">
         <v>5262210126.0273972</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="17">
         <v>5707282843.8356171</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="17">
         <v>106837747.94520546</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="17">
         <v>-59938090.410958901</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AA15" s="17">
         <v>46899657.534246564</v>
       </c>
-      <c r="AB15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="11">
+      <c r="AB15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="17">
         <v>412474808.21917808</v>
       </c>
-      <c r="AE15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="11">
+      <c r="AE15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="17">
         <v>-365575150.68493158</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AG15" s="17">
         <v>-1568054.7945205481</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AH15" s="17">
         <v>20484.931506849312</v>
       </c>
-      <c r="AI15" s="11">
+      <c r="AI15" s="17">
         <v>864156.1643835617</v>
       </c>
-      <c r="AJ15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="11">
+      <c r="AJ15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="17">
         <v>71594.520547945198</v>
       </c>
-      <c r="AL15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="11">
+      <c r="AL15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="17">
         <v>-370276408.21917808</v>
       </c>
-      <c r="AN15" s="11">
+      <c r="AN15" s="17">
         <v>-564896243.83561635</v>
       </c>
-      <c r="AO15" s="11">
+      <c r="AO15" s="17">
         <v>1334747.9452054794</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AP15" s="17">
         <v>-566231241.0958904</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A16" s="8">
+    <row r="16" spans="1:42">
+      <c r="A16" s="1">
         <v>44895</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="17">
         <v>-311530679.45205486</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="17">
         <v>-137876712.32876712</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="17">
         <v>-317856586.30136991</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="17">
         <v>-338482191.78082192</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="17">
         <v>-1314353424.6575341</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="17">
         <v>2935682191.7808218</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="17">
         <v>23305175.342465751</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="17">
         <v>36898331.506849319</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="17">
         <v>3818176630.1369863</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="17">
         <v>1930946764.3835616</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="17">
         <v>5749123895.8904114</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="17">
         <v>203854117.80821916</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="17">
         <v>303852526.02739727</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="17">
         <v>507707145.20547944</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="17">
         <v>5237417917.808219</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="17">
         <v>100000000</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="17">
         <v>6123639602.7397261</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="17">
         <v>-941344471.23287678</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="17">
         <v>3998830.1369863003</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="17">
         <v>5241416750.6849318</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="17">
         <v>5749123895.8904114</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="17">
         <v>195894504.10958904</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="17">
         <v>-112068819.17808218</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AA16" s="17">
         <v>83825684.931506842</v>
       </c>
-      <c r="AB16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="11">
+      <c r="AB16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="17">
         <v>432325383.56164384</v>
       </c>
-      <c r="AE16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="11">
+      <c r="AE16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="17">
         <v>-348499698.63013703</v>
       </c>
-      <c r="AG16" s="11">
+      <c r="AG16" s="17">
         <v>-2651890.4109589043</v>
       </c>
-      <c r="AH16" s="11">
+      <c r="AH16" s="17">
         <v>26030.136986301372</v>
       </c>
-      <c r="AI16" s="11">
+      <c r="AI16" s="17">
         <v>70687.671232876717</v>
       </c>
-      <c r="AJ16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="11">
+      <c r="AJ16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="17">
         <v>128810.95890410959</v>
       </c>
-      <c r="AL16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="11">
+      <c r="AL16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="17">
         <v>-354825605.47945207</v>
       </c>
-      <c r="AN16" s="11">
+      <c r="AN16" s="17">
         <v>-745862512.32876706</v>
       </c>
-      <c r="AO16" s="11">
+      <c r="AO16" s="17">
         <v>1335504.109589041</v>
       </c>
-      <c r="AP16" s="11">
+      <c r="AP16" s="17">
         <v>-747198517.80821919</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A17" s="8">
+    <row r="17" spans="1:42">
+      <c r="A17" s="1">
         <v>44984</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="17">
         <v>-290561687.67123294</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="17">
         <v>-204931506.84931505</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="17">
         <v>-298851821.91780829</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="17">
         <v>-246312328.76712328</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="17">
         <v>-1110263013.6986301</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="17">
         <v>1989112328.7671232</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="17">
         <v>34639386.301369861</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="17">
         <v>41585339.726027399</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="17">
         <v>3841660575.3424659</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="17">
         <v>1949763410.958904</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="17">
         <v>5791424739.7260275</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="17">
         <v>265239794.52054796</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="17">
         <v>305789315.06849313</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="17">
         <v>571029863.01369858</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="17">
         <v>5210906794.5205479</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="17">
         <v>100000000</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="17">
         <v>6353014506.8493147</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="17">
         <v>-1219915178.0821919</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="17">
         <v>9308594.5205479451</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="17">
         <v>5221080372.6027403</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="17">
         <v>5790045364.3835621</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="17">
         <v>284951260.27397257</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="17">
         <v>-164199547.94520548</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AA17" s="17">
         <v>120751712.32876711</v>
       </c>
-      <c r="AB17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="11">
+      <c r="AB17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="17">
         <v>452175958.9041096</v>
       </c>
-      <c r="AE17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="11">
+      <c r="AE17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="17">
         <v>-331424246.57534248</v>
       </c>
-      <c r="AG17" s="11">
+      <c r="AG17" s="17">
         <v>-3735726.0273972605</v>
       </c>
-      <c r="AH17" s="11">
+      <c r="AH17" s="17">
         <v>31575.342465753427</v>
       </c>
-      <c r="AI17" s="11">
+      <c r="AI17" s="17">
         <v>-722780.82191780827</v>
       </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="11">
+      <c r="AJ17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="17">
         <v>186027.39726027398</v>
       </c>
-      <c r="AL17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="11">
+      <c r="AL17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="17">
         <v>-339714380.82191783</v>
       </c>
-      <c r="AN17" s="11">
+      <c r="AN17" s="17">
         <v>-926828780.82191777</v>
       </c>
-      <c r="AO17" s="11">
+      <c r="AO17" s="17">
         <v>1336260.2739726028</v>
       </c>
-      <c r="AP17" s="11">
+      <c r="AP17" s="17">
         <v>-928165794.52054799</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A18" s="8">
+    <row r="18" spans="1:42">
+      <c r="A18" s="1">
         <v>45077</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="17">
         <v>-269736000</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="17">
         <v>-275000000</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="17">
         <v>-278940000</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="17">
         <v>-150000000</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="17">
         <v>-897000000</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="17">
         <v>1000000000</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="17">
         <v>46483000</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="17">
         <v>46483000</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="17">
         <v>3864634000</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="17">
         <v>1968171000</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="17">
         <v>5832806000</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="17">
         <v>325291000</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="17">
         <v>307684000</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="17">
         <v>632976000</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="17">
         <v>5184972000</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="17">
         <v>100000000</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="17">
         <v>6577403000</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="17">
         <v>-1492430000</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="17">
         <v>14857000</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="17">
         <v>5199830000</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="17">
         <v>5832806000</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y18" s="17">
         <v>372072000</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18" s="17">
         <v>-215197000</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AA18" s="17">
         <v>156875000</v>
       </c>
-      <c r="AB18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="11">
+      <c r="AB18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="17">
         <v>471595000</v>
       </c>
-      <c r="AE18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="11">
+      <c r="AE18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="17">
         <v>-314720000</v>
       </c>
-      <c r="AG18" s="11">
+      <c r="AG18" s="17">
         <v>-4796000</v>
       </c>
-      <c r="AH18" s="11">
+      <c r="AH18" s="17">
         <v>37000</v>
       </c>
-      <c r="AI18" s="11">
+      <c r="AI18" s="17">
         <v>-1499000</v>
       </c>
-      <c r="AJ18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="14">
+      <c r="AJ18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="17">
         <v>242000</v>
       </c>
-      <c r="AL18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="14">
+      <c r="AL18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="17">
         <v>-323924000</v>
       </c>
-      <c r="AN18" s="11">
+      <c r="AN18" s="17">
         <v>-1103861000</v>
       </c>
-      <c r="AO18" s="11">
+      <c r="AO18" s="17">
         <v>1337000</v>
       </c>
-      <c r="AP18" s="11">
+      <c r="AP18" s="17">
         <v>-1105199000</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A19" s="8">
+    <row r="19" spans="1:42">
+      <c r="A19" s="1">
         <v>45169</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="17">
         <v>-61195879.781420738</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="17">
         <v>-98792349.726775944</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="17">
         <v>-101610754.09836063</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="17">
         <v>65420765.027322412</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="17">
         <v>-1615655737.7049179</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="17">
         <v>2104754098.3606558</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="17">
         <v>87068322.404371589</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="17">
         <v>87068322.404371589</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="17">
         <v>4856692120.2185793</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="17">
         <v>2715698650.2732239</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="17">
         <v>7589593256.8306007</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="17">
         <v>817608639.34426236</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="17">
         <v>758211519.12568307</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="17">
         <v>1575820907.1038251</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="17">
         <v>6002648896.1748638</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="17">
         <v>562508633.87978148</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="17">
         <v>6664765295.0819674</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="17">
         <v>-1224624032.7868853</v>
       </c>
-      <c r="V19" s="11">
-        <v>0</v>
-      </c>
-      <c r="W19" s="11">
+      <c r="V19" s="17">
+        <v>0</v>
+      </c>
+      <c r="W19" s="17">
         <v>6013772098.3606558</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="17">
         <v>7589593256.8306007</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="17">
         <v>694295967.21311474</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z19" s="17">
         <v>15728781.420765013</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AA19" s="17">
         <v>356359655.73770493</v>
       </c>
-      <c r="AB19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="11">
+      <c r="AB19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="17">
         <v>506189513.66120219</v>
       </c>
-      <c r="AE19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="11">
+      <c r="AE19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="17">
         <v>-149829857.92349726</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AG19" s="17">
         <v>2197256.8306010934</v>
       </c>
-      <c r="AH19" s="11">
+      <c r="AH19" s="17">
         <v>37251.366120218576</v>
       </c>
-      <c r="AI19" s="11">
+      <c r="AI19" s="17">
         <v>1565655.7377049183</v>
       </c>
-      <c r="AJ19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="11">
+      <c r="AJ19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="17">
         <v>40148382.513661198</v>
       </c>
-      <c r="AL19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="11">
+      <c r="AL19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="17">
         <v>-190244732.24043715</v>
       </c>
-      <c r="AN19" s="11">
+      <c r="AN19" s="17">
         <v>-826481913.96721315</v>
       </c>
-      <c r="AO19" s="11">
+      <c r="AO19" s="17">
         <v>14170245.901639344</v>
       </c>
-      <c r="AP19" s="11">
+      <c r="AP19" s="17">
         <v>-934729786.88524592</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A20" s="8">
+    <row r="20" spans="1:42">
+      <c r="A20" s="1">
         <v>45260</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="17">
         <v>145077500</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="17">
         <v>75500000</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="17">
         <v>73791000</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="17">
         <v>278500000</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="17">
         <v>-2326500000</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="17">
         <v>3197500000</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="17">
         <v>127212500</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="17">
         <v>127212500</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="17">
         <v>5837967000</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="17">
         <v>3455101000</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="17">
         <v>9327285000</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="17">
         <v>1304575000</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="17">
         <v>1203842000</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="17">
         <v>2508417500</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="17">
         <v>6811438000</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="17">
         <v>1019990000</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="17">
         <v>6751178000</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="17">
         <v>-959729000</v>
       </c>
-      <c r="V20" s="11">
-        <v>0</v>
-      </c>
-      <c r="W20" s="11">
+      <c r="V20" s="17">
+        <v>0</v>
+      </c>
+      <c r="W20" s="17">
         <v>6818867000</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="17">
         <v>9327285000</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y20" s="17">
         <v>1013017500</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20" s="17">
         <v>244144500</v>
       </c>
-      <c r="AA20" s="11">
+      <c r="AA20" s="17">
         <v>553676000</v>
       </c>
-      <c r="AB20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="11">
+      <c r="AB20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="17">
         <v>540408000</v>
       </c>
-      <c r="AE20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="11">
+      <c r="AE20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="17">
         <v>13268000</v>
       </c>
-      <c r="AG20" s="11">
+      <c r="AG20" s="17">
         <v>9114500</v>
       </c>
-      <c r="AH20" s="11">
+      <c r="AH20" s="17">
         <v>37500</v>
       </c>
-      <c r="AI20" s="11">
+      <c r="AI20" s="17">
         <v>4597000</v>
       </c>
-      <c r="AJ20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="11">
+      <c r="AJ20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="17">
         <v>79621000</v>
       </c>
-      <c r="AL20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="11">
+      <c r="AL20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="17">
         <v>-58018500</v>
       </c>
-      <c r="AN20" s="11">
+      <c r="AN20" s="17">
         <v>-552117818</v>
       </c>
-      <c r="AO20" s="11">
+      <c r="AO20" s="17">
         <v>26864000</v>
       </c>
-      <c r="AP20" s="11">
+      <c r="AP20" s="17">
         <v>-766113500</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A21" s="8">
+    <row r="21" spans="1:42">
+      <c r="A21" s="1">
         <v>45351</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="17">
         <v>351350879.78142071</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="17">
         <v>249792349.72677597</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="17">
         <v>249192754.09836066</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="17">
         <v>491579234.97267759</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="17">
         <v>-3037344262.2950821</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="17">
         <v>4290245901.6393442</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="17">
         <v>167356677.59562841</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="17">
         <v>167356677.59562841</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="17">
         <v>6819241879.7814207</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="17">
         <v>4194503349.7267761</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="17">
         <v>11064976743.169399</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="17">
         <v>1791541360.6557379</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="17">
         <v>1649472480.8743169</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="17">
         <v>3441014092.8961749</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="17">
         <v>7620227103.8251362</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="17">
         <v>1477471366.1202185</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="17">
         <v>6837590704.9180326</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="17">
         <v>-694833967.21311474</v>
       </c>
-      <c r="V21" s="11">
-        <v>0</v>
-      </c>
-      <c r="W21" s="11">
+      <c r="V21" s="17">
+        <v>0</v>
+      </c>
+      <c r="W21" s="17">
         <v>7623961901.6393442</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="17">
         <v>11064976743.169399</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Y21" s="17">
         <v>1331739032.7868853</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z21" s="17">
         <v>472560218.57923496</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AA21" s="17">
         <v>750992344.26229513</v>
       </c>
-      <c r="AB21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="11">
+      <c r="AB21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="17">
         <v>574626486.33879781</v>
       </c>
-      <c r="AE21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="11">
+      <c r="AE21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="17">
         <v>176365857.92349726</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AG21" s="17">
         <v>16031743.169398908</v>
       </c>
-      <c r="AH21" s="11">
+      <c r="AH21" s="17">
         <v>37748.633879781424</v>
       </c>
-      <c r="AI21" s="11">
+      <c r="AI21" s="17">
         <v>7628344.2622950822</v>
       </c>
-      <c r="AJ21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="11">
+      <c r="AJ21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="17">
         <v>119093617.48633879</v>
       </c>
-      <c r="AL21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="11">
+      <c r="AL21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="17">
         <v>74207732.240437165</v>
       </c>
-      <c r="AN21" s="11">
+      <c r="AN21" s="17">
         <v>-277753722.03278691</v>
       </c>
-      <c r="AO21" s="11">
+      <c r="AO21" s="17">
         <v>39557754.098360658</v>
       </c>
-      <c r="AP21" s="11">
+      <c r="AP21" s="17">
         <v>-597497213.11475408</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A22" s="8">
+    <row r="22" spans="1:42">
+      <c r="A22" s="1">
         <v>45443</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="2">
         <v>7</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="17">
         <v>559891000</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="17">
         <v>426000000</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="17">
         <v>426522000</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="17">
         <v>707000000</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="17">
         <v>-3756000000</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="17">
         <v>5395000000</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="17">
         <v>207942000</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="17">
         <v>207942000</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="17">
         <v>7811300000</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="17">
         <v>4942031000</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="17">
         <v>12821764000</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="17">
         <v>2283859000</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="17">
         <v>2100000000</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="17">
         <v>4383859000</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="17">
         <v>8437904000</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="17">
         <v>1939980000</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="17">
         <v>6924953000</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="17">
         <v>-427028000</v>
       </c>
-      <c r="V22" s="11">
-        <v>0</v>
-      </c>
-      <c r="W22" s="14">
+      <c r="V22" s="17">
+        <v>0</v>
+      </c>
+      <c r="W22" s="17">
         <v>8437904000</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X22" s="17">
         <v>12821764000</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="Y22" s="17">
         <v>1653963000</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="Z22" s="17">
         <v>703486000</v>
       </c>
-      <c r="AA22" s="14">
+      <c r="AA22" s="17">
         <v>950477000</v>
       </c>
       <c r="AB22" s="17">
@@ -3300,156 +3430,156 @@
       <c r="AC22" s="17">
         <v>0</v>
       </c>
-      <c r="AD22" s="14">
+      <c r="AD22" s="17">
         <v>609221000</v>
       </c>
       <c r="AE22" s="17">
         <v>0</v>
       </c>
-      <c r="AF22" s="14">
+      <c r="AF22" s="17">
         <v>341256000</v>
       </c>
-      <c r="AG22" s="14">
+      <c r="AG22" s="17">
         <v>23025000</v>
       </c>
-      <c r="AH22" s="14">
+      <c r="AH22" s="17">
         <v>38000</v>
       </c>
-      <c r="AI22" s="14">
+      <c r="AI22" s="17">
         <v>10693000</v>
       </c>
       <c r="AJ22" s="17">
         <v>0</v>
       </c>
-      <c r="AK22" s="14">
+      <c r="AK22" s="17">
         <v>159000000</v>
       </c>
       <c r="AL22" s="17">
         <v>0</v>
       </c>
-      <c r="AM22" s="14">
+      <c r="AM22" s="17">
         <v>207887000</v>
       </c>
-      <c r="AN22" s="14">
+      <c r="AN22" s="17">
         <v>-374636</v>
       </c>
-      <c r="AO22" s="14">
+      <c r="AO22" s="17">
         <v>52391000</v>
       </c>
-      <c r="AP22" s="14">
+      <c r="AP22" s="17">
         <v>-427028000</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="17.25" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
     </row>
     <row r="24" spans="1:42" ht="17.25" customHeight="1"/>
     <row r="25" spans="1:42" ht="17.25" customHeight="1"/>
     <row r="26" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="25"/>
+      <c r="E27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="26"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="26"/>
+      <c r="E29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="25"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="26"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="26"/>
+      <c r="E32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="5:11" ht="17.25" customHeight="1">
-      <c r="E33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="E33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="5:11" ht="17.25" customHeight="1">
-      <c r="E34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="E34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/financial_data/iQPS.xlsx
+++ b/financial_data/iQPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DBDDC0-486A-514E-BC93-81F210F5E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209705AC-5C36-4976-87E0-9C39EA073C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="500" windowWidth="18200" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
     <t>Total Operational Satellites</t>
   </si>
   <si>
-    <t>EBITDA(Published)</t>
-  </si>
-  <si>
-    <t>EBITDA(calculated)</t>
-  </si>
-  <si>
     <t>Cash flow from operating activities</t>
   </si>
   <si>
@@ -146,17 +140,24 @@
   </si>
   <si>
     <t>EBITDA</t>
+  </si>
+  <si>
+    <t>EBITDA (calculated)</t>
+  </si>
+  <si>
+    <t>EBITDA (published)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,43 +174,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ArialMT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF141414"/>
-      <name val="ArialMT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="-webkit-standard"/>
       <family val="2"/>
     </font>
     <font>
@@ -223,6 +188,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF141414"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -273,63 +244,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -338,13 +270,34 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -654,2644 +607,2821 @@
   </sheetPr>
   <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:AP22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="20" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="16.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="58.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:42" s="16" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AK1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AO1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A2" s="8">
+    <row r="2" spans="1:42">
+      <c r="A2" s="1">
         <v>43616</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
         <v>1805078000</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="17">
         <v>7020000</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="17">
         <v>1812099000</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="17">
         <v>37259000</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="17">
         <v>57259000</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="17">
         <v>1746053000</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="17">
         <v>100000000</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="17">
         <v>-713005000</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="17">
         <v>9845000</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="17">
         <v>1754840000</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="17">
         <v>1812099000</v>
       </c>
-      <c r="Y2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="11">
+      <c r="Y2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="17">
         <v>595194000</v>
       </c>
-      <c r="AE2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="11">
+      <c r="AE2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="17">
         <v>-595194000</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="17">
         <v>2786000</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="17">
         <v>66000</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2" s="17">
         <v>-1032000</v>
       </c>
-      <c r="AJ2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="11">
+      <c r="AJ2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="17">
         <v>1129000</v>
       </c>
-      <c r="AL2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="11">
+      <c r="AL2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="17">
         <v>-592244000</v>
       </c>
-      <c r="AN2" s="11">
+      <c r="AN2" s="17">
         <v>-592244000</v>
       </c>
-      <c r="AO2" s="11">
+      <c r="AO2" s="17">
         <v>1069000</v>
       </c>
-      <c r="AP2" s="11">
+      <c r="AP2" s="17">
         <v>-593314000</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A3" s="8">
+    <row r="3" spans="1:42">
+      <c r="A3" s="1">
         <v>43708</v>
       </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
         <v>1572117005.4644809</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="17">
         <v>6169672.1311475411</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="17">
         <v>1578287428.9617488</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="17">
         <v>30598098.36065574</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="17">
         <v>50598098.36065574</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="17">
         <v>1521086827.8688526</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="17">
         <v>100000000</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="17">
         <v>-937707868.85245895</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="17">
         <v>7370300.5464480873</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="17">
         <v>1525192918.0327868</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="17">
         <v>1575718071.0382514</v>
       </c>
-      <c r="Y3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="11">
+      <c r="Y3" s="17">
+        <v>540437.15846994531</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>-530382.51366120216</v>
+      </c>
+      <c r="AA3" s="17">
+        <v>10054.644808743169</v>
+      </c>
+      <c r="AB3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="17">
         <v>671911724.04371583</v>
       </c>
-      <c r="AE3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="11">
+      <c r="AE3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="17">
         <v>-671911724.04371583</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="17">
         <v>2360587.4316939889</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="17">
         <v>90117.486338797811</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="17">
         <v>-820163.93442622945</v>
       </c>
-      <c r="AJ3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="11">
+      <c r="AJ3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="17">
         <v>854756.83060109289</v>
       </c>
-      <c r="AL3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="11">
+      <c r="AL3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="17">
         <v>-670273573.77049184</v>
       </c>
-      <c r="AN3" s="11">
+      <c r="AN3" s="17">
         <v>-669425426.22950828</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AO3" s="17">
         <v>1072729.5081967213</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AP3" s="17">
         <v>-670498907.10382509</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:42">
+      <c r="A4" s="1">
         <v>43799</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
         <v>1336596000</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="17">
         <v>5310000</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="17">
         <v>1341906500</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="17">
         <v>23864000</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="17">
         <v>43864000</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="17">
         <v>1293648500</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="17">
         <v>100000000</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="17">
         <v>-1164880000</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="17">
         <v>4922500</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="17">
         <v>1298042000</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="17">
         <v>1341906500</v>
       </c>
-      <c r="Y4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="11">
+      <c r="Y4" s="17">
+        <v>1075000</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>-1055000</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>20000</v>
+      </c>
+      <c r="AB4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="17">
         <v>749472500</v>
       </c>
-      <c r="AE4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="11">
+      <c r="AE4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="17">
         <v>-749472500</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="17">
         <v>1930500</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="17">
         <v>114500</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="17">
         <v>-606000</v>
       </c>
-      <c r="AJ4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="11">
+      <c r="AJ4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="17">
         <v>577500</v>
       </c>
-      <c r="AL4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="11">
+      <c r="AL4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="17">
         <v>-747455000</v>
       </c>
-      <c r="AN4" s="11">
+      <c r="AN4" s="17">
         <v>-747455000</v>
       </c>
-      <c r="AO4" s="11">
+      <c r="AO4" s="17">
         <v>1076500</v>
       </c>
-      <c r="AP4" s="11">
+      <c r="AP4" s="17">
         <v>-748532000</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A5" s="8">
+    <row r="5" spans="1:42">
+      <c r="A5" s="1">
         <v>43888</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
         <v>1101074994.5355191</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="17">
         <v>4450327.8688524589</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="17">
         <v>1105525571.0382512</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="17">
         <v>17129901.63934426</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="17">
         <v>37129901.639344268</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="17">
         <v>1066210172.1311475</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="17">
         <v>100000000</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="17">
         <v>-1392052131.147541</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="17">
         <v>2528497.2677595625</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="17">
         <v>1075883409.8360655</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="17">
         <v>1113233644.8087432</v>
       </c>
-      <c r="Y5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11">
+      <c r="Y5" s="17">
+        <v>1597814.2076502731</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>-1568087.4316939891</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>29726.775956284153</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="17">
         <v>827033275.95628417</v>
       </c>
-      <c r="AE5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="11">
+      <c r="AE5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="17">
         <v>-827033275.95628417</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="17">
         <v>1500412.5683060111</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="17">
         <v>138882.51366120219</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="17">
         <v>-391836.06557377049</v>
       </c>
-      <c r="AJ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="11">
+      <c r="AJ5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="17">
         <v>300243.16939890711</v>
       </c>
-      <c r="AL5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="11">
+      <c r="AL5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="17">
         <v>-822940131.14754105</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="AN5" s="17">
         <v>-825484573.77049184</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AO5" s="17">
         <v>1080270.4918032787</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AP5" s="17">
         <v>-826565092.89617491</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:42">
+      <c r="A6" s="1">
         <v>43982</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <v>868114000</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="17">
         <v>3600000</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="17">
         <v>871714000</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="17">
         <v>10469000</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="17">
         <v>20000000</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="17">
         <v>30469000</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="17">
         <v>841244000</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="17">
         <v>100000000</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="17">
         <v>2358000000</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="17">
         <v>-1616755000</v>
       </c>
-      <c r="V6" s="11">
-        <v>0</v>
-      </c>
-      <c r="W6" s="11">
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
         <v>841244000</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="17">
         <v>871714000</v>
       </c>
-      <c r="Y6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11">
+      <c r="Y6" s="17">
+        <v>2150000</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>-2110000</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>40000</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="17">
         <v>903751000</v>
       </c>
-      <c r="AE6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="11">
+      <c r="AE6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="17">
         <v>-903751000</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="17">
         <v>1075000</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="17">
         <v>163000</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="17">
         <v>-180000</v>
       </c>
-      <c r="AJ6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="11">
+      <c r="AJ6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="17">
         <v>26000</v>
       </c>
-      <c r="AL6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="11">
+      <c r="AL6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="17">
         <v>-902666000</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AN6" s="17">
         <v>-902666000</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO6" s="17">
         <v>1084000</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AP6" s="17">
         <v>-903750000</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A7" s="8">
+    <row r="7" spans="1:42">
+      <c r="A7" s="1">
         <v>44074</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
         <v>924936893.15068483</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="17">
         <v>6089410.9589041108</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="17">
         <v>931026304.1095891</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="17">
         <v>16278539.726027399</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="17">
         <v>89808219.178082183</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="17">
         <v>106086758.9041096</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="17">
         <v>824938545.2054795</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="17">
         <v>100000000</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="17">
         <v>2499073186.3013697</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="17">
         <v>-1774133890.4109588</v>
       </c>
-      <c r="V7" s="11">
-        <v>0</v>
-      </c>
-      <c r="W7" s="11">
+      <c r="V7" s="17">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17">
         <v>824759364.38356161</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="17">
         <v>931678087.67123294</v>
       </c>
-      <c r="Y7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
+      <c r="Y7" s="17">
+        <v>2691917.8082191781</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>-2641835.6164383562</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>50082.191780821922</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="17">
         <v>834882200</v>
       </c>
-      <c r="AE7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="11">
+      <c r="AE7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="17">
         <v>-834862254.79452062</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="17">
         <v>1771087.6712328768</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="17">
         <v>128345.20547945207</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7" s="17">
         <v>-388926.02739726024</v>
       </c>
-      <c r="AJ7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="11">
+      <c r="AJ7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="17">
         <v>547567.12328767113</v>
       </c>
-      <c r="AL7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="11">
+      <c r="AL7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="17">
         <v>-833984849.31506848</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AN7" s="17">
         <v>-834731383.56164384</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO7" s="17">
         <v>1078515.0684931506</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7" s="17">
         <v>-835810147.94520545</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A8" s="8">
+    <row r="8" spans="1:42">
+      <c r="A8" s="1">
         <v>44165</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
         <v>982384213.69863009</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="17">
         <v>8606178.0821917821</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="17">
         <v>990990391.78082192</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="17">
         <v>22151920.547945205</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="17">
         <v>160383561.64383563</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="17">
         <v>182535482.19178084</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="17">
         <v>808453909.58904111</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="17">
         <v>100000000</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="17">
         <v>2641696627.3972602</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="17">
         <v>-1933242219.1780822</v>
       </c>
-      <c r="V8" s="11">
-        <v>0</v>
-      </c>
-      <c r="W8" s="11">
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
         <v>808453909.58904111</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="17">
         <v>990990391.78082192</v>
       </c>
-      <c r="Y8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11">
+      <c r="Y8" s="17">
+        <v>3227945.2054794519</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>-3167890.4109589038</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>60054.794520547948</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
         <v>765256600</v>
       </c>
-      <c r="AE8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="11">
+      <c r="AE8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
         <v>-765216490.41095889</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AG8" s="17">
         <v>2474824.6575342463</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AH8" s="17">
         <v>93309.589041095896</v>
       </c>
-      <c r="AI8" s="11">
+      <c r="AI8" s="17">
         <v>-600147.94520547951</v>
       </c>
-      <c r="AJ8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="11">
+      <c r="AJ8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="17">
         <v>1074865.7534246575</v>
       </c>
-      <c r="AL8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="11">
+      <c r="AL8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="17">
         <v>-766050232.87671232</v>
       </c>
-      <c r="AN8" s="11">
+      <c r="AN8" s="17">
         <v>-766050232.87671232</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AO8" s="17">
         <v>1072969.8630136987</v>
       </c>
-      <c r="AP8" s="11">
+      <c r="AP8" s="17">
         <v>-767123704.1095891</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A9" s="8">
+    <row r="9" spans="1:42">
+      <c r="A9" s="1">
         <v>44254</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="11">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
         <v>1039831534.2465754</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="17">
         <v>11122945.205479452</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="17">
         <v>1050954479.4520547</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="17">
         <v>28025301.369863015</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="17">
         <v>230958904.10958907</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="17">
         <v>258984205.47945207</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="17">
         <v>791969273.97260284</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="17">
         <v>100000000</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="17">
         <v>2784320068.4931507</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="17">
         <v>-2092350547.9452057</v>
       </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
-      <c r="W9" s="11">
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
         <v>792506816.43835616</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="17">
         <v>1048999128.7671233</v>
       </c>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
+      <c r="Y9" s="17">
+        <v>3752191.7808219176</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>-3682383.5616438356</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>69808.219178082189</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17">
         <v>695631000</v>
       </c>
-      <c r="AE9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="11">
+      <c r="AE9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="17">
         <v>-695570726.02739716</v>
       </c>
-      <c r="AG9" s="11">
+      <c r="AG9" s="17">
         <v>3178561.6438356163</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH9" s="17">
         <v>58273.972602739726</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AI9" s="17">
         <v>-811369.8630136986</v>
       </c>
-      <c r="AJ9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="11">
+      <c r="AJ9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="17">
         <v>1602164.3835616438</v>
       </c>
-      <c r="AL9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="11">
+      <c r="AL9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="17">
         <v>-699608684.93150687</v>
       </c>
-      <c r="AN9" s="11">
+      <c r="AN9" s="17">
         <v>-697369082.19178081</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AO9" s="17">
         <v>1067424.6575342466</v>
       </c>
-      <c r="AP9" s="11">
+      <c r="AP9" s="17">
         <v>-698437260.27397263</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A10" s="8">
+    <row r="10" spans="1:42">
+      <c r="A10" s="1">
         <v>44347</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <v>-615481000</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11">
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
         <v>-618223000</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
         <v>12976000</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="17">
         <v>1096030000</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="17">
         <v>13585000</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="17">
         <v>1109615000</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="17">
         <v>33771000</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="17">
         <v>333771000</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="17">
         <v>775843000</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="17">
         <v>100000000</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="17">
         <v>2923843000</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="17">
         <v>-2248000000</v>
       </c>
-      <c r="V10" s="11">
-        <v>0</v>
-      </c>
-      <c r="W10" s="11">
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
         <v>775843000</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="17">
         <v>1109615000</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="17">
         <v>4300000</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="17">
         <v>-4220000</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="17">
         <v>80000</v>
       </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="11">
+      <c r="AB10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17">
         <v>627519000</v>
       </c>
-      <c r="AE10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="11">
+      <c r="AE10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="17">
         <v>-627439000</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AG10" s="17">
         <v>3867000</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH10" s="17">
         <v>24000</v>
       </c>
-      <c r="AI10" s="11">
+      <c r="AI10" s="17">
         <v>-1018000</v>
       </c>
-      <c r="AJ10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="11">
+      <c r="AJ10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="17">
         <v>2118000</v>
       </c>
-      <c r="AL10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="14">
+      <c r="AL10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="17">
         <v>-630181000</v>
       </c>
-      <c r="AN10" s="11">
+      <c r="AN10" s="17">
         <v>-630181000</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AO10" s="17">
         <v>1062000</v>
       </c>
-      <c r="AP10" s="11">
+      <c r="AP10" s="17">
         <v>-631244000</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A11" s="8">
+    <row r="11" spans="1:42">
+      <c r="A11" s="1">
         <v>44439</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="17">
         <v>-550139764.38356161</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11">
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
         <v>-552384520.54794514</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11">
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
         <v>16576602.739726027</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="17">
         <v>1763056010.9589045</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="17">
         <v>482280624.6575343</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="17">
         <v>2245336635.6164384</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="17">
         <v>45732887.671232879</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="17">
         <v>345732887.67123288</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="17">
         <v>1901328257.5342464</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="17">
         <v>100000000</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="17">
         <v>3607848863.0136986</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="17">
         <v>-1784082249.3150685</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="17">
         <v>-1743967.1232876712</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="17">
         <v>1911952008.2191782</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="17">
         <v>2257817093.1506848</v>
       </c>
-      <c r="Y11" s="11">
-        <v>7902353.4246575302</v>
-      </c>
-      <c r="Z11" s="11">
+      <c r="Y11" s="17">
+        <v>7902353.4246575348</v>
+      </c>
+      <c r="Z11" s="17">
         <v>-5255654.7945205476</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="17">
         <v>2646698.6301369863</v>
       </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
+      <c r="AB11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
         <v>569009989.04109585</v>
       </c>
-      <c r="AE11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="11">
+      <c r="AE11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
         <v>-566363290.41095889</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AG11" s="17">
         <v>2779238.3561643832</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AH11" s="17">
         <v>21756.164383561645</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AI11" s="17">
         <v>-353076.71232876717</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="11">
+      <c r="AJ11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="17">
         <v>1593690.4109589041</v>
       </c>
-      <c r="AL11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="11">
+      <c r="AL11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="17">
         <v>-568608046.57534242</v>
       </c>
-      <c r="AN11" s="11">
+      <c r="AN11" s="17">
         <v>-569277317.80821919</v>
       </c>
-      <c r="AO11" s="11">
+      <c r="AO11" s="17">
         <v>1129813.6986301369</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AP11" s="17">
         <v>-570407882.19178081</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A12" s="8">
+    <row r="12" spans="1:42">
+      <c r="A12" s="1">
         <v>44530</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="17">
         <v>-484159197.26027399</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
         <v>-487247142.46575338</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11">
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
         <v>20138068.493150685</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="17">
         <v>2437411978.0821919</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="17">
         <v>956126750.68493152</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="17">
         <v>3393538728.7671232</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="17">
         <v>57826224.657534242</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="17">
         <v>357826224.6575343</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="17">
         <v>3039181484.9315066</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="17">
         <v>100000000</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="17">
         <v>4299371273.9726028</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="17">
         <v>-1315066501.369863</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="17">
         <v>-3468978.0821917807</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="17">
         <v>3035712005.4794521</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="17">
         <v>3393538728.7671232</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="17">
         <v>11544293.15068493</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="17">
         <v>-6302690.4109589038</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="17">
         <v>5241602.7397260265</v>
       </c>
-      <c r="AB12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="11">
+      <c r="AB12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
         <v>509858021.91780823</v>
       </c>
-      <c r="AE12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="11">
+      <c r="AE12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17">
         <v>-504616419.17808223</v>
       </c>
-      <c r="AG12" s="11">
+      <c r="AG12" s="17">
         <v>1679523.2876712326</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AH12" s="17">
         <v>19487.671232876713</v>
       </c>
-      <c r="AI12" s="11">
+      <c r="AI12" s="17">
         <v>319153.42465753428</v>
       </c>
-      <c r="AJ12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="11">
+      <c r="AJ12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="17">
         <v>1063619.1780821919</v>
       </c>
-      <c r="AL12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="11">
+      <c r="AL12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="17">
         <v>-507704364.38356161</v>
       </c>
-      <c r="AN12" s="11">
+      <c r="AN12" s="17">
         <v>-507704364.38356167</v>
       </c>
-      <c r="AO12" s="11">
+      <c r="AO12" s="17">
         <v>1198372.602739726</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="17">
         <v>-508903235.61643839</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A13" s="8">
+    <row r="13" spans="1:42">
+      <c r="A13" s="1">
         <v>44619</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="17">
         <v>-418256904.10958898</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
         <v>-423526580.82191777</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11">
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
         <v>23621260.273972601</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="17">
         <v>3111767945.2054796</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="17">
         <v>1429972876.7123287</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="17">
         <v>4541740821.9178076</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="17">
         <v>69919561.643835604</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="17">
         <v>369919561.6438356</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="17">
         <v>4177034712.3287673</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="17">
         <v>100000000</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="17">
         <v>4990893684.9315062</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="17">
         <v>-846050753.42465746</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="17">
         <v>-5156076.7123287674</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="17">
         <v>4134773980.8219175</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="17">
         <v>4504299449.3150682</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="17">
         <v>15186232.87671233</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="17">
         <v>-7349726.027397261</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="17">
         <v>7836506.8493150687</v>
       </c>
-      <c r="AB13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="11">
+      <c r="AB13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="17">
         <v>450706054.79452056</v>
       </c>
-      <c r="AE13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="11">
+      <c r="AE13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="17">
         <v>-442869547.94520545</v>
       </c>
-      <c r="AG13" s="11">
+      <c r="AG13" s="17">
         <v>579808.21917808207</v>
       </c>
-      <c r="AH13" s="11">
+      <c r="AH13" s="17">
         <v>17219.178082191782</v>
       </c>
-      <c r="AI13" s="11">
+      <c r="AI13" s="17">
         <v>991383.56164383562</v>
       </c>
-      <c r="AJ13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="11">
+      <c r="AJ13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="17">
         <v>533547.94520547939</v>
       </c>
-      <c r="AL13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="11">
+      <c r="AL13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="17">
         <v>-448139224.65753424</v>
       </c>
-      <c r="AN13" s="11">
+      <c r="AN13" s="17">
         <v>-446131410.95890415</v>
       </c>
-      <c r="AO13" s="11">
+      <c r="AO13" s="17">
         <v>1266931.5068493153</v>
       </c>
-      <c r="AP13" s="11">
+      <c r="AP13" s="17">
         <v>-447398589.04109591</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A14" s="8">
+    <row r="14" spans="1:42">
+      <c r="A14" s="1">
         <v>44712</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="17">
         <v>-353555000</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11">
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
         <v>-356987000</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="17">
         <v>-528000000</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="17">
         <v>-1734000000</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="17">
         <v>4882000000</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14">
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
         <v>27261000</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="17">
         <v>3771464000</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="17">
         <v>1893518000</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="17">
         <v>5664982000</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="17">
         <v>81750000</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="17">
         <v>300000000</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="17">
         <v>381750000</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="17">
         <v>5290152000</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="17">
         <v>100000000</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="17">
         <v>5667383000</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="17">
         <v>-387231000</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="17">
         <v>-6919000</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="17">
         <v>5283232000</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="17">
         <v>5664982000</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="17">
         <v>18749000</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="17">
         <v>-8374000</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14" s="17">
         <v>10375000</v>
       </c>
-      <c r="AB14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="11">
+      <c r="AB14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
         <v>392840000</v>
       </c>
-      <c r="AE14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="11">
+      <c r="AE14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="17">
         <v>-382465000</v>
       </c>
-      <c r="AG14" s="11">
+      <c r="AG14" s="17">
         <v>-496000</v>
       </c>
-      <c r="AH14" s="11">
+      <c r="AH14" s="17">
         <v>15000</v>
       </c>
-      <c r="AI14" s="11">
+      <c r="AI14" s="17">
         <v>1649000</v>
       </c>
-      <c r="AJ14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="11">
+      <c r="AJ14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="17">
         <v>15000</v>
       </c>
-      <c r="AL14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="11">
+      <c r="AL14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="17">
         <v>-385897000</v>
       </c>
-      <c r="AN14" s="11">
+      <c r="AN14" s="17">
         <v>-385897000</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AO14" s="17">
         <v>1334000</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AP14" s="17">
         <v>-387231000</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A15" s="8">
+    <row r="15" spans="1:42">
+      <c r="A15" s="1">
         <v>44804</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="17">
         <v>-332604997.26027399</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="17">
         <v>-69315068.493150681</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="17">
         <v>-337306254.7945205</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="17">
         <v>-432723287.67123288</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="17">
         <v>-1523030136.9863014</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="17">
         <v>3903523287.6712327</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="17">
         <v>11716263.013698628</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="17">
         <v>32105997.260273974</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="17">
         <v>3794692684.9315066</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="17">
         <v>1912130117.8082192</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="17">
         <v>5706823052.0547943</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="17">
         <v>142468441.09589043</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="17">
         <v>301915736.98630136</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="17">
         <v>444384427.39726025</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="17">
         <v>5263929041.09589</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="17">
         <v>100000000</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="17">
         <v>5894264698.6301374</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="17">
         <v>-662773764.38356173</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="17">
         <v>-1430254.7945205485</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="17">
         <v>5262210126.0273972</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="17">
         <v>5707282843.8356171</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="17">
         <v>106837747.94520546</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="17">
         <v>-59938090.410958901</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AA15" s="17">
         <v>46899657.534246564</v>
       </c>
-      <c r="AB15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="11">
+      <c r="AB15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="17">
         <v>412474808.21917808</v>
       </c>
-      <c r="AE15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="11">
+      <c r="AE15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="17">
         <v>-365575150.68493158</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AG15" s="17">
         <v>-1568054.7945205481</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AH15" s="17">
         <v>20484.931506849312</v>
       </c>
-      <c r="AI15" s="11">
+      <c r="AI15" s="17">
         <v>864156.1643835617</v>
       </c>
-      <c r="AJ15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="11">
+      <c r="AJ15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="17">
         <v>71594.520547945198</v>
       </c>
-      <c r="AL15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="11">
+      <c r="AL15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="17">
         <v>-370276408.21917808</v>
       </c>
-      <c r="AN15" s="11">
+      <c r="AN15" s="17">
         <v>-564896243.83561635</v>
       </c>
-      <c r="AO15" s="11">
+      <c r="AO15" s="17">
         <v>1334747.9452054794</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AP15" s="17">
         <v>-566231241.0958904</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A16" s="8">
+    <row r="16" spans="1:42">
+      <c r="A16" s="1">
         <v>44895</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="17">
         <v>-311530679.45205486</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="17">
         <v>-137876712.32876712</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="17">
         <v>-317856586.30136991</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="17">
         <v>-338482191.78082192</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="17">
         <v>-1314353424.6575341</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="17">
         <v>2935682191.7808218</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="17">
         <v>23305175.342465751</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="17">
         <v>36898331.506849319</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="17">
         <v>3818176630.1369863</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="17">
         <v>1930946764.3835616</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="17">
         <v>5749123895.8904114</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="17">
         <v>203854117.80821916</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="17">
         <v>303852526.02739727</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="17">
         <v>507707145.20547944</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="17">
         <v>5237417917.808219</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="17">
         <v>100000000</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="17">
         <v>6123639602.7397261</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="17">
         <v>-941344471.23287678</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="17">
         <v>3998830.1369863003</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="17">
         <v>5241416750.6849318</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="17">
         <v>5749123895.8904114</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="17">
         <v>195894504.10958904</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="17">
         <v>-112068819.17808218</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AA16" s="17">
         <v>83825684.931506842</v>
       </c>
-      <c r="AB16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="11">
+      <c r="AB16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="17">
         <v>432325383.56164384</v>
       </c>
-      <c r="AE16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="11">
+      <c r="AE16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="17">
         <v>-348499698.63013703</v>
       </c>
-      <c r="AG16" s="11">
+      <c r="AG16" s="17">
         <v>-2651890.4109589043</v>
       </c>
-      <c r="AH16" s="11">
+      <c r="AH16" s="17">
         <v>26030.136986301372</v>
       </c>
-      <c r="AI16" s="11">
+      <c r="AI16" s="17">
         <v>70687.671232876717</v>
       </c>
-      <c r="AJ16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="11">
+      <c r="AJ16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="17">
         <v>128810.95890410959</v>
       </c>
-      <c r="AL16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="11">
+      <c r="AL16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="17">
         <v>-354825605.47945207</v>
       </c>
-      <c r="AN16" s="11">
+      <c r="AN16" s="17">
         <v>-745862512.32876706</v>
       </c>
-      <c r="AO16" s="11">
+      <c r="AO16" s="17">
         <v>1335504.109589041</v>
       </c>
-      <c r="AP16" s="11">
+      <c r="AP16" s="17">
         <v>-747198517.80821919</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A17" s="8">
+    <row r="17" spans="1:42">
+      <c r="A17" s="1">
         <v>44984</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="17">
         <v>-290561687.67123294</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="17">
         <v>-204931506.84931505</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="17">
         <v>-298851821.91780829</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="17">
         <v>-246312328.76712328</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="17">
         <v>-1110263013.6986301</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="17">
         <v>1989112328.7671232</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="17">
         <v>34639386.301369861</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="17">
         <v>41585339.726027399</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="17">
         <v>3841660575.3424659</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="17">
         <v>1949763410.958904</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="17">
         <v>5791424739.7260275</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="17">
         <v>265239794.52054796</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="17">
         <v>305789315.06849313</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="17">
         <v>571029863.01369858</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="17">
         <v>5210906794.5205479</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="17">
         <v>100000000</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="17">
         <v>6353014506.8493147</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="17">
         <v>-1219915178.0821919</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="17">
         <v>9308594.5205479451</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="17">
         <v>5221080372.6027403</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="17">
         <v>5790045364.3835621</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="17">
         <v>284951260.27397257</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="17">
         <v>-164199547.94520548</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AA17" s="17">
         <v>120751712.32876711</v>
       </c>
-      <c r="AB17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="11">
+      <c r="AB17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="17">
         <v>452175958.9041096</v>
       </c>
-      <c r="AE17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="11">
+      <c r="AE17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="17">
         <v>-331424246.57534248</v>
       </c>
-      <c r="AG17" s="11">
+      <c r="AG17" s="17">
         <v>-3735726.0273972605</v>
       </c>
-      <c r="AH17" s="11">
+      <c r="AH17" s="17">
         <v>31575.342465753427</v>
       </c>
-      <c r="AI17" s="11">
+      <c r="AI17" s="17">
         <v>-722780.82191780827</v>
       </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="11">
+      <c r="AJ17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="17">
         <v>186027.39726027398</v>
       </c>
-      <c r="AL17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="11">
+      <c r="AL17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="17">
         <v>-339714380.82191783</v>
       </c>
-      <c r="AN17" s="11">
+      <c r="AN17" s="17">
         <v>-926828780.82191777</v>
       </c>
-      <c r="AO17" s="11">
+      <c r="AO17" s="17">
         <v>1336260.2739726028</v>
       </c>
-      <c r="AP17" s="11">
+      <c r="AP17" s="17">
         <v>-928165794.52054799</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A18" s="8">
+    <row r="18" spans="1:42">
+      <c r="A18" s="1">
         <v>45077</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="17">
         <v>-269736000</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="17">
         <v>-275000000</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="17">
         <v>-278940000</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="17">
         <v>-150000000</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="17">
         <v>-897000000</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="17">
         <v>1000000000</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="17">
         <v>46483000</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="17">
         <v>46483000</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="17">
         <v>3864634000</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="17">
         <v>1968171000</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="17">
         <v>5832806000</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="17">
         <v>325291000</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="17">
         <v>307684000</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="17">
         <v>632976000</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="17">
         <v>5184972000</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="17">
         <v>100000000</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="17">
         <v>6577403000</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="17">
         <v>-1492430000</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="17">
         <v>14857000</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="17">
         <v>5199830000</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="17">
         <v>5832806000</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y18" s="17">
         <v>372072000</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18" s="17">
         <v>-215197000</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AA18" s="17">
         <v>156875000</v>
       </c>
-      <c r="AB18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="11">
+      <c r="AB18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="17">
         <v>471595000</v>
       </c>
-      <c r="AE18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="11">
+      <c r="AE18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="17">
         <v>-314720000</v>
       </c>
-      <c r="AG18" s="11">
+      <c r="AG18" s="17">
         <v>-4796000</v>
       </c>
-      <c r="AH18" s="11">
+      <c r="AH18" s="17">
         <v>37000</v>
       </c>
-      <c r="AI18" s="11">
+      <c r="AI18" s="17">
         <v>-1499000</v>
       </c>
-      <c r="AJ18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="14">
+      <c r="AJ18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="17">
         <v>242000</v>
       </c>
-      <c r="AL18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="14">
+      <c r="AL18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="17">
         <v>-323924000</v>
       </c>
-      <c r="AN18" s="11">
+      <c r="AN18" s="17">
         <v>-1103861000</v>
       </c>
-      <c r="AO18" s="11">
+      <c r="AO18" s="17">
         <v>1337000</v>
       </c>
-      <c r="AP18" s="11">
+      <c r="AP18" s="17">
         <v>-1105199000</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A19" s="8">
+    <row r="19" spans="1:42">
+      <c r="A19" s="1">
         <v>45169</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="17">
         <v>-61195879.781420738</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="17">
         <v>-98792349.726775944</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="17">
         <v>-101610754.09836063</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="17">
         <v>65420765.027322412</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="17">
         <v>-1615655737.7049179</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="17">
         <v>2104754098.3606558</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="17">
         <v>87068322.404371589</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="17">
         <v>87068322.404371589</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="17">
         <v>4856692120.2185793</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="17">
         <v>2715698650.2732239</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="17">
         <v>7589593256.8306007</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="17">
         <v>817608639.34426236</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="17">
         <v>758211519.12568307</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="17">
         <v>1575820907.1038251</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="17">
         <v>6002648896.1748638</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="17">
         <v>562508633.87978148</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="17">
         <v>6664765295.0819674</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="17">
         <v>-1224624032.7868853</v>
       </c>
-      <c r="V19" s="11">
-        <v>0</v>
-      </c>
-      <c r="W19" s="11">
+      <c r="V19" s="17">
+        <v>0</v>
+      </c>
+      <c r="W19" s="17">
         <v>6013772098.3606558</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="17">
         <v>7589593256.8306007</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="17">
         <v>694295967.21311474</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z19" s="17">
         <v>15728781.420765013</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AA19" s="17">
         <v>356359655.73770493</v>
       </c>
-      <c r="AB19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="11">
+      <c r="AB19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="17">
         <v>506189513.66120219</v>
       </c>
-      <c r="AE19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="11">
+      <c r="AE19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="17">
         <v>-149829857.92349726</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AG19" s="17">
         <v>2197256.8306010934</v>
       </c>
-      <c r="AH19" s="11">
+      <c r="AH19" s="17">
         <v>37251.366120218576</v>
       </c>
-      <c r="AI19" s="11">
+      <c r="AI19" s="17">
         <v>1565655.7377049183</v>
       </c>
-      <c r="AJ19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="11">
+      <c r="AJ19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="17">
         <v>40148382.513661198</v>
       </c>
-      <c r="AL19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="11">
+      <c r="AL19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="17">
         <v>-190244732.24043715</v>
       </c>
-      <c r="AN19" s="11">
+      <c r="AN19" s="17">
         <v>-826481913.96721315</v>
       </c>
-      <c r="AO19" s="11">
+      <c r="AO19" s="17">
         <v>14170245.901639344</v>
       </c>
-      <c r="AP19" s="11">
+      <c r="AP19" s="17">
         <v>-934729786.88524592</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A20" s="8">
+    <row r="20" spans="1:42">
+      <c r="A20" s="1">
         <v>45260</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="17">
         <v>145077500</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="17">
         <v>75500000</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="17">
         <v>73791000</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="17">
         <v>278500000</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="17">
         <v>-2326500000</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="17">
         <v>3197500000</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="17">
         <v>127212500</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="17">
         <v>127212500</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="17">
         <v>5837967000</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="17">
         <v>3455101000</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="17">
         <v>9327285000</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="17">
         <v>1304575000</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="17">
         <v>1203842000</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="17">
         <v>2508417500</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="17">
         <v>6811438000</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="17">
         <v>1019990000</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="17">
         <v>6751178000</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="17">
         <v>-959729000</v>
       </c>
-      <c r="V20" s="11">
-        <v>0</v>
-      </c>
-      <c r="W20" s="11">
+      <c r="V20" s="17">
+        <v>0</v>
+      </c>
+      <c r="W20" s="17">
         <v>6818867000</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="17">
         <v>9327285000</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y20" s="17">
         <v>1013017500</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20" s="17">
         <v>244144500</v>
       </c>
-      <c r="AA20" s="11">
+      <c r="AA20" s="17">
         <v>553676000</v>
       </c>
-      <c r="AB20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="11">
+      <c r="AB20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="17">
         <v>540408000</v>
       </c>
-      <c r="AE20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="11">
+      <c r="AE20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="17">
         <v>13268000</v>
       </c>
-      <c r="AG20" s="11">
+      <c r="AG20" s="17">
         <v>9114500</v>
       </c>
-      <c r="AH20" s="11">
+      <c r="AH20" s="17">
         <v>37500</v>
       </c>
-      <c r="AI20" s="11">
+      <c r="AI20" s="17">
         <v>4597000</v>
       </c>
-      <c r="AJ20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="11">
+      <c r="AJ20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="17">
         <v>79621000</v>
       </c>
-      <c r="AL20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="11">
+      <c r="AL20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="17">
         <v>-58018500</v>
       </c>
-      <c r="AN20" s="11">
+      <c r="AN20" s="17">
         <v>-552117818</v>
       </c>
-      <c r="AO20" s="11">
+      <c r="AO20" s="17">
         <v>26864000</v>
       </c>
-      <c r="AP20" s="11">
+      <c r="AP20" s="17">
         <v>-766113500</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="18.75" customHeight="1">
-      <c r="A21" s="8">
+    <row r="21" spans="1:42">
+      <c r="A21" s="1">
         <v>45351</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="17">
         <v>351350879.78142071</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="17">
         <v>249792349.72677597</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="17">
         <v>249192754.09836066</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="17">
         <v>491579234.97267759</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="17">
         <v>-3037344262.2950821</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="17">
         <v>4290245901.6393442</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="17">
         <v>167356677.59562841</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="17">
         <v>167356677.59562841</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="17">
         <v>6819241879.7814207</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="17">
         <v>4194503349.7267761</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="17">
         <v>11064976743.169399</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="17">
         <v>1791541360.6557379</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="17">
         <v>1649472480.8743169</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="17">
         <v>3441014092.8961749</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="17">
         <v>7620227103.8251362</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="17">
         <v>1477471366.1202185</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="17">
         <v>6837590704.9180326</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="17">
         <v>-694833967.21311474</v>
       </c>
-      <c r="V21" s="11">
-        <v>0</v>
-      </c>
-      <c r="W21" s="11">
+      <c r="V21" s="17">
+        <v>0</v>
+      </c>
+      <c r="W21" s="17">
         <v>7623961901.6393442</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="17">
         <v>11064976743.169399</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Y21" s="17">
         <v>1331739032.7868853</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z21" s="17">
         <v>472560218.57923496</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AA21" s="17">
         <v>750992344.26229513</v>
       </c>
-      <c r="AB21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="11">
+      <c r="AB21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="17">
         <v>574626486.33879781</v>
       </c>
-      <c r="AE21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="11">
+      <c r="AE21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="17">
         <v>176365857.92349726</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AG21" s="17">
         <v>16031743.169398908</v>
       </c>
-      <c r="AH21" s="11">
+      <c r="AH21" s="17">
         <v>37748.633879781424</v>
       </c>
-      <c r="AI21" s="11">
+      <c r="AI21" s="17">
         <v>7628344.2622950822</v>
       </c>
-      <c r="AJ21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="11">
+      <c r="AJ21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="17">
         <v>119093617.48633879</v>
       </c>
-      <c r="AL21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="11">
+      <c r="AL21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="17">
         <v>74207732.240437165</v>
       </c>
-      <c r="AN21" s="11">
+      <c r="AN21" s="17">
         <v>-277753722.03278691</v>
       </c>
-      <c r="AO21" s="11">
+      <c r="AO21" s="17">
         <v>39557754.098360658</v>
       </c>
-      <c r="AP21" s="11">
+      <c r="AP21" s="17">
         <v>-597497213.11475408</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="23.25" customHeight="1">
-      <c r="A22" s="8">
+    <row r="22" spans="1:42">
+      <c r="A22" s="1">
         <v>45443</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="2">
         <v>7</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="17">
         <v>559891000</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="17">
         <v>426000000</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="17">
         <v>426522000</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="17">
         <v>707000000</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="17">
         <v>-3756000000</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="17">
         <v>5395000000</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="17">
         <v>207942000</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="17">
         <v>207942000</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="17">
         <v>7811300000</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="17">
         <v>4942031000</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="17">
         <v>12821764000</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="17">
         <v>2283859000</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="17">
         <v>2100000000</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="17">
         <v>4383859000</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="17">
         <v>8437904000</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="17">
         <v>1939980000</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="17">
         <v>6924953000</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="17">
         <v>-427028000</v>
       </c>
-      <c r="V22" s="11">
-        <v>0</v>
-      </c>
-      <c r="W22" s="14">
+      <c r="V22" s="17">
+        <v>0</v>
+      </c>
+      <c r="W22" s="17">
         <v>8437904000</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X22" s="17">
         <v>12821764000</v>
       </c>
-      <c r="Y22" s="14">
+      <c r="Y22" s="17">
         <v>1653963000</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="Z22" s="17">
         <v>703486000</v>
       </c>
-      <c r="AA22" s="14">
+      <c r="AA22" s="17">
         <v>950477000</v>
       </c>
       <c r="AB22" s="17">
@@ -3300,156 +3430,156 @@
       <c r="AC22" s="17">
         <v>0</v>
       </c>
-      <c r="AD22" s="14">
+      <c r="AD22" s="17">
         <v>609221000</v>
       </c>
       <c r="AE22" s="17">
         <v>0</v>
       </c>
-      <c r="AF22" s="14">
+      <c r="AF22" s="17">
         <v>341256000</v>
       </c>
-      <c r="AG22" s="14">
+      <c r="AG22" s="17">
         <v>23025000</v>
       </c>
-      <c r="AH22" s="14">
+      <c r="AH22" s="17">
         <v>38000</v>
       </c>
-      <c r="AI22" s="14">
+      <c r="AI22" s="17">
         <v>10693000</v>
       </c>
       <c r="AJ22" s="17">
         <v>0</v>
       </c>
-      <c r="AK22" s="14">
+      <c r="AK22" s="17">
         <v>159000000</v>
       </c>
       <c r="AL22" s="17">
         <v>0</v>
       </c>
-      <c r="AM22" s="14">
+      <c r="AM22" s="17">
         <v>207887000</v>
       </c>
-      <c r="AN22" s="14">
+      <c r="AN22" s="17">
         <v>-374636</v>
       </c>
-      <c r="AO22" s="14">
+      <c r="AO22" s="17">
         <v>52391000</v>
       </c>
-      <c r="AP22" s="14">
+      <c r="AP22" s="17">
         <v>-427028000</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="17.25" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
     </row>
     <row r="24" spans="1:42" ht="17.25" customHeight="1"/>
     <row r="25" spans="1:42" ht="17.25" customHeight="1"/>
     <row r="26" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="25"/>
+      <c r="E27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="26"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="26"/>
+      <c r="E29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="25"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="26"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:42" ht="17.25" customHeight="1">
-      <c r="E32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="26"/>
+      <c r="E32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="5:11" ht="17.25" customHeight="1">
-      <c r="E33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="E33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="5:11" ht="17.25" customHeight="1">
-      <c r="E34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="E34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
